--- a/data-win10-vm-2procs.xlsx
+++ b/data-win10-vm-2procs.xlsx
@@ -463,8 +463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M689"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L350" sqref="L350"/>
+    <sheetView tabSelected="1" topLeftCell="A673" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L690" sqref="L690"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13261,6 +13261,10 @@
       <c r="K350">
         <v>0</v>
       </c>
+      <c r="L350" s="2">
+        <f>AVERAGE(B350:K350)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="351" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
@@ -13296,6 +13300,10 @@
       <c r="K351">
         <v>0</v>
       </c>
+      <c r="L351" s="2">
+        <f>AVERAGE(B351:K351)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="352" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
@@ -13331,8 +13339,12 @@
       <c r="K352">
         <v>0</v>
       </c>
-    </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L352" s="2">
+        <f>AVERAGE(B352:K352)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>8000</v>
       </c>
@@ -13366,8 +13378,12 @@
       <c r="K353">
         <v>0</v>
       </c>
-    </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L353" s="2">
+        <f>AVERAGE(B353:K353)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>16000</v>
       </c>
@@ -13401,8 +13417,12 @@
       <c r="K354">
         <v>0</v>
       </c>
-    </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L354" s="2">
+        <f>AVERAGE(B354:K354)</f>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="355" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>32000</v>
       </c>
@@ -13436,8 +13456,12 @@
       <c r="K355">
         <v>0</v>
       </c>
-    </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L355" s="2">
+        <f>AVERAGE(B355:K355)</f>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="356" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>64000</v>
       </c>
@@ -13471,8 +13495,12 @@
       <c r="K356">
         <v>16</v>
       </c>
-    </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L356" s="2">
+        <f>AVERAGE(B356:K356)</f>
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="357" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>128000</v>
       </c>
@@ -13506,8 +13534,12 @@
       <c r="K357">
         <v>0</v>
       </c>
-    </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L357" s="2">
+        <f>AVERAGE(B357:K357)</f>
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="358" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>256000</v>
       </c>
@@ -13541,8 +13573,12 @@
       <c r="K358">
         <v>16</v>
       </c>
-    </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L358" s="2">
+        <f>AVERAGE(B358:K358)</f>
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="359" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>512000</v>
       </c>
@@ -13576,8 +13612,12 @@
       <c r="K359">
         <v>16</v>
       </c>
-    </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L359" s="2">
+        <f>AVERAGE(B359:K359)</f>
+        <v>19.100000000000001</v>
+      </c>
+    </row>
+    <row r="360" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>1024000</v>
       </c>
@@ -13611,8 +13651,12 @@
       <c r="K360">
         <v>31</v>
       </c>
-    </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L360" s="2">
+        <f>AVERAGE(B360:K360)</f>
+        <v>41.1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>2048000</v>
       </c>
@@ -13646,8 +13690,12 @@
       <c r="K361">
         <v>78</v>
       </c>
-    </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L361" s="2">
+        <f>AVERAGE(B361:K361)</f>
+        <v>82.9</v>
+      </c>
+    </row>
+    <row r="362" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>4096000</v>
       </c>
@@ -13681,8 +13729,12 @@
       <c r="K362">
         <v>172</v>
       </c>
-    </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L362" s="2">
+        <f>AVERAGE(B362:K362)</f>
+        <v>171.9</v>
+      </c>
+    </row>
+    <row r="363" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>8192000</v>
       </c>
@@ -13716,8 +13768,12 @@
       <c r="K363">
         <v>329</v>
       </c>
-    </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L363" s="2">
+        <f>AVERAGE(B363:K363)</f>
+        <v>332.8</v>
+      </c>
+    </row>
+    <row r="364" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>16384000</v>
       </c>
@@ -13751,8 +13807,12 @@
       <c r="K364">
         <v>703</v>
       </c>
-    </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L364" s="2">
+        <f>AVERAGE(B364:K364)</f>
+        <v>681</v>
+      </c>
+    </row>
+    <row r="365" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>32768000</v>
       </c>
@@ -13786,8 +13846,12 @@
       <c r="K365">
         <v>1390</v>
       </c>
-    </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L365" s="2">
+        <f>AVERAGE(B365:K365)</f>
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="366" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>65536000</v>
       </c>
@@ -13821,8 +13885,12 @@
       <c r="K366">
         <v>2749</v>
       </c>
-    </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L366" s="2">
+        <f>AVERAGE(B366:K366)</f>
+        <v>2698.4</v>
+      </c>
+    </row>
+    <row r="368" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B368" t="s">
         <v>2</v>
       </c>
@@ -13854,7 +13922,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>1000</v>
       </c>
@@ -13888,8 +13956,12 @@
       <c r="K369">
         <v>31</v>
       </c>
-    </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L369" s="2">
+        <f>AVERAGE(B369:K369)</f>
+        <v>35.700000000000003</v>
+      </c>
+    </row>
+    <row r="370" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>2000</v>
       </c>
@@ -13923,8 +13995,12 @@
       <c r="K370">
         <v>31</v>
       </c>
-    </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L370" s="2">
+        <f>AVERAGE(B370:K370)</f>
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="371" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>4000</v>
       </c>
@@ -13958,8 +14034,12 @@
       <c r="K371">
         <v>32</v>
       </c>
-    </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L371" s="2">
+        <f>AVERAGE(B371:K371)</f>
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="372" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <v>8000</v>
       </c>
@@ -13993,8 +14073,12 @@
       <c r="K372">
         <v>31</v>
       </c>
-    </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L372" s="2">
+        <f>AVERAGE(B372:K372)</f>
+        <v>31.4</v>
+      </c>
+    </row>
+    <row r="373" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>16000</v>
       </c>
@@ -14028,8 +14112,12 @@
       <c r="K373">
         <v>31</v>
       </c>
-    </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L373" s="2">
+        <f>AVERAGE(B373:K373)</f>
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="374" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>32000</v>
       </c>
@@ -14063,8 +14151,12 @@
       <c r="K374">
         <v>31</v>
       </c>
-    </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L374" s="2">
+        <f>AVERAGE(B374:K374)</f>
+        <v>31.3</v>
+      </c>
+    </row>
+    <row r="375" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>64000</v>
       </c>
@@ -14098,8 +14190,12 @@
       <c r="K375">
         <v>32</v>
       </c>
-    </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L375" s="2">
+        <f>AVERAGE(B375:K375)</f>
+        <v>29.8</v>
+      </c>
+    </row>
+    <row r="376" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>128000</v>
       </c>
@@ -14133,8 +14229,12 @@
       <c r="K376">
         <v>30</v>
       </c>
-    </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L376" s="2">
+        <f>AVERAGE(B376:K376)</f>
+        <v>31.1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>256000</v>
       </c>
@@ -14168,8 +14268,12 @@
       <c r="K377">
         <v>32</v>
       </c>
-    </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L377" s="2">
+        <f>AVERAGE(B377:K377)</f>
+        <v>37.4</v>
+      </c>
+    </row>
+    <row r="378" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <v>512000</v>
       </c>
@@ -14203,8 +14307,12 @@
       <c r="K378">
         <v>47</v>
       </c>
-    </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L378" s="2">
+        <f>AVERAGE(B378:K378)</f>
+        <v>54.4</v>
+      </c>
+    </row>
+    <row r="379" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>1024000</v>
       </c>
@@ -14238,8 +14346,12 @@
       <c r="K379">
         <v>78</v>
       </c>
-    </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L379" s="2">
+        <f>AVERAGE(B379:K379)</f>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="380" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>2048000</v>
       </c>
@@ -14273,8 +14385,12 @@
       <c r="K380">
         <v>109</v>
       </c>
-    </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L380" s="2">
+        <f>AVERAGE(B380:K380)</f>
+        <v>121.6</v>
+      </c>
+    </row>
+    <row r="381" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <v>4096000</v>
       </c>
@@ -14308,8 +14424,12 @@
       <c r="K381">
         <v>203</v>
       </c>
-    </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L381" s="2">
+        <f>AVERAGE(B381:K381)</f>
+        <v>212.4</v>
+      </c>
+    </row>
+    <row r="382" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>8192000</v>
       </c>
@@ -14343,8 +14463,12 @@
       <c r="K382">
         <v>391</v>
       </c>
-    </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L382" s="2">
+        <f>AVERAGE(B382:K382)</f>
+        <v>385.8</v>
+      </c>
+    </row>
+    <row r="383" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <v>16384000</v>
       </c>
@@ -14378,8 +14502,12 @@
       <c r="K383">
         <v>765</v>
       </c>
-    </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L383" s="2">
+        <f>AVERAGE(B383:K383)</f>
+        <v>751.3</v>
+      </c>
+    </row>
+    <row r="384" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <v>32768000</v>
       </c>
@@ -14413,8 +14541,12 @@
       <c r="K384">
         <v>1469</v>
       </c>
-    </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L384" s="2">
+        <f>AVERAGE(B384:K384)</f>
+        <v>1436.1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <v>65536000</v>
       </c>
@@ -14448,8 +14580,12 @@
       <c r="K385">
         <v>2798</v>
       </c>
-    </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L385" s="2">
+        <f>AVERAGE(B385:K385)</f>
+        <v>2760.8</v>
+      </c>
+    </row>
+    <row r="387" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B387" t="s">
         <v>3</v>
       </c>
@@ -14481,7 +14617,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <v>1000</v>
       </c>
@@ -14515,8 +14651,12 @@
       <c r="K388">
         <v>31</v>
       </c>
-    </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L388" s="2">
+        <f>AVERAGE(B388:K388)</f>
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="389" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <v>2000</v>
       </c>
@@ -14550,8 +14690,12 @@
       <c r="K389">
         <v>47</v>
       </c>
-    </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L389" s="2">
+        <f>AVERAGE(B389:K389)</f>
+        <v>42.2</v>
+      </c>
+    </row>
+    <row r="390" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <v>4000</v>
       </c>
@@ -14585,8 +14729,12 @@
       <c r="K390">
         <v>31</v>
       </c>
-    </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L390" s="2">
+        <f>AVERAGE(B390:K390)</f>
+        <v>37.6</v>
+      </c>
+    </row>
+    <row r="391" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <v>8000</v>
       </c>
@@ -14620,8 +14768,12 @@
       <c r="K391">
         <v>32</v>
       </c>
-    </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L391" s="2">
+        <f>AVERAGE(B391:K391)</f>
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="392" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
         <v>16000</v>
       </c>
@@ -14655,8 +14807,12 @@
       <c r="K392">
         <v>46</v>
       </c>
-    </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L392" s="2">
+        <f>AVERAGE(B392:K392)</f>
+        <v>40.700000000000003</v>
+      </c>
+    </row>
+    <row r="393" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>32000</v>
       </c>
@@ -14690,8 +14846,12 @@
       <c r="K393">
         <v>32</v>
       </c>
-    </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L393" s="2">
+        <f>AVERAGE(B393:K393)</f>
+        <v>35.799999999999997</v>
+      </c>
+    </row>
+    <row r="394" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
         <v>64000</v>
       </c>
@@ -14725,8 +14885,12 @@
       <c r="K394">
         <v>46</v>
       </c>
-    </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L394" s="2">
+        <f>AVERAGE(B394:K394)</f>
+        <v>39.200000000000003</v>
+      </c>
+    </row>
+    <row r="395" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
         <v>128000</v>
       </c>
@@ -14760,8 +14924,12 @@
       <c r="K395">
         <v>32</v>
       </c>
-    </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L395" s="2">
+        <f>AVERAGE(B395:K395)</f>
+        <v>34.200000000000003</v>
+      </c>
+    </row>
+    <row r="396" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <v>256000</v>
       </c>
@@ -14795,8 +14963,12 @@
       <c r="K396">
         <v>32</v>
       </c>
-    </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L396" s="2">
+        <f>AVERAGE(B396:K396)</f>
+        <v>39.1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <v>512000</v>
       </c>
@@ -14830,8 +15002,12 @@
       <c r="K397">
         <v>46</v>
       </c>
-    </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L397" s="2">
+        <f>AVERAGE(B397:K397)</f>
+        <v>51.3</v>
+      </c>
+    </row>
+    <row r="398" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
         <v>1024000</v>
       </c>
@@ -14865,8 +15041,12 @@
       <c r="K398">
         <v>62</v>
       </c>
-    </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L398" s="2">
+        <f>AVERAGE(B398:K398)</f>
+        <v>67.2</v>
+      </c>
+    </row>
+    <row r="399" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <v>2048000</v>
       </c>
@@ -14900,8 +15080,12 @@
       <c r="K399">
         <v>93</v>
       </c>
-    </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L399" s="2">
+        <f>AVERAGE(B399:K399)</f>
+        <v>93.7</v>
+      </c>
+    </row>
+    <row r="400" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <v>4096000</v>
       </c>
@@ -14935,8 +15119,12 @@
       <c r="K400">
         <v>156</v>
       </c>
-    </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L400" s="2">
+        <f>AVERAGE(B400:K400)</f>
+        <v>162.30000000000001</v>
+      </c>
+    </row>
+    <row r="401" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>8192000</v>
       </c>
@@ -14970,8 +15158,12 @@
       <c r="K401">
         <v>281</v>
       </c>
-    </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L401" s="2">
+        <f>AVERAGE(B401:K401)</f>
+        <v>287.5</v>
+      </c>
+    </row>
+    <row r="402" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
         <v>16384000</v>
       </c>
@@ -15005,8 +15197,12 @@
       <c r="K402">
         <v>531</v>
       </c>
-    </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L402" s="2">
+        <f>AVERAGE(B402:K402)</f>
+        <v>546.9</v>
+      </c>
+    </row>
+    <row r="403" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <v>32768000</v>
       </c>
@@ -15040,8 +15236,12 @@
       <c r="K403">
         <v>954</v>
       </c>
-    </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L403" s="2">
+        <f>AVERAGE(B403:K403)</f>
+        <v>1004.8</v>
+      </c>
+    </row>
+    <row r="404" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <v>65536000</v>
       </c>
@@ -15075,8 +15275,12 @@
       <c r="K404">
         <v>1906</v>
       </c>
-    </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L404" s="2">
+        <f>AVERAGE(B404:K404)</f>
+        <v>1851.8</v>
+      </c>
+    </row>
+    <row r="406" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B406" t="s">
         <v>4</v>
       </c>
@@ -15108,7 +15312,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
         <v>1000</v>
       </c>
@@ -15142,8 +15346,12 @@
       <c r="K407">
         <v>63</v>
       </c>
-    </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L407" s="2">
+        <f>AVERAGE(B407:K407)</f>
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="408" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
         <v>2000</v>
       </c>
@@ -15177,8 +15385,12 @@
       <c r="K408">
         <v>62</v>
       </c>
-    </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L408" s="2">
+        <f>AVERAGE(B408:K408)</f>
+        <v>60.8</v>
+      </c>
+    </row>
+    <row r="409" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
         <v>4000</v>
       </c>
@@ -15212,8 +15424,12 @@
       <c r="K409">
         <v>47</v>
       </c>
-    </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L409" s="2">
+        <f>AVERAGE(B409:K409)</f>
+        <v>54.5</v>
+      </c>
+    </row>
+    <row r="410" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A410" s="1">
         <v>8000</v>
       </c>
@@ -15247,8 +15463,12 @@
       <c r="K410">
         <v>62</v>
       </c>
-    </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L410" s="2">
+        <f>AVERAGE(B410:K410)</f>
+        <v>64.400000000000006</v>
+      </c>
+    </row>
+    <row r="411" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
         <v>16000</v>
       </c>
@@ -15282,8 +15502,12 @@
       <c r="K411">
         <v>63</v>
       </c>
-    </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L411" s="2">
+        <f>AVERAGE(B411:K411)</f>
+        <v>59.5</v>
+      </c>
+    </row>
+    <row r="412" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
         <v>32000</v>
       </c>
@@ -15317,8 +15541,12 @@
       <c r="K412">
         <v>63</v>
       </c>
-    </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L412" s="2">
+        <f>AVERAGE(B412:K412)</f>
+        <v>60.7</v>
+      </c>
+    </row>
+    <row r="413" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
         <v>64000</v>
       </c>
@@ -15352,8 +15580,12 @@
       <c r="K413">
         <v>46</v>
       </c>
-    </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L413" s="2">
+        <f>AVERAGE(B413:K413)</f>
+        <v>56.2</v>
+      </c>
+    </row>
+    <row r="414" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A414" s="1">
         <v>128000</v>
       </c>
@@ -15387,8 +15619,12 @@
       <c r="K414">
         <v>63</v>
       </c>
-    </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L414" s="2">
+        <f>AVERAGE(B414:K414)</f>
+        <v>60.9</v>
+      </c>
+    </row>
+    <row r="415" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A415" s="1">
         <v>256000</v>
       </c>
@@ -15422,8 +15658,12 @@
       <c r="K415">
         <v>62</v>
       </c>
-    </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L415" s="2">
+        <f>AVERAGE(B415:K415)</f>
+        <v>68.7</v>
+      </c>
+    </row>
+    <row r="416" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A416" s="1">
         <v>512000</v>
       </c>
@@ -15457,8 +15697,12 @@
       <c r="K416">
         <v>61</v>
       </c>
-    </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L416" s="2">
+        <f>AVERAGE(B416:K416)</f>
+        <v>68.099999999999994</v>
+      </c>
+    </row>
+    <row r="417" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
         <v>1024000</v>
       </c>
@@ -15492,8 +15736,12 @@
       <c r="K417">
         <v>78</v>
       </c>
-    </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L417" s="2">
+        <f>AVERAGE(B417:K417)</f>
+        <v>84.4</v>
+      </c>
+    </row>
+    <row r="418" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A418" s="1">
         <v>2048000</v>
       </c>
@@ -15527,8 +15775,12 @@
       <c r="K418">
         <v>94</v>
       </c>
-    </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L418" s="2">
+        <f>AVERAGE(B418:K418)</f>
+        <v>106.3</v>
+      </c>
+    </row>
+    <row r="419" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A419" s="1">
         <v>4096000</v>
       </c>
@@ -15562,8 +15814,12 @@
       <c r="K419">
         <v>172</v>
       </c>
-    </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L419" s="2">
+        <f>AVERAGE(B419:K419)</f>
+        <v>159.4</v>
+      </c>
+    </row>
+    <row r="420" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A420" s="1">
         <v>8192000</v>
       </c>
@@ -15597,8 +15853,12 @@
       <c r="K420">
         <v>265</v>
       </c>
-    </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L420" s="2">
+        <f>AVERAGE(B420:K420)</f>
+        <v>257.39999999999998</v>
+      </c>
+    </row>
+    <row r="421" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A421" s="1">
         <v>16384000</v>
       </c>
@@ -15632,8 +15892,12 @@
       <c r="K421">
         <v>469</v>
       </c>
-    </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L421" s="2">
+        <f>AVERAGE(B421:K421)</f>
+        <v>470</v>
+      </c>
+    </row>
+    <row r="422" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A422" s="1">
         <v>32768000</v>
       </c>
@@ -15667,8 +15931,12 @@
       <c r="K422">
         <v>828</v>
       </c>
-    </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L422" s="2">
+        <f>AVERAGE(B422:K422)</f>
+        <v>850.1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A423" s="1">
         <v>65536000</v>
       </c>
@@ -15702,8 +15970,12 @@
       <c r="K423">
         <v>1640</v>
       </c>
-    </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L423" s="2">
+        <f>AVERAGE(B423:K423)</f>
+        <v>1638.9</v>
+      </c>
+    </row>
+    <row r="425" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B425" t="s">
         <v>5</v>
       </c>
@@ -15735,7 +16007,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A426" s="1">
         <v>1000</v>
       </c>
@@ -15769,8 +16041,12 @@
       <c r="K426">
         <v>110</v>
       </c>
-    </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L426" s="2">
+        <f>AVERAGE(B426:K426)</f>
+        <v>121.7</v>
+      </c>
+    </row>
+    <row r="427" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A427" s="1">
         <v>2000</v>
       </c>
@@ -15804,8 +16080,12 @@
       <c r="K427">
         <v>125</v>
       </c>
-    </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L427" s="2">
+        <f>AVERAGE(B427:K427)</f>
+        <v>123.3</v>
+      </c>
+    </row>
+    <row r="428" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A428" s="1">
         <v>4000</v>
       </c>
@@ -15839,8 +16119,12 @@
       <c r="K428">
         <v>109</v>
       </c>
-    </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L428" s="2">
+        <f>AVERAGE(B428:K428)</f>
+        <v>118.6</v>
+      </c>
+    </row>
+    <row r="429" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A429" s="1">
         <v>8000</v>
       </c>
@@ -15874,8 +16158,12 @@
       <c r="K429">
         <v>110</v>
       </c>
-    </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L429" s="2">
+        <f>AVERAGE(B429:K429)</f>
+        <v>126.9</v>
+      </c>
+    </row>
+    <row r="430" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A430" s="1">
         <v>16000</v>
       </c>
@@ -15909,8 +16197,12 @@
       <c r="K430">
         <v>109</v>
       </c>
-    </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L430" s="2">
+        <f>AVERAGE(B430:K430)</f>
+        <v>117.3</v>
+      </c>
+    </row>
+    <row r="431" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A431" s="1">
         <v>32000</v>
       </c>
@@ -15944,8 +16236,12 @@
       <c r="K431">
         <v>125</v>
       </c>
-    </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L431" s="2">
+        <f>AVERAGE(B431:K431)</f>
+        <v>120.2</v>
+      </c>
+    </row>
+    <row r="432" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A432" s="1">
         <v>64000</v>
       </c>
@@ -15979,8 +16275,12 @@
       <c r="K432">
         <v>109</v>
       </c>
-    </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L432" s="2">
+        <f>AVERAGE(B432:K432)</f>
+        <v>117.3</v>
+      </c>
+    </row>
+    <row r="433" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A433" s="1">
         <v>128000</v>
       </c>
@@ -16014,8 +16314,12 @@
       <c r="K433">
         <v>125</v>
       </c>
-    </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L433" s="2">
+        <f>AVERAGE(B433:K433)</f>
+        <v>123.2</v>
+      </c>
+    </row>
+    <row r="434" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A434" s="1">
         <v>256000</v>
       </c>
@@ -16049,8 +16353,12 @@
       <c r="K434">
         <v>109</v>
       </c>
-    </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L434" s="2">
+        <f>AVERAGE(B434:K434)</f>
+        <v>123.4</v>
+      </c>
+    </row>
+    <row r="435" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A435" s="1">
         <v>512000</v>
       </c>
@@ -16084,8 +16392,12 @@
       <c r="K435">
         <v>125</v>
       </c>
-    </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L435" s="2">
+        <f>AVERAGE(B435:K435)</f>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="436" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A436" s="1">
         <v>1024000</v>
       </c>
@@ -16119,8 +16431,12 @@
       <c r="K436">
         <v>140</v>
       </c>
-    </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L436" s="2">
+        <f>AVERAGE(B436:K436)</f>
+        <v>144.9</v>
+      </c>
+    </row>
+    <row r="437" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A437" s="1">
         <v>2048000</v>
       </c>
@@ -16154,8 +16470,12 @@
       <c r="K437">
         <v>156</v>
       </c>
-    </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L437" s="2">
+        <f>AVERAGE(B437:K437)</f>
+        <v>160.69999999999999</v>
+      </c>
+    </row>
+    <row r="438" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A438" s="1">
         <v>4096000</v>
       </c>
@@ -16189,8 +16509,12 @@
       <c r="K438">
         <v>203</v>
       </c>
-    </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L438" s="2">
+        <f>AVERAGE(B438:K438)</f>
+        <v>206.2</v>
+      </c>
+    </row>
+    <row r="439" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A439" s="1">
         <v>8192000</v>
       </c>
@@ -16224,8 +16548,12 @@
       <c r="K439">
         <v>312</v>
       </c>
-    </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L439" s="2">
+        <f>AVERAGE(B439:K439)</f>
+        <v>306.5</v>
+      </c>
+    </row>
+    <row r="440" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A440" s="1">
         <v>16384000</v>
       </c>
@@ -16259,8 +16587,12 @@
       <c r="K440">
         <v>531</v>
       </c>
-    </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L440" s="2">
+        <f>AVERAGE(B440:K440)</f>
+        <v>515.5</v>
+      </c>
+    </row>
+    <row r="441" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A441" s="1">
         <v>32768000</v>
       </c>
@@ -16294,8 +16626,12 @@
       <c r="K441">
         <v>875</v>
       </c>
-    </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L441" s="2">
+        <f>AVERAGE(B441:K441)</f>
+        <v>899.9</v>
+      </c>
+    </row>
+    <row r="442" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A442" s="1">
         <v>65536000</v>
       </c>
@@ -16329,8 +16665,12 @@
       <c r="K442">
         <v>1750</v>
       </c>
-    </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L442" s="2">
+        <f>AVERAGE(B442:K442)</f>
+        <v>1690.1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B444" t="s">
         <v>6</v>
       </c>
@@ -16362,7 +16702,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A445" s="1">
         <v>1000</v>
       </c>
@@ -16396,8 +16736,12 @@
       <c r="K445">
         <v>233</v>
       </c>
-    </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L445" s="2">
+        <f>AVERAGE(B445:K445)</f>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="446" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A446" s="1">
         <v>2000</v>
       </c>
@@ -16431,8 +16775,12 @@
       <c r="K446">
         <v>250</v>
       </c>
-    </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L446" s="2">
+        <f>AVERAGE(B446:K446)</f>
+        <v>249.9</v>
+      </c>
+    </row>
+    <row r="447" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A447" s="1">
         <v>4000</v>
       </c>
@@ -16466,8 +16814,12 @@
       <c r="K447">
         <v>251</v>
       </c>
-    </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L447" s="2">
+        <f>AVERAGE(B447:K447)</f>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="448" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A448" s="1">
         <v>8000</v>
       </c>
@@ -16501,8 +16853,12 @@
       <c r="K448">
         <v>265</v>
       </c>
-    </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L448" s="2">
+        <f>AVERAGE(B448:K448)</f>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="449" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A449" s="1">
         <v>16000</v>
       </c>
@@ -16536,8 +16892,12 @@
       <c r="K449">
         <v>297</v>
       </c>
-    </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L449" s="2">
+        <f>AVERAGE(B449:K449)</f>
+        <v>259.5</v>
+      </c>
+    </row>
+    <row r="450" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A450" s="1">
         <v>32000</v>
       </c>
@@ -16571,8 +16931,12 @@
       <c r="K450">
         <v>250</v>
       </c>
-    </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L450" s="2">
+        <f>AVERAGE(B450:K450)</f>
+        <v>254.8</v>
+      </c>
+    </row>
+    <row r="451" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A451" s="1">
         <v>64000</v>
       </c>
@@ -16606,8 +16970,12 @@
       <c r="K451">
         <v>250</v>
       </c>
-    </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L451" s="2">
+        <f>AVERAGE(B451:K451)</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="452" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A452" s="1">
         <v>128000</v>
       </c>
@@ -16641,8 +17009,12 @@
       <c r="K452">
         <v>250</v>
       </c>
-    </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L452" s="2">
+        <f>AVERAGE(B452:K452)</f>
+        <v>238.9</v>
+      </c>
+    </row>
+    <row r="453" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A453" s="1">
         <v>256000</v>
       </c>
@@ -16676,8 +17048,12 @@
       <c r="K453">
         <v>235</v>
       </c>
-    </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L453" s="2">
+        <f>AVERAGE(B453:K453)</f>
+        <v>246.9</v>
+      </c>
+    </row>
+    <row r="454" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A454" s="1">
         <v>512000</v>
       </c>
@@ -16711,8 +17087,12 @@
       <c r="K454">
         <v>250</v>
       </c>
-    </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L454" s="2">
+        <f>AVERAGE(B454:K454)</f>
+        <v>243.5</v>
+      </c>
+    </row>
+    <row r="455" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A455" s="1">
         <v>1024000</v>
       </c>
@@ -16746,8 +17126,12 @@
       <c r="K455">
         <v>250</v>
       </c>
-    </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L455" s="2">
+        <f>AVERAGE(B455:K455)</f>
+        <v>251.5</v>
+      </c>
+    </row>
+    <row r="456" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A456" s="1">
         <v>2048000</v>
       </c>
@@ -16781,8 +17165,12 @@
       <c r="K456">
         <v>281</v>
       </c>
-    </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L456" s="2">
+        <f>AVERAGE(B456:K456)</f>
+        <v>276.60000000000002</v>
+      </c>
+    </row>
+    <row r="457" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A457" s="1">
         <v>4096000</v>
       </c>
@@ -16816,8 +17204,12 @@
       <c r="K457">
         <v>437</v>
       </c>
-    </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L457" s="2">
+        <f>AVERAGE(B457:K457)</f>
+        <v>329.8</v>
+      </c>
+    </row>
+    <row r="458" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A458" s="1">
         <v>8192000</v>
       </c>
@@ -16851,8 +17243,12 @@
       <c r="K458">
         <v>406</v>
       </c>
-    </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L458" s="2">
+        <f>AVERAGE(B458:K458)</f>
+        <v>418.5</v>
+      </c>
+    </row>
+    <row r="459" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A459" s="1">
         <v>16384000</v>
       </c>
@@ -16886,8 +17282,12 @@
       <c r="K459">
         <v>609</v>
       </c>
-    </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L459" s="2">
+        <f>AVERAGE(B459:K459)</f>
+        <v>621.9</v>
+      </c>
+    </row>
+    <row r="460" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A460" s="1">
         <v>32768000</v>
       </c>
@@ -16921,8 +17321,12 @@
       <c r="K460">
         <v>1000</v>
       </c>
-    </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L460" s="2">
+        <f>AVERAGE(B460:K460)</f>
+        <v>1029.8</v>
+      </c>
+    </row>
+    <row r="461" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A461" s="1">
         <v>65536000</v>
       </c>
@@ -16956,8 +17360,12 @@
       <c r="K461">
         <v>1734</v>
       </c>
-    </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L461" s="2">
+        <f>AVERAGE(B461:K461)</f>
+        <v>1845.6</v>
+      </c>
+    </row>
+    <row r="462" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B462" t="s">
         <v>0</v>
       </c>
@@ -16989,7 +17397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B463" t="s">
         <v>10</v>
       </c>
@@ -17021,7 +17429,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A464" s="1">
         <v>1000</v>
       </c>
@@ -17055,8 +17463,12 @@
       <c r="K464">
         <v>0</v>
       </c>
-    </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L464" s="2">
+        <f>AVERAGE(B464:K464)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A465" s="1">
         <v>2000</v>
       </c>
@@ -17090,8 +17502,12 @@
       <c r="K465">
         <v>0</v>
       </c>
-    </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L465" s="2">
+        <f>AVERAGE(B465:K465)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A466" s="1">
         <v>4000</v>
       </c>
@@ -17125,8 +17541,12 @@
       <c r="K466">
         <v>0</v>
       </c>
-    </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L466" s="2">
+        <f>AVERAGE(B466:K466)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A467" s="1">
         <v>8000</v>
       </c>
@@ -17160,8 +17580,12 @@
       <c r="K467">
         <v>0</v>
       </c>
-    </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L467" s="2">
+        <f>AVERAGE(B467:K467)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A468" s="1">
         <v>16000</v>
       </c>
@@ -17195,8 +17619,12 @@
       <c r="K468">
         <v>0</v>
       </c>
-    </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L468" s="2">
+        <f>AVERAGE(B468:K468)</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="469" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A469" s="1">
         <v>32000</v>
       </c>
@@ -17230,8 +17658,12 @@
       <c r="K469">
         <v>0</v>
       </c>
-    </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L469" s="2">
+        <f>AVERAGE(B469:K469)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A470" s="1">
         <v>64000</v>
       </c>
@@ -17265,8 +17697,12 @@
       <c r="K470">
         <v>0</v>
       </c>
-    </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L470" s="2">
+        <f>AVERAGE(B470:K470)</f>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="471" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A471" s="1">
         <v>128000</v>
       </c>
@@ -17300,8 +17736,12 @@
       <c r="K471">
         <v>0</v>
       </c>
-    </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L471" s="2">
+        <f>AVERAGE(B471:K471)</f>
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A472" s="1">
         <v>256000</v>
       </c>
@@ -17335,8 +17775,12 @@
       <c r="K472">
         <v>15</v>
       </c>
-    </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L472" s="2">
+        <f>AVERAGE(B472:K472)</f>
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="473" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A473" s="1">
         <v>512000</v>
       </c>
@@ -17370,8 +17814,12 @@
       <c r="K473">
         <v>16</v>
       </c>
-    </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L473" s="2">
+        <f>AVERAGE(B473:K473)</f>
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="474" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A474" s="1">
         <v>1024000</v>
       </c>
@@ -17405,8 +17853,12 @@
       <c r="K474">
         <v>31</v>
       </c>
-    </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L474" s="2">
+        <f>AVERAGE(B474:K474)</f>
+        <v>36.1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A475" s="1">
         <v>2048000</v>
       </c>
@@ -17440,8 +17892,12 @@
       <c r="K475">
         <v>78</v>
       </c>
-    </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L475" s="2">
+        <f>AVERAGE(B475:K475)</f>
+        <v>79.400000000000006</v>
+      </c>
+    </row>
+    <row r="476" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A476" s="1">
         <v>4096000</v>
       </c>
@@ -17475,8 +17931,12 @@
       <c r="K476">
         <v>156</v>
       </c>
-    </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L476" s="2">
+        <f>AVERAGE(B476:K476)</f>
+        <v>164.3</v>
+      </c>
+    </row>
+    <row r="477" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A477" s="1">
         <v>8192000</v>
       </c>
@@ -17510,8 +17970,12 @@
       <c r="K477">
         <v>327</v>
       </c>
-    </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L477" s="2">
+        <f>AVERAGE(B477:K477)</f>
+        <v>332.7</v>
+      </c>
+    </row>
+    <row r="478" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A478" s="1">
         <v>16384000</v>
       </c>
@@ -17545,8 +18009,12 @@
       <c r="K478">
         <v>640</v>
       </c>
-    </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L478" s="2">
+        <f>AVERAGE(B478:K478)</f>
+        <v>684.5</v>
+      </c>
+    </row>
+    <row r="479" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A479" s="1">
         <v>32768000</v>
       </c>
@@ -17580,8 +18048,12 @@
       <c r="K479">
         <v>1422</v>
       </c>
-    </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L479" s="2">
+        <f>AVERAGE(B479:K479)</f>
+        <v>1362.6</v>
+      </c>
+    </row>
+    <row r="480" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A480" s="1">
         <v>65536000</v>
       </c>
@@ -17615,8 +18087,12 @@
       <c r="K480">
         <v>2719</v>
       </c>
-    </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L480" s="2">
+        <f>AVERAGE(B480:K480)</f>
+        <v>2717.7</v>
+      </c>
+    </row>
+    <row r="482" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B482" t="s">
         <v>2</v>
       </c>
@@ -17648,7 +18124,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A483" s="1">
         <v>1000</v>
       </c>
@@ -17682,8 +18158,12 @@
       <c r="K483">
         <v>32</v>
       </c>
-    </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L483" s="2">
+        <f>AVERAGE(B483:K483)</f>
+        <v>34.200000000000003</v>
+      </c>
+    </row>
+    <row r="484" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A484" s="1">
         <v>2000</v>
       </c>
@@ -17717,8 +18197,12 @@
       <c r="K484">
         <v>31</v>
       </c>
-    </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L484" s="2">
+        <f>AVERAGE(B484:K484)</f>
+        <v>31.1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A485" s="1">
         <v>4000</v>
       </c>
@@ -17752,8 +18236,12 @@
       <c r="K485">
         <v>31</v>
       </c>
-    </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L485" s="2">
+        <f>AVERAGE(B485:K485)</f>
+        <v>31.4</v>
+      </c>
+    </row>
+    <row r="486" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A486" s="1">
         <v>8000</v>
       </c>
@@ -17787,8 +18275,12 @@
       <c r="K486">
         <v>31</v>
       </c>
-    </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L486" s="2">
+        <f>AVERAGE(B486:K486)</f>
+        <v>31.1</v>
+      </c>
+    </row>
+    <row r="487" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A487" s="1">
         <v>16000</v>
       </c>
@@ -17822,8 +18314,12 @@
       <c r="K487">
         <v>32</v>
       </c>
-    </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L487" s="2">
+        <f>AVERAGE(B487:K487)</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="488" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A488" s="1">
         <v>32000</v>
       </c>
@@ -17857,8 +18353,12 @@
       <c r="K488">
         <v>31</v>
       </c>
-    </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L488" s="2">
+        <f>AVERAGE(B488:K488)</f>
+        <v>31.1</v>
+      </c>
+    </row>
+    <row r="489" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A489" s="1">
         <v>64000</v>
       </c>
@@ -17892,8 +18392,12 @@
       <c r="K489">
         <v>31</v>
       </c>
-    </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L489" s="2">
+        <f>AVERAGE(B489:K489)</f>
+        <v>32.700000000000003</v>
+      </c>
+    </row>
+    <row r="490" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A490" s="1">
         <v>128000</v>
       </c>
@@ -17927,8 +18431,12 @@
       <c r="K490">
         <v>31</v>
       </c>
-    </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L490" s="2">
+        <f>AVERAGE(B490:K490)</f>
+        <v>32.700000000000003</v>
+      </c>
+    </row>
+    <row r="491" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A491" s="1">
         <v>256000</v>
       </c>
@@ -17962,8 +18470,12 @@
       <c r="K491">
         <v>47</v>
       </c>
-    </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L491" s="2">
+        <f>AVERAGE(B491:K491)</f>
+        <v>42.2</v>
+      </c>
+    </row>
+    <row r="492" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A492" s="1">
         <v>512000</v>
       </c>
@@ -17997,8 +18509,12 @@
       <c r="K492">
         <v>78</v>
       </c>
-    </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L492" s="2">
+        <f>AVERAGE(B492:K492)</f>
+        <v>57.5</v>
+      </c>
+    </row>
+    <row r="493" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A493" s="1">
         <v>1024000</v>
       </c>
@@ -18032,8 +18548,12 @@
       <c r="K493">
         <v>94</v>
       </c>
-    </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L493" s="2">
+        <f>AVERAGE(B493:K493)</f>
+        <v>88.8</v>
+      </c>
+    </row>
+    <row r="494" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A494" s="1">
         <v>2048000</v>
       </c>
@@ -18067,8 +18587,12 @@
       <c r="K494">
         <v>125</v>
       </c>
-    </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L494" s="2">
+        <f>AVERAGE(B494:K494)</f>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="495" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A495" s="1">
         <v>4096000</v>
       </c>
@@ -18102,8 +18626,12 @@
       <c r="K495">
         <v>219</v>
       </c>
-    </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L495" s="2">
+        <f>AVERAGE(B495:K495)</f>
+        <v>221.9</v>
+      </c>
+    </row>
+    <row r="496" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A496" s="1">
         <v>8192000</v>
       </c>
@@ -18137,8 +18665,12 @@
       <c r="K496">
         <v>406</v>
       </c>
-    </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L496" s="2">
+        <f>AVERAGE(B496:K496)</f>
+        <v>393.7</v>
+      </c>
+    </row>
+    <row r="497" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A497" s="1">
         <v>16384000</v>
       </c>
@@ -18172,8 +18704,12 @@
       <c r="K497">
         <v>766</v>
       </c>
-    </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L497" s="2">
+        <f>AVERAGE(B497:K497)</f>
+        <v>758.2</v>
+      </c>
+    </row>
+    <row r="498" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A498" s="1">
         <v>32768000</v>
       </c>
@@ -18207,8 +18743,12 @@
       <c r="K498">
         <v>1453</v>
       </c>
-    </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L498" s="2">
+        <f>AVERAGE(B498:K498)</f>
+        <v>1434.5</v>
+      </c>
+    </row>
+    <row r="499" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A499" s="1">
         <v>65536000</v>
       </c>
@@ -18242,8 +18782,12 @@
       <c r="K499">
         <v>2844</v>
       </c>
-    </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L499" s="2">
+        <f>AVERAGE(B499:K499)</f>
+        <v>2720.2</v>
+      </c>
+    </row>
+    <row r="501" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B501" t="s">
         <v>3</v>
       </c>
@@ -18275,7 +18819,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A502" s="1">
         <v>1000</v>
       </c>
@@ -18309,8 +18853,12 @@
       <c r="K502">
         <v>47</v>
       </c>
-    </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L502" s="2">
+        <f>AVERAGE(B502:K502)</f>
+        <v>40.200000000000003</v>
+      </c>
+    </row>
+    <row r="503" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A503" s="1">
         <v>2000</v>
       </c>
@@ -18344,8 +18892,12 @@
       <c r="K503">
         <v>32</v>
       </c>
-    </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L503" s="2">
+        <f>AVERAGE(B503:K503)</f>
+        <v>36.1</v>
+      </c>
+    </row>
+    <row r="504" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A504" s="1">
         <v>4000</v>
       </c>
@@ -18379,8 +18931,12 @@
       <c r="K504">
         <v>31</v>
       </c>
-    </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L504" s="2">
+        <f>AVERAGE(B504:K504)</f>
+        <v>35.9</v>
+      </c>
+    </row>
+    <row r="505" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A505" s="1">
         <v>8000</v>
       </c>
@@ -18414,8 +18970,12 @@
       <c r="K505">
         <v>31</v>
       </c>
-    </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L505" s="2">
+        <f>AVERAGE(B505:K505)</f>
+        <v>36.1</v>
+      </c>
+    </row>
+    <row r="506" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A506" s="1">
         <v>16000</v>
       </c>
@@ -18449,8 +19009,12 @@
       <c r="K506">
         <v>31</v>
       </c>
-    </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L506" s="2">
+        <f>AVERAGE(B506:K506)</f>
+        <v>33.1</v>
+      </c>
+    </row>
+    <row r="507" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A507" s="1">
         <v>32000</v>
       </c>
@@ -18484,8 +19048,12 @@
       <c r="K507">
         <v>32</v>
       </c>
-    </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L507" s="2">
+        <f>AVERAGE(B507:K507)</f>
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="508" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A508" s="1">
         <v>64000</v>
       </c>
@@ -18519,8 +19087,12 @@
       <c r="K508">
         <v>47</v>
       </c>
-    </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L508" s="2">
+        <f>AVERAGE(B508:K508)</f>
+        <v>40.4</v>
+      </c>
+    </row>
+    <row r="509" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A509" s="1">
         <v>128000</v>
       </c>
@@ -18554,8 +19126,12 @@
       <c r="K509">
         <v>46</v>
       </c>
-    </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L509" s="2">
+        <f>AVERAGE(B509:K509)</f>
+        <v>40.4</v>
+      </c>
+    </row>
+    <row r="510" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A510" s="1">
         <v>256000</v>
       </c>
@@ -18589,8 +19165,12 @@
       <c r="K510">
         <v>46</v>
       </c>
-    </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L510" s="2">
+        <f>AVERAGE(B510:K510)</f>
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="511" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A511" s="1">
         <v>512000</v>
       </c>
@@ -18624,8 +19204,12 @@
       <c r="K511">
         <v>46</v>
       </c>
-    </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L511" s="2">
+        <f>AVERAGE(B511:K511)</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="512" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A512" s="1">
         <v>1024000</v>
       </c>
@@ -18659,8 +19243,12 @@
       <c r="K512">
         <v>63</v>
       </c>
-    </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L512" s="2">
+        <f>AVERAGE(B512:K512)</f>
+        <v>69.900000000000006</v>
+      </c>
+    </row>
+    <row r="513" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A513" s="1">
         <v>2048000</v>
       </c>
@@ -18694,8 +19282,12 @@
       <c r="K513">
         <v>93</v>
       </c>
-    </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L513" s="2">
+        <f>AVERAGE(B513:K513)</f>
+        <v>101.5</v>
+      </c>
+    </row>
+    <row r="514" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A514" s="1">
         <v>4096000</v>
       </c>
@@ -18729,8 +19321,12 @@
       <c r="K514">
         <v>157</v>
       </c>
-    </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L514" s="2">
+        <f>AVERAGE(B514:K514)</f>
+        <v>162.6</v>
+      </c>
+    </row>
+    <row r="515" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A515" s="1">
         <v>8192000</v>
       </c>
@@ -18764,8 +19360,12 @@
       <c r="K515">
         <v>265</v>
       </c>
-    </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L515" s="2">
+        <f>AVERAGE(B515:K515)</f>
+        <v>284.39999999999998</v>
+      </c>
+    </row>
+    <row r="516" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A516" s="1">
         <v>16384000</v>
       </c>
@@ -18799,8 +19399,12 @@
       <c r="K516">
         <v>531</v>
       </c>
-    </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L516" s="2">
+        <f>AVERAGE(B516:K516)</f>
+        <v>531.29999999999995</v>
+      </c>
+    </row>
+    <row r="517" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A517" s="1">
         <v>32768000</v>
       </c>
@@ -18834,8 +19438,12 @@
       <c r="K517">
         <v>1047</v>
       </c>
-    </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L517" s="2">
+        <f>AVERAGE(B517:K517)</f>
+        <v>1009.4</v>
+      </c>
+    </row>
+    <row r="518" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A518" s="1">
         <v>65536000</v>
       </c>
@@ -18869,8 +19477,12 @@
       <c r="K518">
         <v>1813</v>
       </c>
-    </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L518" s="2">
+        <f>AVERAGE(B518:K518)</f>
+        <v>1829.6</v>
+      </c>
+    </row>
+    <row r="520" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B520" t="s">
         <v>4</v>
       </c>
@@ -18902,7 +19514,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A521" s="1">
         <v>1000</v>
       </c>
@@ -18936,8 +19548,12 @@
       <c r="K521">
         <v>62</v>
       </c>
-    </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L521" s="2">
+        <f>AVERAGE(B521:K521)</f>
+        <v>60.7</v>
+      </c>
+    </row>
+    <row r="522" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A522" s="1">
         <v>2000</v>
       </c>
@@ -18971,8 +19587,12 @@
       <c r="K522">
         <v>62</v>
       </c>
-    </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L522" s="2">
+        <f>AVERAGE(B522:K522)</f>
+        <v>56.2</v>
+      </c>
+    </row>
+    <row r="523" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A523" s="1">
         <v>4000</v>
       </c>
@@ -19006,8 +19626,12 @@
       <c r="K523">
         <v>47</v>
       </c>
-    </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L523" s="2">
+        <f>AVERAGE(B523:K523)</f>
+        <v>58.1</v>
+      </c>
+    </row>
+    <row r="524" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A524" s="1">
         <v>8000</v>
       </c>
@@ -19041,8 +19665,12 @@
       <c r="K524">
         <v>78</v>
       </c>
-    </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L524" s="2">
+        <f>AVERAGE(B524:K524)</f>
+        <v>64.2</v>
+      </c>
+    </row>
+    <row r="525" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A525" s="1">
         <v>16000</v>
       </c>
@@ -19076,8 +19704,12 @@
       <c r="K525">
         <v>64</v>
       </c>
-    </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L525" s="2">
+        <f>AVERAGE(B525:K525)</f>
+        <v>60.7</v>
+      </c>
+    </row>
+    <row r="526" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A526" s="1">
         <v>32000</v>
       </c>
@@ -19111,8 +19743,12 @@
       <c r="K526">
         <v>47</v>
       </c>
-    </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L526" s="2">
+        <f>AVERAGE(B526:K526)</f>
+        <v>56.2</v>
+      </c>
+    </row>
+    <row r="527" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A527" s="1">
         <v>64000</v>
       </c>
@@ -19146,8 +19782,12 @@
       <c r="K527">
         <v>62</v>
       </c>
-    </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L527" s="2">
+        <f>AVERAGE(B527:K527)</f>
+        <v>62.4</v>
+      </c>
+    </row>
+    <row r="528" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A528" s="1">
         <v>128000</v>
       </c>
@@ -19181,8 +19821,12 @@
       <c r="K528">
         <v>46</v>
       </c>
-    </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L528" s="2">
+        <f>AVERAGE(B528:K528)</f>
+        <v>59.1</v>
+      </c>
+    </row>
+    <row r="529" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A529" s="1">
         <v>256000</v>
       </c>
@@ -19216,8 +19860,12 @@
       <c r="K529">
         <v>78</v>
       </c>
-    </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L529" s="2">
+        <f>AVERAGE(B529:K529)</f>
+        <v>67.3</v>
+      </c>
+    </row>
+    <row r="530" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A530" s="1">
         <v>512000</v>
       </c>
@@ -19251,8 +19899,12 @@
       <c r="K530">
         <v>78</v>
       </c>
-    </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L530" s="2">
+        <f>AVERAGE(B530:K530)</f>
+        <v>74.599999999999994</v>
+      </c>
+    </row>
+    <row r="531" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A531" s="1">
         <v>1024000</v>
       </c>
@@ -19286,8 +19938,12 @@
       <c r="K531">
         <v>78</v>
       </c>
-    </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L531" s="2">
+        <f>AVERAGE(B531:K531)</f>
+        <v>80.8</v>
+      </c>
+    </row>
+    <row r="532" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A532" s="1">
         <v>2048000</v>
       </c>
@@ -19321,8 +19977,12 @@
       <c r="K532">
         <v>108</v>
       </c>
-    </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L532" s="2">
+        <f>AVERAGE(B532:K532)</f>
+        <v>107.2</v>
+      </c>
+    </row>
+    <row r="533" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A533" s="1">
         <v>4096000</v>
       </c>
@@ -19356,8 +20016,12 @@
       <c r="K533">
         <v>156</v>
       </c>
-    </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L533" s="2">
+        <f>AVERAGE(B533:K533)</f>
+        <v>157.4</v>
+      </c>
+    </row>
+    <row r="534" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A534" s="1">
         <v>8192000</v>
       </c>
@@ -19391,8 +20055,12 @@
       <c r="K534">
         <v>250</v>
       </c>
-    </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L534" s="2">
+        <f>AVERAGE(B534:K534)</f>
+        <v>259.3</v>
+      </c>
+    </row>
+    <row r="535" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A535" s="1">
         <v>16384000</v>
       </c>
@@ -19426,8 +20094,12 @@
       <c r="K535">
         <v>484</v>
       </c>
-    </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L535" s="2">
+        <f>AVERAGE(B535:K535)</f>
+        <v>468.9</v>
+      </c>
+    </row>
+    <row r="536" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A536" s="1">
         <v>32768000</v>
       </c>
@@ -19461,8 +20133,12 @@
       <c r="K536">
         <v>874</v>
       </c>
-    </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L536" s="2">
+        <f>AVERAGE(B536:K536)</f>
+        <v>856</v>
+      </c>
+    </row>
+    <row r="537" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A537" s="1">
         <v>65536000</v>
       </c>
@@ -19496,8 +20172,12 @@
       <c r="K537">
         <v>1609</v>
       </c>
-    </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L537" s="2">
+        <f>AVERAGE(B537:K537)</f>
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="539" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B539" t="s">
         <v>5</v>
       </c>
@@ -19529,7 +20209,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A540" s="1">
         <v>1000</v>
       </c>
@@ -19563,8 +20243,12 @@
       <c r="K540">
         <v>108</v>
       </c>
-    </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L540" s="2">
+        <f>AVERAGE(B540:K540)</f>
+        <v>118.5</v>
+      </c>
+    </row>
+    <row r="541" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A541" s="1">
         <v>2000</v>
       </c>
@@ -19598,8 +20282,12 @@
       <c r="K541">
         <v>125</v>
       </c>
-    </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L541" s="2">
+        <f>AVERAGE(B541:K541)</f>
+        <v>118.5</v>
+      </c>
+    </row>
+    <row r="542" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A542" s="1">
         <v>4000</v>
       </c>
@@ -19633,8 +20321,12 @@
       <c r="K542">
         <v>109</v>
       </c>
-    </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L542" s="2">
+        <f>AVERAGE(B542:K542)</f>
+        <v>112.3</v>
+      </c>
+    </row>
+    <row r="543" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A543" s="1">
         <v>8000</v>
       </c>
@@ -19668,8 +20360,12 @@
       <c r="K543">
         <v>125</v>
       </c>
-    </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L543" s="2">
+        <f>AVERAGE(B543:K543)</f>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="544" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A544" s="1">
         <v>16000</v>
       </c>
@@ -19703,8 +20399,12 @@
       <c r="K544">
         <v>126</v>
       </c>
-    </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L544" s="2">
+        <f>AVERAGE(B544:K544)</f>
+        <v>121.8</v>
+      </c>
+    </row>
+    <row r="545" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A545" s="1">
         <v>32000</v>
       </c>
@@ -19738,8 +20438,12 @@
       <c r="K545">
         <v>124</v>
       </c>
-    </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L545" s="2">
+        <f>AVERAGE(B545:K545)</f>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="546" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A546" s="1">
         <v>64000</v>
       </c>
@@ -19773,8 +20477,12 @@
       <c r="K546">
         <v>126</v>
       </c>
-    </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L546" s="2">
+        <f>AVERAGE(B546:K546)</f>
+        <v>118.6</v>
+      </c>
+    </row>
+    <row r="547" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A547" s="1">
         <v>128000</v>
       </c>
@@ -19808,8 +20516,12 @@
       <c r="K547">
         <v>124</v>
       </c>
-    </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L547" s="2">
+        <f>AVERAGE(B547:K547)</f>
+        <v>121.5</v>
+      </c>
+    </row>
+    <row r="548" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A548" s="1">
         <v>256000</v>
       </c>
@@ -19843,8 +20555,12 @@
       <c r="K548">
         <v>110</v>
       </c>
-    </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L548" s="2">
+        <f>AVERAGE(B548:K548)</f>
+        <v>117.4</v>
+      </c>
+    </row>
+    <row r="549" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A549" s="1">
         <v>512000</v>
       </c>
@@ -19878,8 +20594,12 @@
       <c r="K549">
         <v>125</v>
       </c>
-    </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L549" s="2">
+        <f>AVERAGE(B549:K549)</f>
+        <v>124.9</v>
+      </c>
+    </row>
+    <row r="550" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A550" s="1">
         <v>1024000</v>
       </c>
@@ -19913,8 +20633,12 @@
       <c r="K550">
         <v>157</v>
       </c>
-    </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L550" s="2">
+        <f>AVERAGE(B550:K550)</f>
+        <v>145.19999999999999</v>
+      </c>
+    </row>
+    <row r="551" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A551" s="1">
         <v>2048000</v>
       </c>
@@ -19948,8 +20672,12 @@
       <c r="K551">
         <v>171</v>
       </c>
-    </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L551" s="2">
+        <f>AVERAGE(B551:K551)</f>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="552" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A552" s="1">
         <v>4096000</v>
       </c>
@@ -19983,8 +20711,12 @@
       <c r="K552">
         <v>218</v>
       </c>
-    </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L552" s="2">
+        <f>AVERAGE(B552:K552)</f>
+        <v>204.4</v>
+      </c>
+    </row>
+    <row r="553" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A553" s="1">
         <v>8192000</v>
       </c>
@@ -20018,8 +20750,12 @@
       <c r="K553">
         <v>297</v>
       </c>
-    </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L553" s="2">
+        <f>AVERAGE(B553:K553)</f>
+        <v>304.39999999999998</v>
+      </c>
+    </row>
+    <row r="554" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A554" s="1">
         <v>16384000</v>
       </c>
@@ -20053,8 +20789,12 @@
       <c r="K554">
         <v>515</v>
       </c>
-    </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L554" s="2">
+        <f>AVERAGE(B554:K554)</f>
+        <v>508</v>
+      </c>
+    </row>
+    <row r="555" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A555" s="1">
         <v>32768000</v>
       </c>
@@ -20088,8 +20828,12 @@
       <c r="K555">
         <v>906</v>
       </c>
-    </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L555" s="2">
+        <f>AVERAGE(B555:K555)</f>
+        <v>901.1</v>
+      </c>
+    </row>
+    <row r="556" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A556" s="1">
         <v>65536000</v>
       </c>
@@ -20123,8 +20867,12 @@
       <c r="K556">
         <v>1672</v>
       </c>
-    </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L556" s="2">
+        <f>AVERAGE(B556:K556)</f>
+        <v>1670.5</v>
+      </c>
+    </row>
+    <row r="558" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B558" t="s">
         <v>6</v>
       </c>
@@ -20156,7 +20904,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A559" s="1">
         <v>1000</v>
       </c>
@@ -20190,8 +20938,12 @@
       <c r="K559">
         <v>234</v>
       </c>
-    </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L559" s="2">
+        <f>AVERAGE(B559:K559)</f>
+        <v>240.6</v>
+      </c>
+    </row>
+    <row r="560" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A560" s="1">
         <v>2000</v>
       </c>
@@ -20225,8 +20977,12 @@
       <c r="K560">
         <v>234</v>
       </c>
-    </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L560" s="2">
+        <f>AVERAGE(B560:K560)</f>
+        <v>235.9</v>
+      </c>
+    </row>
+    <row r="561" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A561" s="1">
         <v>4000</v>
       </c>
@@ -20260,8 +21016,12 @@
       <c r="K561">
         <v>250</v>
       </c>
-    </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L561" s="2">
+        <f>AVERAGE(B561:K561)</f>
+        <v>243.6</v>
+      </c>
+    </row>
+    <row r="562" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A562" s="1">
         <v>8000</v>
       </c>
@@ -20295,8 +21055,12 @@
       <c r="K562">
         <v>265</v>
       </c>
-    </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L562" s="2">
+        <f>AVERAGE(B562:K562)</f>
+        <v>242.2</v>
+      </c>
+    </row>
+    <row r="563" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A563" s="1">
         <v>16000</v>
       </c>
@@ -20330,8 +21094,12 @@
       <c r="K563">
         <v>250</v>
       </c>
-    </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L563" s="2">
+        <f>AVERAGE(B563:K563)</f>
+        <v>245.1</v>
+      </c>
+    </row>
+    <row r="564" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A564" s="1">
         <v>32000</v>
       </c>
@@ -20365,8 +21133,12 @@
       <c r="K564">
         <v>234</v>
       </c>
-    </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L564" s="2">
+        <f>AVERAGE(B564:K564)</f>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="565" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A565" s="1">
         <v>64000</v>
       </c>
@@ -20400,8 +21172,12 @@
       <c r="K565">
         <v>235</v>
       </c>
-    </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L565" s="2">
+        <f>AVERAGE(B565:K565)</f>
+        <v>237.6</v>
+      </c>
+    </row>
+    <row r="566" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A566" s="1">
         <v>128000</v>
       </c>
@@ -20435,8 +21211,12 @@
       <c r="K566">
         <v>249</v>
       </c>
-    </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L566" s="2">
+        <f>AVERAGE(B566:K566)</f>
+        <v>241.9</v>
+      </c>
+    </row>
+    <row r="567" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A567" s="1">
         <v>256000</v>
       </c>
@@ -20470,8 +21250,12 @@
       <c r="K567">
         <v>251</v>
       </c>
-    </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L567" s="2">
+        <f>AVERAGE(B567:K567)</f>
+        <v>245.2</v>
+      </c>
+    </row>
+    <row r="568" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A568" s="1">
         <v>512000</v>
       </c>
@@ -20505,8 +21289,12 @@
       <c r="K568">
         <v>250</v>
       </c>
-    </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L568" s="2">
+        <f>AVERAGE(B568:K568)</f>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="569" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A569" s="1">
         <v>1024000</v>
       </c>
@@ -20540,8 +21328,12 @@
       <c r="K569">
         <v>281</v>
       </c>
-    </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L569" s="2">
+        <f>AVERAGE(B569:K569)</f>
+        <v>254.2</v>
+      </c>
+    </row>
+    <row r="570" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A570" s="1">
         <v>2048000</v>
       </c>
@@ -20575,8 +21367,12 @@
       <c r="K570">
         <v>249</v>
       </c>
-    </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L570" s="2">
+        <f>AVERAGE(B570:K570)</f>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="571" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A571" s="1">
         <v>4096000</v>
       </c>
@@ -20610,8 +21406,12 @@
       <c r="K571">
         <v>313</v>
       </c>
-    </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L571" s="2">
+        <f>AVERAGE(B571:K571)</f>
+        <v>318.5</v>
+      </c>
+    </row>
+    <row r="572" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A572" s="1">
         <v>8192000</v>
       </c>
@@ -20645,8 +21445,12 @@
       <c r="K572">
         <v>437</v>
       </c>
-    </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L572" s="2">
+        <f>AVERAGE(B572:K572)</f>
+        <v>421.4</v>
+      </c>
+    </row>
+    <row r="573" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A573" s="1">
         <v>16384000</v>
       </c>
@@ -20680,8 +21484,12 @@
       <c r="K573">
         <v>749</v>
       </c>
-    </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L573" s="2">
+        <f>AVERAGE(B573:K573)</f>
+        <v>640.5</v>
+      </c>
+    </row>
+    <row r="574" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A574" s="1">
         <v>32768000</v>
       </c>
@@ -20715,8 +21523,12 @@
       <c r="K574">
         <v>1048</v>
       </c>
-    </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L574" s="2">
+        <f>AVERAGE(B574:K574)</f>
+        <v>1040.8</v>
+      </c>
+    </row>
+    <row r="575" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A575" s="1">
         <v>65536000</v>
       </c>
@@ -20750,8 +21562,12 @@
       <c r="K575">
         <v>1859</v>
       </c>
-    </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L575" s="2">
+        <f>AVERAGE(B575:K575)</f>
+        <v>1740.4</v>
+      </c>
+    </row>
+    <row r="576" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B576" t="s">
         <v>0</v>
       </c>
@@ -20783,7 +21599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B577" t="s">
         <v>11</v>
       </c>
@@ -20815,7 +21631,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A578" s="1">
         <v>1000</v>
       </c>
@@ -20849,8 +21665,12 @@
       <c r="K578">
         <v>0</v>
       </c>
-    </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L578" s="2">
+        <f>AVERAGE(B578:K578)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="579" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A579" s="1">
         <v>2000</v>
       </c>
@@ -20884,8 +21704,12 @@
       <c r="K579">
         <v>0</v>
       </c>
-    </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L579" s="2">
+        <f>AVERAGE(B579:K579)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="580" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A580" s="1">
         <v>4000</v>
       </c>
@@ -20919,8 +21743,12 @@
       <c r="K580">
         <v>0</v>
       </c>
-    </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L580" s="2">
+        <f>AVERAGE(B580:K580)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="581" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A581" s="1">
         <v>8000</v>
       </c>
@@ -20954,8 +21782,12 @@
       <c r="K581">
         <v>0</v>
       </c>
-    </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L581" s="2">
+        <f>AVERAGE(B581:K581)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="582" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A582" s="1">
         <v>16000</v>
       </c>
@@ -20989,8 +21821,12 @@
       <c r="K582">
         <v>0</v>
       </c>
-    </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L582" s="2">
+        <f>AVERAGE(B582:K582)</f>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="583" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A583" s="1">
         <v>32000</v>
       </c>
@@ -21024,8 +21860,12 @@
       <c r="K583">
         <v>0</v>
       </c>
-    </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L583" s="2">
+        <f>AVERAGE(B583:K583)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="584" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A584" s="1">
         <v>64000</v>
       </c>
@@ -21059,8 +21899,12 @@
       <c r="K584">
         <v>15</v>
       </c>
-    </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L584" s="2">
+        <f>AVERAGE(B584:K584)</f>
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="585" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A585" s="1">
         <v>128000</v>
       </c>
@@ -21094,8 +21938,12 @@
       <c r="K585">
         <v>0</v>
       </c>
-    </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L585" s="2">
+        <f>AVERAGE(B585:K585)</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="586" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A586" s="1">
         <v>256000</v>
       </c>
@@ -21129,8 +21977,12 @@
       <c r="K586">
         <v>0</v>
       </c>
-    </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L586" s="2">
+        <f>AVERAGE(B586:K586)</f>
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="587" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A587" s="1">
         <v>512000</v>
       </c>
@@ -21164,8 +22016,12 @@
       <c r="K587">
         <v>31</v>
       </c>
-    </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L587" s="2">
+        <f>AVERAGE(B587:K587)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="588" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A588" s="1">
         <v>1024000</v>
       </c>
@@ -21199,8 +22055,12 @@
       <c r="K588">
         <v>32</v>
       </c>
-    </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L588" s="2">
+        <f>AVERAGE(B588:K588)</f>
+        <v>34.200000000000003</v>
+      </c>
+    </row>
+    <row r="589" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A589" s="1">
         <v>2048000</v>
       </c>
@@ -21234,8 +22094,12 @@
       <c r="K589">
         <v>78</v>
       </c>
-    </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L589" s="2">
+        <f>AVERAGE(B589:K589)</f>
+        <v>76.599999999999994</v>
+      </c>
+    </row>
+    <row r="590" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A590" s="1">
         <v>4096000</v>
       </c>
@@ -21269,8 +22133,12 @@
       <c r="K590">
         <v>172</v>
       </c>
-    </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L590" s="2">
+        <f>AVERAGE(B590:K590)</f>
+        <v>162.5</v>
+      </c>
+    </row>
+    <row r="591" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A591" s="1">
         <v>8192000</v>
       </c>
@@ -21304,8 +22172,12 @@
       <c r="K591">
         <v>344</v>
       </c>
-    </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L591" s="2">
+        <f>AVERAGE(B591:K591)</f>
+        <v>329.6</v>
+      </c>
+    </row>
+    <row r="592" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A592" s="1">
         <v>16384000</v>
       </c>
@@ -21339,8 +22211,12 @@
       <c r="K592">
         <v>750</v>
       </c>
-    </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L592" s="2">
+        <f>AVERAGE(B592:K592)</f>
+        <v>698.4</v>
+      </c>
+    </row>
+    <row r="593" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A593" s="1">
         <v>32768000</v>
       </c>
@@ -21374,8 +22250,12 @@
       <c r="K593">
         <v>1377</v>
       </c>
-    </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L593" s="2">
+        <f>AVERAGE(B593:K593)</f>
+        <v>1359.7</v>
+      </c>
+    </row>
+    <row r="594" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A594" s="1">
         <v>65536000</v>
       </c>
@@ -21409,8 +22289,12 @@
       <c r="K594">
         <v>2844</v>
       </c>
-    </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L594" s="2">
+        <f>AVERAGE(B594:K594)</f>
+        <v>2734.5</v>
+      </c>
+    </row>
+    <row r="596" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B596" t="s">
         <v>2</v>
       </c>
@@ -21442,7 +22326,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A597" s="1">
         <v>1000</v>
       </c>
@@ -21476,8 +22360,12 @@
       <c r="K597">
         <v>30</v>
       </c>
-    </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L597" s="2">
+        <f>AVERAGE(B597:K597)</f>
+        <v>32.200000000000003</v>
+      </c>
+    </row>
+    <row r="598" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A598" s="1">
         <v>2000</v>
       </c>
@@ -21511,8 +22399,12 @@
       <c r="K598">
         <v>31</v>
       </c>
-    </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L598" s="2">
+        <f>AVERAGE(B598:K598)</f>
+        <v>29.7</v>
+      </c>
+    </row>
+    <row r="599" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A599" s="1">
         <v>4000</v>
       </c>
@@ -21546,8 +22438,12 @@
       <c r="K599">
         <v>32</v>
       </c>
-    </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L599" s="2">
+        <f>AVERAGE(B599:K599)</f>
+        <v>28.2</v>
+      </c>
+    </row>
+    <row r="600" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A600" s="1">
         <v>8000</v>
       </c>
@@ -21581,8 +22477,12 @@
       <c r="K600">
         <v>15</v>
       </c>
-    </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L600" s="2">
+        <f>AVERAGE(B600:K600)</f>
+        <v>26.4</v>
+      </c>
+    </row>
+    <row r="601" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A601" s="1">
         <v>16000</v>
       </c>
@@ -21616,8 +22516,12 @@
       <c r="K601">
         <v>31</v>
       </c>
-    </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L601" s="2">
+        <f>AVERAGE(B601:K601)</f>
+        <v>28.1</v>
+      </c>
+    </row>
+    <row r="602" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A602" s="1">
         <v>32000</v>
       </c>
@@ -21651,8 +22555,12 @@
       <c r="K602">
         <v>32</v>
       </c>
-    </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L602" s="2">
+        <f>AVERAGE(B602:K602)</f>
+        <v>26.8</v>
+      </c>
+    </row>
+    <row r="603" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A603" s="1">
         <v>64000</v>
       </c>
@@ -21686,8 +22594,12 @@
       <c r="K603">
         <v>31</v>
       </c>
-    </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L603" s="2">
+        <f>AVERAGE(B603:K603)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="604" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A604" s="1">
         <v>128000</v>
       </c>
@@ -21721,8 +22633,12 @@
       <c r="K604">
         <v>47</v>
       </c>
-    </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L604" s="2">
+        <f>AVERAGE(B604:K604)</f>
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="605" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A605" s="1">
         <v>256000</v>
       </c>
@@ -21756,8 +22672,12 @@
       <c r="K605">
         <v>31</v>
       </c>
-    </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L605" s="2">
+        <f>AVERAGE(B605:K605)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="606" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A606" s="1">
         <v>512000</v>
       </c>
@@ -21791,8 +22711,12 @@
       <c r="K606">
         <v>63</v>
       </c>
-    </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L606" s="2">
+        <f>AVERAGE(B606:K606)</f>
+        <v>51.6</v>
+      </c>
+    </row>
+    <row r="607" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A607" s="1">
         <v>1024000</v>
       </c>
@@ -21826,8 +22750,12 @@
       <c r="K607">
         <v>78</v>
       </c>
-    </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L607" s="2">
+        <f>AVERAGE(B607:K607)</f>
+        <v>72.2</v>
+      </c>
+    </row>
+    <row r="608" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A608" s="1">
         <v>2048000</v>
       </c>
@@ -21861,8 +22789,12 @@
       <c r="K608">
         <v>125</v>
       </c>
-    </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L608" s="2">
+        <f>AVERAGE(B608:K608)</f>
+        <v>116.9</v>
+      </c>
+    </row>
+    <row r="609" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A609" s="1">
         <v>4096000</v>
       </c>
@@ -21896,8 +22828,12 @@
       <c r="K609">
         <v>219</v>
       </c>
-    </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L609" s="2">
+        <f>AVERAGE(B609:K609)</f>
+        <v>204.9</v>
+      </c>
+    </row>
+    <row r="610" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A610" s="1">
         <v>8192000</v>
       </c>
@@ -21931,8 +22867,12 @@
       <c r="K610">
         <v>439</v>
       </c>
-    </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L610" s="2">
+        <f>AVERAGE(B610:K610)</f>
+        <v>392.2</v>
+      </c>
+    </row>
+    <row r="611" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A611" s="1">
         <v>16384000</v>
       </c>
@@ -21966,8 +22906,12 @@
       <c r="K611">
         <v>845</v>
       </c>
-    </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L611" s="2">
+        <f>AVERAGE(B611:K611)</f>
+        <v>768.6</v>
+      </c>
+    </row>
+    <row r="612" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A612" s="1">
         <v>32768000</v>
       </c>
@@ -22001,8 +22945,12 @@
       <c r="K612">
         <v>1500</v>
       </c>
-    </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L612" s="2">
+        <f>AVERAGE(B612:K612)</f>
+        <v>1448.4</v>
+      </c>
+    </row>
+    <row r="613" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A613" s="1">
         <v>65536000</v>
       </c>
@@ -22036,8 +22984,12 @@
       <c r="K613">
         <v>2812</v>
       </c>
-    </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L613" s="2">
+        <f>AVERAGE(B613:K613)</f>
+        <v>2787.3</v>
+      </c>
+    </row>
+    <row r="615" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B615" t="s">
         <v>3</v>
       </c>
@@ -22069,7 +23021,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A616" s="1">
         <v>1000</v>
       </c>
@@ -22103,8 +23055,12 @@
       <c r="K616">
         <v>47</v>
       </c>
-    </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L616" s="2">
+        <f>AVERAGE(B616:K616)</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="617" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A617" s="1">
         <v>2000</v>
       </c>
@@ -22138,8 +23094,12 @@
       <c r="K617">
         <v>47</v>
       </c>
-    </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L617" s="2">
+        <f>AVERAGE(B617:K617)</f>
+        <v>42.1</v>
+      </c>
+    </row>
+    <row r="618" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A618" s="1">
         <v>4000</v>
       </c>
@@ -22173,8 +23133,12 @@
       <c r="K618">
         <v>31</v>
       </c>
-    </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L618" s="2">
+        <f>AVERAGE(B618:K618)</f>
+        <v>37.4</v>
+      </c>
+    </row>
+    <row r="619" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A619" s="1">
         <v>8000</v>
       </c>
@@ -22208,8 +23172,12 @@
       <c r="K619">
         <v>31</v>
       </c>
-    </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L619" s="2">
+        <f>AVERAGE(B619:K619)</f>
+        <v>34.4</v>
+      </c>
+    </row>
+    <row r="620" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A620" s="1">
         <v>16000</v>
       </c>
@@ -22243,8 +23211,12 @@
       <c r="K620">
         <v>47</v>
       </c>
-    </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L620" s="2">
+        <f>AVERAGE(B620:K620)</f>
+        <v>36.200000000000003</v>
+      </c>
+    </row>
+    <row r="621" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A621" s="1">
         <v>32000</v>
       </c>
@@ -22278,8 +23250,12 @@
       <c r="K621">
         <v>31</v>
       </c>
-    </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L621" s="2">
+        <f>AVERAGE(B621:K621)</f>
+        <v>39.200000000000003</v>
+      </c>
+    </row>
+    <row r="622" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A622" s="1">
         <v>64000</v>
       </c>
@@ -22313,8 +23289,12 @@
       <c r="K622">
         <v>32</v>
       </c>
-    </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L622" s="2">
+        <f>AVERAGE(B622:K622)</f>
+        <v>35.9</v>
+      </c>
+    </row>
+    <row r="623" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A623" s="1">
         <v>128000</v>
       </c>
@@ -22348,8 +23328,12 @@
       <c r="K623">
         <v>47</v>
       </c>
-    </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L623" s="2">
+        <f>AVERAGE(B623:K623)</f>
+        <v>40.700000000000003</v>
+      </c>
+    </row>
+    <row r="624" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A624" s="1">
         <v>256000</v>
       </c>
@@ -22383,8 +23367,12 @@
       <c r="K624">
         <v>31</v>
       </c>
-    </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L624" s="2">
+        <f>AVERAGE(B624:K624)</f>
+        <v>40.5</v>
+      </c>
+    </row>
+    <row r="625" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A625" s="1">
         <v>512000</v>
       </c>
@@ -22418,8 +23406,12 @@
       <c r="K625">
         <v>63</v>
       </c>
-    </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L625" s="2">
+        <f>AVERAGE(B625:K625)</f>
+        <v>51.7</v>
+      </c>
+    </row>
+    <row r="626" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A626" s="1">
         <v>1024000</v>
       </c>
@@ -22453,8 +23445,12 @@
       <c r="K626">
         <v>62</v>
       </c>
-    </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L626" s="2">
+        <f>AVERAGE(B626:K626)</f>
+        <v>66.900000000000006</v>
+      </c>
+    </row>
+    <row r="627" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A627" s="1">
         <v>2048000</v>
       </c>
@@ -22488,8 +23484,12 @@
       <c r="K627">
         <v>109</v>
       </c>
-    </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L627" s="2">
+        <f>AVERAGE(B627:K627)</f>
+        <v>96.8</v>
+      </c>
+    </row>
+    <row r="628" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A628" s="1">
         <v>4096000</v>
       </c>
@@ -22523,8 +23523,12 @@
       <c r="K628">
         <v>157</v>
       </c>
-    </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L628" s="2">
+        <f>AVERAGE(B628:K628)</f>
+        <v>153.30000000000001</v>
+      </c>
+    </row>
+    <row r="629" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A629" s="1">
         <v>8192000</v>
       </c>
@@ -22558,8 +23562,12 @@
       <c r="K629">
         <v>266</v>
       </c>
-    </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L629" s="2">
+        <f>AVERAGE(B629:K629)</f>
+        <v>281.5</v>
+      </c>
+    </row>
+    <row r="630" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A630" s="1">
         <v>16384000</v>
       </c>
@@ -22593,8 +23601,12 @@
       <c r="K630">
         <v>532</v>
       </c>
-    </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L630" s="2">
+        <f>AVERAGE(B630:K630)</f>
+        <v>535.9</v>
+      </c>
+    </row>
+    <row r="631" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A631" s="1">
         <v>32768000</v>
       </c>
@@ -22628,8 +23640,12 @@
       <c r="K631">
         <v>1001</v>
       </c>
-    </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L631" s="2">
+        <f>AVERAGE(B631:K631)</f>
+        <v>999.8</v>
+      </c>
+    </row>
+    <row r="632" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A632" s="1">
         <v>65536000</v>
       </c>
@@ -22663,8 +23679,12 @@
       <c r="K632">
         <v>1953</v>
       </c>
-    </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L632" s="2">
+        <f>AVERAGE(B632:K632)</f>
+        <v>1934.7</v>
+      </c>
+    </row>
+    <row r="634" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B634" t="s">
         <v>4</v>
       </c>
@@ -22696,7 +23716,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A635" s="1">
         <v>1000</v>
       </c>
@@ -22730,8 +23750,12 @@
       <c r="K635">
         <v>63</v>
       </c>
-    </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L635" s="2">
+        <f>AVERAGE(B635:K635)</f>
+        <v>64.2</v>
+      </c>
+    </row>
+    <row r="636" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A636" s="1">
         <v>2000</v>
       </c>
@@ -22765,8 +23789,12 @@
       <c r="K636">
         <v>63</v>
       </c>
-    </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L636" s="2">
+        <f>AVERAGE(B636:K636)</f>
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="637" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A637" s="1">
         <v>4000</v>
       </c>
@@ -22800,8 +23828,12 @@
       <c r="K637">
         <v>62</v>
       </c>
-    </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L637" s="2">
+        <f>AVERAGE(B637:K637)</f>
+        <v>59.3</v>
+      </c>
+    </row>
+    <row r="638" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A638" s="1">
         <v>8000</v>
       </c>
@@ -22835,8 +23867,12 @@
       <c r="K638">
         <v>62</v>
       </c>
-    </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L638" s="2">
+        <f>AVERAGE(B638:K638)</f>
+        <v>60.8</v>
+      </c>
+    </row>
+    <row r="639" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A639" s="1">
         <v>16000</v>
       </c>
@@ -22870,8 +23906,12 @@
       <c r="K639">
         <v>63</v>
       </c>
-    </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L639" s="2">
+        <f>AVERAGE(B639:K639)</f>
+        <v>61.1</v>
+      </c>
+    </row>
+    <row r="640" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A640" s="1">
         <v>32000</v>
       </c>
@@ -22905,8 +23945,12 @@
       <c r="K640">
         <v>63</v>
       </c>
-    </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L640" s="2">
+        <f>AVERAGE(B640:K640)</f>
+        <v>64.3</v>
+      </c>
+    </row>
+    <row r="641" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A641" s="1">
         <v>64000</v>
       </c>
@@ -22940,8 +23984,12 @@
       <c r="K641">
         <v>62</v>
       </c>
-    </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L641" s="2">
+        <f>AVERAGE(B641:K641)</f>
+        <v>60.8</v>
+      </c>
+    </row>
+    <row r="642" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A642" s="1">
         <v>128000</v>
       </c>
@@ -22975,8 +24023,12 @@
       <c r="K642">
         <v>63</v>
       </c>
-    </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L642" s="2">
+        <f>AVERAGE(B642:K642)</f>
+        <v>65.7</v>
+      </c>
+    </row>
+    <row r="643" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A643" s="1">
         <v>256000</v>
       </c>
@@ -23010,8 +24062,12 @@
       <c r="K643">
         <v>62</v>
       </c>
-    </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L643" s="2">
+        <f>AVERAGE(B643:K643)</f>
+        <v>65.400000000000006</v>
+      </c>
+    </row>
+    <row r="644" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A644" s="1">
         <v>512000</v>
       </c>
@@ -23045,8 +24101,12 @@
       <c r="K644">
         <v>79</v>
       </c>
-    </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L644" s="2">
+        <f>AVERAGE(B644:K644)</f>
+        <v>72.099999999999994</v>
+      </c>
+    </row>
+    <row r="645" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A645" s="1">
         <v>1024000</v>
       </c>
@@ -23080,8 +24140,12 @@
       <c r="K645">
         <v>77</v>
       </c>
-    </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L645" s="2">
+        <f>AVERAGE(B645:K645)</f>
+        <v>84.2</v>
+      </c>
+    </row>
+    <row r="646" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A646" s="1">
         <v>2048000</v>
       </c>
@@ -23115,8 +24179,12 @@
       <c r="K646">
         <v>110</v>
       </c>
-    </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L646" s="2">
+        <f>AVERAGE(B646:K646)</f>
+        <v>109.5</v>
+      </c>
+    </row>
+    <row r="647" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A647" s="1">
         <v>4096000</v>
       </c>
@@ -23150,8 +24218,12 @@
       <c r="K647">
         <v>172</v>
       </c>
-    </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L647" s="2">
+        <f>AVERAGE(B647:K647)</f>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="648" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A648" s="1">
         <v>8192000</v>
       </c>
@@ -23185,8 +24257,12 @@
       <c r="K648">
         <v>250</v>
       </c>
-    </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L648" s="2">
+        <f>AVERAGE(B648:K648)</f>
+        <v>262.39999999999998</v>
+      </c>
+    </row>
+    <row r="649" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A649" s="1">
         <v>16384000</v>
       </c>
@@ -23220,8 +24296,12 @@
       <c r="K649">
         <v>485</v>
       </c>
-    </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L649" s="2">
+        <f>AVERAGE(B649:K649)</f>
+        <v>482.8</v>
+      </c>
+    </row>
+    <row r="650" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A650" s="1">
         <v>32768000</v>
       </c>
@@ -23255,8 +24335,12 @@
       <c r="K650">
         <v>859</v>
       </c>
-    </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L650" s="2">
+        <f>AVERAGE(B650:K650)</f>
+        <v>882.4</v>
+      </c>
+    </row>
+    <row r="651" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A651" s="1">
         <v>65536000</v>
       </c>
@@ -23290,8 +24374,12 @@
       <c r="K651">
         <v>1625</v>
       </c>
-    </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L651" s="2">
+        <f>AVERAGE(B651:K651)</f>
+        <v>1664.1</v>
+      </c>
+    </row>
+    <row r="653" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B653" t="s">
         <v>5</v>
       </c>
@@ -23323,7 +24411,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A654" s="1">
         <v>1000</v>
       </c>
@@ -23357,8 +24445,12 @@
       <c r="K654">
         <v>125</v>
       </c>
-    </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L654" s="2">
+        <f>AVERAGE(B654:K654)</f>
+        <v>123.2</v>
+      </c>
+    </row>
+    <row r="655" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A655" s="1">
         <v>2000</v>
       </c>
@@ -23392,8 +24484,12 @@
       <c r="K655">
         <v>125</v>
       </c>
-    </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L655" s="2">
+        <f>AVERAGE(B655:K655)</f>
+        <v>118.8</v>
+      </c>
+    </row>
+    <row r="656" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A656" s="1">
         <v>4000</v>
       </c>
@@ -23427,8 +24523,12 @@
       <c r="K656">
         <v>125</v>
       </c>
-    </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L656" s="2">
+        <f>AVERAGE(B656:K656)</f>
+        <v>120.2</v>
+      </c>
+    </row>
+    <row r="657" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A657" s="1">
         <v>8000</v>
       </c>
@@ -23462,8 +24562,12 @@
       <c r="K657">
         <v>141</v>
       </c>
-    </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L657" s="2">
+        <f>AVERAGE(B657:K657)</f>
+        <v>123.5</v>
+      </c>
+    </row>
+    <row r="658" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A658" s="1">
         <v>16000</v>
       </c>
@@ -23497,8 +24601,12 @@
       <c r="K658">
         <v>124</v>
       </c>
-    </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L658" s="2">
+        <f>AVERAGE(B658:K658)</f>
+        <v>118.7</v>
+      </c>
+    </row>
+    <row r="659" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A659" s="1">
         <v>32000</v>
       </c>
@@ -23532,8 +24640,12 @@
       <c r="K659">
         <v>126</v>
       </c>
-    </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L659" s="2">
+        <f>AVERAGE(B659:K659)</f>
+        <v>125.2</v>
+      </c>
+    </row>
+    <row r="660" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A660" s="1">
         <v>64000</v>
       </c>
@@ -23567,8 +24679,12 @@
       <c r="K660">
         <v>125</v>
       </c>
-    </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L660" s="2">
+        <f>AVERAGE(B660:K660)</f>
+        <v>120.5</v>
+      </c>
+    </row>
+    <row r="661" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A661" s="1">
         <v>128000</v>
       </c>
@@ -23602,8 +24718,12 @@
       <c r="K661">
         <v>140</v>
       </c>
-    </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L661" s="2">
+        <f>AVERAGE(B661:K661)</f>
+        <v>126.1</v>
+      </c>
+    </row>
+    <row r="662" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A662" s="1">
         <v>256000</v>
       </c>
@@ -23637,8 +24757,12 @@
       <c r="K662">
         <v>141</v>
       </c>
-    </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L662" s="2">
+        <f>AVERAGE(B662:K662)</f>
+        <v>126.8</v>
+      </c>
+    </row>
+    <row r="663" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A663" s="1">
         <v>512000</v>
       </c>
@@ -23672,8 +24796,12 @@
       <c r="K663">
         <v>125</v>
       </c>
-    </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L663" s="2">
+        <f>AVERAGE(B663:K663)</f>
+        <v>126.5</v>
+      </c>
+    </row>
+    <row r="664" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A664" s="1">
         <v>1024000</v>
       </c>
@@ -23707,8 +24835,12 @@
       <c r="K664">
         <v>156</v>
       </c>
-    </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L664" s="2">
+        <f>AVERAGE(B664:K664)</f>
+        <v>139.1</v>
+      </c>
+    </row>
+    <row r="665" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A665" s="1">
         <v>2048000</v>
       </c>
@@ -23742,8 +24874,12 @@
       <c r="K665">
         <v>157</v>
       </c>
-    </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L665" s="2">
+        <f>AVERAGE(B665:K665)</f>
+        <v>170.2</v>
+      </c>
+    </row>
+    <row r="666" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A666" s="1">
         <v>4096000</v>
       </c>
@@ -23777,8 +24913,12 @@
       <c r="K666">
         <v>188</v>
       </c>
-    </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L666" s="2">
+        <f>AVERAGE(B666:K666)</f>
+        <v>202.9</v>
+      </c>
+    </row>
+    <row r="667" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A667" s="1">
         <v>8192000</v>
       </c>
@@ -23812,8 +24952,12 @@
       <c r="K667">
         <v>296</v>
       </c>
-    </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L667" s="2">
+        <f>AVERAGE(B667:K667)</f>
+        <v>307.7</v>
+      </c>
+    </row>
+    <row r="668" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A668" s="1">
         <v>16384000</v>
       </c>
@@ -23847,8 +24991,12 @@
       <c r="K668">
         <v>515</v>
       </c>
-    </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L668" s="2">
+        <f>AVERAGE(B668:K668)</f>
+        <v>521.6</v>
+      </c>
+    </row>
+    <row r="669" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A669" s="1">
         <v>32768000</v>
       </c>
@@ -23882,8 +25030,12 @@
       <c r="K669">
         <v>985</v>
       </c>
-    </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L669" s="2">
+        <f>AVERAGE(B669:K669)</f>
+        <v>926.5</v>
+      </c>
+    </row>
+    <row r="670" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A670" s="1">
         <v>65536000</v>
       </c>
@@ -23917,8 +25069,12 @@
       <c r="K670">
         <v>1688</v>
       </c>
-    </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L670" s="2">
+        <f>AVERAGE(B670:K670)</f>
+        <v>1717.2</v>
+      </c>
+    </row>
+    <row r="672" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B672" t="s">
         <v>6</v>
       </c>
@@ -23950,7 +25106,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A673" s="1">
         <v>1000</v>
       </c>
@@ -23984,8 +25140,12 @@
       <c r="K673">
         <v>235</v>
       </c>
-    </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L673" s="2">
+        <f>AVERAGE(B673:K673)</f>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="674" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A674" s="1">
         <v>2000</v>
       </c>
@@ -24019,8 +25179,12 @@
       <c r="K674">
         <v>218</v>
       </c>
-    </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L674" s="2">
+        <f>AVERAGE(B674:K674)</f>
+        <v>246.9</v>
+      </c>
+    </row>
+    <row r="675" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A675" s="1">
         <v>4000</v>
       </c>
@@ -24054,8 +25218,12 @@
       <c r="K675">
         <v>235</v>
       </c>
-    </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L675" s="2">
+        <f>AVERAGE(B675:K675)</f>
+        <v>254.8</v>
+      </c>
+    </row>
+    <row r="676" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A676" s="1">
         <v>8000</v>
       </c>
@@ -24089,8 +25257,12 @@
       <c r="K676">
         <v>218</v>
       </c>
-    </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L676" s="2">
+        <f>AVERAGE(B676:K676)</f>
+        <v>251.4</v>
+      </c>
+    </row>
+    <row r="677" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A677" s="1">
         <v>16000</v>
       </c>
@@ -24124,8 +25296,12 @@
       <c r="K677">
         <v>250</v>
       </c>
-    </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L677" s="2">
+        <f>AVERAGE(B677:K677)</f>
+        <v>253.4</v>
+      </c>
+    </row>
+    <row r="678" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A678" s="1">
         <v>32000</v>
       </c>
@@ -24159,8 +25335,12 @@
       <c r="K678">
         <v>250</v>
       </c>
-    </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L678" s="2">
+        <f>AVERAGE(B678:K678)</f>
+        <v>252.9</v>
+      </c>
+    </row>
+    <row r="679" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A679" s="1">
         <v>64000</v>
       </c>
@@ -24194,8 +25374,12 @@
       <c r="K679">
         <v>250</v>
       </c>
-    </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L679" s="2">
+        <f>AVERAGE(B679:K679)</f>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="680" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A680" s="1">
         <v>128000</v>
       </c>
@@ -24229,8 +25413,12 @@
       <c r="K680">
         <v>297</v>
       </c>
-    </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L680" s="2">
+        <f>AVERAGE(B680:K680)</f>
+        <v>248.4</v>
+      </c>
+    </row>
+    <row r="681" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A681" s="1">
         <v>256000</v>
       </c>
@@ -24264,8 +25452,12 @@
       <c r="K681">
         <v>250</v>
       </c>
-    </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L681" s="2">
+        <f>AVERAGE(B681:K681)</f>
+        <v>257.7</v>
+      </c>
+    </row>
+    <row r="682" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A682" s="1">
         <v>512000</v>
       </c>
@@ -24299,8 +25491,12 @@
       <c r="K682">
         <v>250</v>
       </c>
-    </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L682" s="2">
+        <f>AVERAGE(B682:K682)</f>
+        <v>259.5</v>
+      </c>
+    </row>
+    <row r="683" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A683" s="1">
         <v>1024000</v>
       </c>
@@ -24334,8 +25530,12 @@
       <c r="K683">
         <v>281</v>
       </c>
-    </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L683" s="2">
+        <f>AVERAGE(B683:K683)</f>
+        <v>273.39999999999998</v>
+      </c>
+    </row>
+    <row r="684" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A684" s="1">
         <v>2048000</v>
       </c>
@@ -24369,8 +25569,12 @@
       <c r="K684">
         <v>265</v>
       </c>
-    </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L684" s="2">
+        <f>AVERAGE(B684:K684)</f>
+        <v>287.3</v>
+      </c>
+    </row>
+    <row r="685" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A685" s="1">
         <v>4096000</v>
       </c>
@@ -24404,8 +25608,12 @@
       <c r="K685">
         <v>313</v>
       </c>
-    </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L685" s="2">
+        <f>AVERAGE(B685:K685)</f>
+        <v>332.6</v>
+      </c>
+    </row>
+    <row r="686" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A686" s="1">
         <v>8192000</v>
       </c>
@@ -24439,8 +25647,12 @@
       <c r="K686">
         <v>406</v>
       </c>
-    </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L686" s="2">
+        <f>AVERAGE(B686:K686)</f>
+        <v>407.8</v>
+      </c>
+    </row>
+    <row r="687" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A687" s="1">
         <v>16384000</v>
       </c>
@@ -24474,8 +25686,12 @@
       <c r="K687">
         <v>610</v>
       </c>
-    </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L687" s="2">
+        <f>AVERAGE(B687:K687)</f>
+        <v>616.79999999999995</v>
+      </c>
+    </row>
+    <row r="688" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A688" s="1">
         <v>32768000</v>
       </c>
@@ -24509,8 +25725,12 @@
       <c r="K688">
         <v>1000</v>
       </c>
-    </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L688" s="2">
+        <f>AVERAGE(B688:K688)</f>
+        <v>1012.2</v>
+      </c>
+    </row>
+    <row r="689" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A689" s="1">
         <v>65536000</v>
       </c>
@@ -24543,6 +25763,10 @@
       </c>
       <c r="K689">
         <v>1813</v>
+      </c>
+      <c r="L689" s="2">
+        <f>AVERAGE(B689:K689)</f>
+        <v>1820.5</v>
       </c>
     </row>
   </sheetData>

--- a/data-win10-vm-2procs.xlsx
+++ b/data-win10-vm-2procs.xlsx
@@ -84,7 +84,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,8 +107,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -126,6 +132,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -140,12 +152,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -463,15 +477,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M689"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A673" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L690" sqref="L690"/>
+    <sheetView tabSelected="1" topLeftCell="A685" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M690" sqref="M690"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.5546875" customWidth="1"/>
-    <col min="12" max="12" width="6.77734375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="7.21875" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="14.109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -536,7 +550,7 @@
       <c r="L7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -579,7 +593,7 @@
         <f ca="1">AVERAGE(B8:K8)</f>
         <v>0</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="5">
         <f ca="1">_xlfn.STDEV.P(B8:K8)</f>
         <v>0</v>
       </c>
@@ -622,7 +636,7 @@
         <f>AVERAGE(B9:K9)</f>
         <v>0</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="5">
         <f>_xlfn.STDEV.P(B9:K9)</f>
         <v>0</v>
       </c>
@@ -665,7 +679,7 @@
         <f>AVERAGE(B10:K10)</f>
         <v>1.5</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="5">
         <f>_xlfn.STDEV.P(B10:K10)</f>
         <v>4.5</v>
       </c>
@@ -708,7 +722,7 @@
         <f>AVERAGE(B11:K11)</f>
         <v>0</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="5">
         <f>_xlfn.STDEV.P(B11:K11)</f>
         <v>0</v>
       </c>
@@ -751,7 +765,7 @@
         <f>AVERAGE(B12:K12)</f>
         <v>3</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="5">
         <f>_xlfn.STDEV.P(B12:K12)</f>
         <v>6</v>
       </c>
@@ -794,7 +808,7 @@
         <f>AVERAGE(B13:K13)</f>
         <v>1.5</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="5">
         <f>_xlfn.STDEV.P(B13:K13)</f>
         <v>4.5</v>
       </c>
@@ -837,7 +851,7 @@
         <f>AVERAGE(B14:K14)</f>
         <v>0</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="5">
         <f>_xlfn.STDEV.P(B14:K14)</f>
         <v>0</v>
       </c>
@@ -880,7 +894,7 @@
         <f>AVERAGE(B15:K15)</f>
         <v>3.1</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="5">
         <f>_xlfn.STDEV.P(B15:K15)</f>
         <v>6.2040309476984401</v>
       </c>
@@ -923,7 +937,7 @@
         <f>AVERAGE(B16:K16)</f>
         <v>7.9</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="5">
         <f>_xlfn.STDEV.P(B16:K16)</f>
         <v>7.9050616695886697</v>
       </c>
@@ -966,7 +980,7 @@
         <f>AVERAGE(B17:K17)</f>
         <v>22</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="5">
         <f>_xlfn.STDEV.P(B17:K17)</f>
         <v>7.5630681604756154</v>
       </c>
@@ -1009,7 +1023,7 @@
         <f>AVERAGE(B18:K18)</f>
         <v>42.3</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="5">
         <f>_xlfn.STDEV.P(B18:K18)</f>
         <v>7.211795892841117</v>
       </c>
@@ -1052,7 +1066,7 @@
         <f>AVERAGE(B19:K19)</f>
         <v>85.6</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="5">
         <f>_xlfn.STDEV.P(B19:K19)</f>
         <v>19.106019993708788</v>
       </c>
@@ -1095,7 +1109,7 @@
         <f>AVERAGE(B20:K20)</f>
         <v>168.8</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="5">
         <f>_xlfn.STDEV.P(B20:K20)</f>
         <v>9.1082380293885592</v>
       </c>
@@ -1138,7 +1152,7 @@
         <f>AVERAGE(B21:K21)</f>
         <v>336.1</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="5">
         <f>_xlfn.STDEV.P(B21:K21)</f>
         <v>12.597221915962265</v>
       </c>
@@ -1181,7 +1195,7 @@
         <f>AVERAGE(B22:K22)</f>
         <v>688.9</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="5">
         <f>_xlfn.STDEV.P(B22:K22)</f>
         <v>32.907294024273703</v>
       </c>
@@ -1224,7 +1238,7 @@
         <f>AVERAGE(B23:K23)</f>
         <v>1361</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="5">
         <f>_xlfn.STDEV.P(B23:K23)</f>
         <v>51.42567452158503</v>
       </c>
@@ -1267,7 +1281,7 @@
         <f>AVERAGE(B24:K24)</f>
         <v>2739</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="5">
         <f>_xlfn.STDEV.P(B24:K24)</f>
         <v>123.46173496270008</v>
       </c>
@@ -1342,7 +1356,7 @@
         <f>AVERAGE(B27:K27)</f>
         <v>40.299999999999997</v>
       </c>
-      <c r="M27">
+      <c r="M27" s="5">
         <f>_xlfn.STDEV.P(K27)</f>
         <v>0</v>
       </c>
@@ -1385,7 +1399,7 @@
         <f>AVERAGE(B28:K28)</f>
         <v>32.6</v>
       </c>
-      <c r="M28">
+      <c r="M28" s="5">
         <f>_xlfn.STDEV.P(B28:K28)</f>
         <v>4.8</v>
       </c>
@@ -1428,7 +1442,7 @@
         <f>AVERAGE(B29:K29)</f>
         <v>28.2</v>
       </c>
-      <c r="M29">
+      <c r="M29" s="5">
         <f>_xlfn.STDEV.P(B29:K29)</f>
         <v>9.0752410436307418</v>
       </c>
@@ -1471,6 +1485,10 @@
         <f>AVERAGE(B30:K30)</f>
         <v>31.3</v>
       </c>
+      <c r="M30" s="5">
+        <f>_xlfn.STDEV.P(B30:K30)</f>
+        <v>0.45825756949558405</v>
+      </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
@@ -1510,6 +1528,10 @@
         <f>AVERAGE(B30:K30)</f>
         <v>31.3</v>
       </c>
+      <c r="M31" s="5">
+        <f>_xlfn.STDEV.P(B31:K31)</f>
+        <v>6.4</v>
+      </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
@@ -1549,8 +1571,12 @@
         <f>AVERAGE(B32:K32)</f>
         <v>26.8</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M32" s="5">
+        <f>_xlfn.STDEV.P(B32:K32)</f>
+        <v>7.0823724838503095</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>64000</v>
       </c>
@@ -1588,8 +1614,12 @@
         <f>AVERAGE(B33:K33)</f>
         <v>26.6</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M33" s="5">
+        <f>_xlfn.STDEV.P(B33:K33)</f>
+        <v>7.3918874450305312</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>128000</v>
       </c>
@@ -1627,8 +1657,12 @@
         <f>AVERAGE(B34:K34)</f>
         <v>35.700000000000003</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M34" s="5">
+        <f>_xlfn.STDEV.P(B34:K34)</f>
+        <v>7.1840100222647241</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>256000</v>
       </c>
@@ -1666,8 +1700,12 @@
         <f>AVERAGE(B35:K35)</f>
         <v>36</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M35" s="5">
+        <f>_xlfn.STDEV.P(B35:K35)</f>
+        <v>7.2111025509279782</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>512000</v>
       </c>
@@ -1705,8 +1743,12 @@
         <f>AVERAGE(B36:K36)</f>
         <v>48.3</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M36" s="5">
+        <f>_xlfn.STDEV.P(B36:K36)</f>
+        <v>4.920365840057018</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>1024000</v>
       </c>
@@ -1744,8 +1786,12 @@
         <f>AVERAGE(B37:K37)</f>
         <v>77.900000000000006</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M37" s="5">
+        <f>_xlfn.STDEV.P(B37:K37)</f>
+        <v>9.9744674043279122</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>2048000</v>
       </c>
@@ -1783,8 +1829,12 @@
         <f>AVERAGE(B38:K38)</f>
         <v>120.4</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M38" s="5">
+        <f>_xlfn.STDEV.P(B38:K38)</f>
+        <v>12.076423311560422</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>4096000</v>
       </c>
@@ -1822,8 +1872,12 @@
         <f>AVERAGE(B39:K39)</f>
         <v>215.6</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M39" s="5">
+        <f>_xlfn.STDEV.P(B39:K39)</f>
+        <v>11.799999999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>8192000</v>
       </c>
@@ -1861,8 +1915,12 @@
         <f>AVERAGE(B40:K40)</f>
         <v>395.8</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M40" s="5">
+        <f>_xlfn.STDEV.P(B40:K40)</f>
+        <v>14.183088521193119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>16384000</v>
       </c>
@@ -1900,8 +1958,12 @@
         <f>AVERAGE(B41:K41)</f>
         <v>767.4</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M41" s="5">
+        <f>_xlfn.STDEV.P(B41:K41)</f>
+        <v>30.764264983906244</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>32768000</v>
       </c>
@@ -1939,8 +2001,12 @@
         <f>AVERAGE(B42:K42)</f>
         <v>1429.6</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M42" s="5">
+        <f>_xlfn.STDEV.P(B42:K42)</f>
+        <v>55.758766126950839</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>65536000</v>
       </c>
@@ -1978,8 +2044,12 @@
         <f>AVERAGE(B43:K43)</f>
         <v>2815.1</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M43" s="5">
+        <f>_xlfn.STDEV.P(B43:K43)</f>
+        <v>82.762853986556067</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>3</v>
       </c>
@@ -2011,7 +2081,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>1000</v>
       </c>
@@ -2049,8 +2119,12 @@
         <f>AVERAGE(B46:K46)</f>
         <v>37.6</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M46" s="5">
+        <f>_xlfn.STDEV.P(B46:K46)</f>
+        <v>7.7097341069585532</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>2000</v>
       </c>
@@ -2088,8 +2162,12 @@
         <f>AVERAGE(B47:K47)</f>
         <v>40.4</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M47" s="5">
+        <f>_xlfn.STDEV.P(B47:K47)</f>
+        <v>7.4859869088851605</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>4000</v>
       </c>
@@ -2127,8 +2205,12 @@
         <f>AVERAGE(B48:K48)</f>
         <v>40.4</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M48" s="5">
+        <f>_xlfn.STDEV.P(B48:K48)</f>
+        <v>7.6837490849194188</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>8000</v>
       </c>
@@ -2166,8 +2248,12 @@
         <f>AVERAGE(B49:K49)</f>
         <v>37.6</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M49" s="5">
+        <f>_xlfn.STDEV.P(B49:K49)</f>
+        <v>7.6837490849194188</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>16000</v>
       </c>
@@ -2205,8 +2291,12 @@
         <f>AVERAGE(B50:K50)</f>
         <v>39.1</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M50" s="5">
+        <f>_xlfn.STDEV.P(B50:K50)</f>
+        <v>7.712976079309465</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>32000</v>
       </c>
@@ -2244,8 +2334,12 @@
         <f>AVERAGE(B51:K51)</f>
         <v>35.799999999999997</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M51" s="5">
+        <f>_xlfn.STDEV.P(B51:K51)</f>
+        <v>6.910861017268398</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>64000</v>
       </c>
@@ -2283,8 +2377,12 @@
         <f>AVERAGE(B52:K52)</f>
         <v>37.5</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M52" s="5">
+        <f>_xlfn.STDEV.P(B52:K52)</f>
+        <v>7.7620873481300121</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>128000</v>
       </c>
@@ -2322,8 +2420,12 @@
         <f>AVERAGE(B53:K53)</f>
         <v>39</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M53" s="5">
+        <f>_xlfn.STDEV.P(B53:K53)</f>
+        <v>10.742439201596628</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>256000</v>
       </c>
@@ -2361,8 +2463,12 @@
         <f>AVERAGE(B54:K54)</f>
         <v>46.8</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M54" s="5">
+        <f>_xlfn.STDEV.P(B54:K54)</f>
+        <v>6.7201190465645766</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>512000</v>
       </c>
@@ -2400,8 +2506,12 @@
         <f>AVERAGE(B55:K55)</f>
         <v>56.2</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M55" s="5">
+        <f>_xlfn.STDEV.P(B55:K55)</f>
+        <v>10.533755265810953</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>1024000</v>
       </c>
@@ -2439,8 +2549,12 @@
         <f>AVERAGE(B56:K56)</f>
         <v>66.900000000000006</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M56" s="5">
+        <f>_xlfn.STDEV.P(B56:K56)</f>
+        <v>7.5026661927610769</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>2048000</v>
       </c>
@@ -2478,8 +2592,12 @@
         <f>AVERAGE(B57:K57)</f>
         <v>98.4</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M57" s="5">
+        <f>_xlfn.STDEV.P(B57:K57)</f>
+        <v>7.172168430816444</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>4096000</v>
       </c>
@@ -2517,8 +2635,12 @@
         <f>AVERAGE(B58:K58)</f>
         <v>163.6</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M58" s="5">
+        <f>_xlfn.STDEV.P(B58:K58)</f>
+        <v>14.108153670838719</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>8192000</v>
       </c>
@@ -2556,8 +2678,12 @@
         <f>AVERAGE(B59:K59)</f>
         <v>295.2</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M59" s="5">
+        <f>_xlfn.STDEV.P(B59:K59)</f>
+        <v>27.378093432523748</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>16384000</v>
       </c>
@@ -2595,8 +2721,12 @@
         <f>AVERAGE(B60:K60)</f>
         <v>535.70000000000005</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M60" s="5">
+        <f>_xlfn.STDEV.P(B60:K60)</f>
+        <v>27.265546024240926</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>32768000</v>
       </c>
@@ -2634,8 +2764,12 @@
         <f>AVERAGE(B61:K61)</f>
         <v>1006.2</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M61" s="5">
+        <f>_xlfn.STDEV.P(B61:K61)</f>
+        <v>42.866770347204834</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>65536000</v>
       </c>
@@ -2673,8 +2807,12 @@
         <f>AVERAGE(B62:K62)</f>
         <v>1954.7</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M62" s="5">
+        <f>_xlfn.STDEV.P(B62:K62)</f>
+        <v>154.65448587092456</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>4</v>
       </c>
@@ -2706,7 +2844,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>1000</v>
       </c>
@@ -2744,8 +2882,12 @@
         <f>AVERAGE(B65:K65)</f>
         <v>64.099999999999994</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M65" s="5">
+        <f>_xlfn.STDEV.P(B65:K65)</f>
+        <v>4.6572524088780058</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>2000</v>
       </c>
@@ -2783,8 +2925,12 @@
         <f>AVERAGE(B66:K66)</f>
         <v>67.099999999999994</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M66" s="5">
+        <f>_xlfn.STDEV.P(B66:K66)</f>
+        <v>9.9744674043279122</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>4000</v>
       </c>
@@ -2822,8 +2968,12 @@
         <f>AVERAGE(B67:K67)</f>
         <v>64.2</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M67" s="5">
+        <f>_xlfn.STDEV.P(B67:K67)</f>
+        <v>4.6216880033165371</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>8000</v>
       </c>
@@ -2861,8 +3011,12 @@
         <f>AVERAGE(B68:K68)</f>
         <v>67.2</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M68" s="5">
+        <f>_xlfn.STDEV.P(B68:K68)</f>
+        <v>30.710910113508522</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>16000</v>
       </c>
@@ -2900,8 +3054,12 @@
         <f>AVERAGE(B69:K69)</f>
         <v>63.9</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M69" s="5">
+        <f>_xlfn.STDEV.P(B69:K69)</f>
+        <v>4.7212286536451504</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>32000</v>
       </c>
@@ -2939,8 +3097,12 @@
         <f>AVERAGE(B70:K70)</f>
         <v>61.3</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M70" s="5">
+        <f>_xlfn.STDEV.P(B70:K70)</f>
+        <v>4.7759815745038221</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>64000</v>
       </c>
@@ -2978,8 +3140,12 @@
         <f>AVERAGE(B71:K71)</f>
         <v>60.8</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M71" s="5">
+        <f>_xlfn.STDEV.P(B71:K71)</f>
+        <v>4.6216880033165362</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>128000</v>
       </c>
@@ -3017,8 +3183,12 @@
         <f>AVERAGE(B72:K72)</f>
         <v>65.400000000000006</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M72" s="5">
+        <f>_xlfn.STDEV.P(B72:K72)</f>
+        <v>6.5604877867426907</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>256000</v>
       </c>
@@ -3056,8 +3226,12 @@
         <f>AVERAGE(B73:K73)</f>
         <v>68.8</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M73" s="5">
+        <f>_xlfn.STDEV.P(B73:K73)</f>
+        <v>7.5206382707852661</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>512000</v>
       </c>
@@ -3095,8 +3269,12 @@
         <f>AVERAGE(B74:K74)</f>
         <v>73.3</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M74" s="5">
+        <f>_xlfn.STDEV.P(B74:K74)</f>
+        <v>7.2117958928411161</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>1024000</v>
       </c>
@@ -3134,8 +3312,12 @@
         <f>AVERAGE(B75:K75)</f>
         <v>86</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M75" s="5">
+        <f>_xlfn.STDEV.P(B75:K75)</f>
+        <v>8.0249610590955527</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>2048000</v>
       </c>
@@ -3173,8 +3355,12 @@
         <f>AVERAGE(B76:K76)</f>
         <v>107.5</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M76" s="5">
+        <f>_xlfn.STDEV.P(B76:K76)</f>
+        <v>8.6515894493439749</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>4096000</v>
       </c>
@@ -3212,8 +3398,12 @@
         <f>AVERAGE(B77:K77)</f>
         <v>162.5</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M77" s="5">
+        <f>_xlfn.STDEV.P(B77:K77)</f>
+        <v>10.413932974625869</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>8192000</v>
       </c>
@@ -3251,8 +3441,12 @@
         <f>AVERAGE(B78:K78)</f>
         <v>265.60000000000002</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M78" s="5">
+        <f>_xlfn.STDEV.P(B78:K78)</f>
+        <v>18.602150413325877</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>16384000</v>
       </c>
@@ -3290,8 +3484,12 @@
         <f>AVERAGE(B79:K79)</f>
         <v>493.8</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M79" s="5">
+        <f>_xlfn.STDEV.P(B79:K79)</f>
+        <v>47.67976510009251</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>32768000</v>
       </c>
@@ -3329,8 +3527,12 @@
         <f>AVERAGE(B80:K80)</f>
         <v>867.3</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M80" s="5">
+        <f>_xlfn.STDEV.P(B80:K80)</f>
+        <v>31.682960720235723</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>65536000</v>
       </c>
@@ -3368,8 +3570,12 @@
         <f>AVERAGE(B81:K81)</f>
         <v>1657.6</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M81" s="5">
+        <f>_xlfn.STDEV.P(B81:K81)</f>
+        <v>56.080656201581661</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
         <v>5</v>
       </c>
@@ -3401,7 +3607,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>1000</v>
       </c>
@@ -3439,8 +3645,12 @@
         <f>AVERAGE(B84:K84)</f>
         <v>121.9</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M84" s="5">
+        <f>_xlfn.STDEV.P(B84:K84)</f>
+        <v>8.9827612681179492</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>2000</v>
       </c>
@@ -3478,8 +3688,12 @@
         <f>AVERAGE(B85:K85)</f>
         <v>124.7</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M85" s="5">
+        <f>_xlfn.STDEV.P(B85:K85)</f>
+        <v>7.1979163651712437</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>4000</v>
       </c>
@@ -3517,8 +3731,12 @@
         <f>AVERAGE(B86:K86)</f>
         <v>122.2</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M86" s="5">
+        <f>_xlfn.STDEV.P(B86:K86)</f>
+        <v>11.417530380953666</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>8000</v>
       </c>
@@ -3556,8 +3774,12 @@
         <f>AVERAGE(B87:K87)</f>
         <v>132.5</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M87" s="5">
+        <f>_xlfn.STDEV.P(B87:K87)</f>
+        <v>8.1148012914673391</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>16000</v>
       </c>
@@ -3595,8 +3817,12 @@
         <f>AVERAGE(B88:K88)</f>
         <v>120.3</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M88" s="5">
+        <f>_xlfn.STDEV.P(B88:K88)</f>
+        <v>12.41007655093231</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>32000</v>
       </c>
@@ -3634,8 +3860,12 @@
         <f>AVERAGE(B89:K89)</f>
         <v>125.2</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M89" s="5">
+        <f>_xlfn.STDEV.P(B89:K89)</f>
+        <v>9.9679486355016884</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>64000</v>
       </c>
@@ -3673,8 +3903,12 @@
         <f>AVERAGE(B90:K90)</f>
         <v>117.1</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M90" s="5">
+        <f>_xlfn.STDEV.P(B90:K90)</f>
+        <v>7.7259303646874793</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>128000</v>
       </c>
@@ -3712,8 +3946,12 @@
         <f>AVERAGE(B91:K91)</f>
         <v>126.6</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M91" s="5">
+        <f>_xlfn.STDEV.P(B91:K91)</f>
+        <v>8.2728471519785742</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>256000</v>
       </c>
@@ -3751,8 +3989,12 @@
         <f>AVERAGE(B92:K92)</f>
         <v>129.6</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M92" s="5">
+        <f>_xlfn.STDEV.P(B92:K92)</f>
+        <v>7.4859869088851605</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>512000</v>
       </c>
@@ -3790,8 +4032,12 @@
         <f>AVERAGE(B93:K93)</f>
         <v>131.19999999999999</v>
       </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M93" s="5">
+        <f>_xlfn.STDEV.P(B93:K93)</f>
+        <v>7.6131465242697116</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>1024000</v>
       </c>
@@ -3829,8 +4075,12 @@
         <f>AVERAGE(B94:K94)</f>
         <v>140.4</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M94" s="5">
+        <f>_xlfn.STDEV.P(B94:K94)</f>
+        <v>7.3918874450305312</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>2048000</v>
       </c>
@@ -3868,8 +4118,12 @@
         <f>AVERAGE(B95:K95)</f>
         <v>159.19999999999999</v>
       </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M95" s="5">
+        <f>_xlfn.STDEV.P(B95:K95)</f>
+        <v>9.6104110213871703</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>4096000</v>
       </c>
@@ -3907,8 +4161,12 @@
         <f>AVERAGE(B96:K96)</f>
         <v>210.9</v>
       </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M96" s="5">
+        <f>_xlfn.STDEV.P(B96:K96)</f>
+        <v>10.530432089900206</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>8192000</v>
       </c>
@@ -3946,8 +4204,12 @@
         <f>AVERAGE(B97:K97)</f>
         <v>314.10000000000002</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M97" s="5">
+        <f>_xlfn.STDEV.P(B97:K97)</f>
+        <v>8.5375640553965972</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>16384000</v>
       </c>
@@ -3985,8 +4247,12 @@
         <f>AVERAGE(B98:K98)</f>
         <v>512.4</v>
       </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M98" s="5">
+        <f>_xlfn.STDEV.P(B98:K98)</f>
+        <v>16.432893841317178</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>32768000</v>
       </c>
@@ -4024,8 +4290,12 @@
         <f>AVERAGE(B99:K99)</f>
         <v>909.3</v>
       </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M99" s="5">
+        <f>_xlfn.STDEV.P(B99:K99)</f>
+        <v>34.123452345857388</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>65536000</v>
       </c>
@@ -4063,8 +4333,12 @@
         <f>AVERAGE(B100:K100)</f>
         <v>1715.6</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M100" s="5">
+        <f>_xlfn.STDEV.P(B100:K100)</f>
+        <v>48.489586510920063</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B102" t="s">
         <v>6</v>
       </c>
@@ -4096,7 +4370,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>1000</v>
       </c>
@@ -4134,8 +4408,12 @@
         <f>AVERAGE(B103:K103)</f>
         <v>248.2</v>
       </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M103" s="5">
+        <f>_xlfn.STDEV.P(B103:K103)</f>
+        <v>17.814600753314682</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>2000</v>
       </c>
@@ -4173,8 +4451,12 @@
         <f>AVERAGE(B104:K104)</f>
         <v>250</v>
       </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M104" s="5">
+        <f>_xlfn.STDEV.P(B104:K104)</f>
+        <v>9.5078914592037709</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>4000</v>
       </c>
@@ -4212,8 +4494,12 @@
         <f>AVERAGE(B105:K105)</f>
         <v>256.5</v>
       </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M105" s="5">
+        <f>_xlfn.STDEV.P(B105:K105)</f>
+        <v>16.194134740701646</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>8000</v>
       </c>
@@ -4251,8 +4537,12 @@
         <f>AVERAGE(B106:K106)</f>
         <v>248.1</v>
       </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M106" s="5">
+        <f>_xlfn.STDEV.P(B106:K106)</f>
+        <v>11.031319050775387</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>16000</v>
       </c>
@@ -4290,8 +4580,12 @@
         <f>AVERAGE(B107:K107)</f>
         <v>251.6</v>
       </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M107" s="5">
+        <f>_xlfn.STDEV.P(B107:K107)</f>
+        <v>14.677874505527019</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>32000</v>
       </c>
@@ -4329,8 +4623,12 @@
         <f>AVERAGE(B108:K108)</f>
         <v>254.6</v>
       </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M108" s="5">
+        <f>_xlfn.STDEV.P(B108:K108)</f>
+        <v>17.211623979160134</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>64000</v>
       </c>
@@ -4368,8 +4666,12 @@
         <f>AVERAGE(B109:K109)</f>
         <v>262.60000000000002</v>
       </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M109" s="5">
+        <f>_xlfn.STDEV.P(B109:K109)</f>
+        <v>19.64281038955475</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>128000</v>
       </c>
@@ -4407,8 +4709,12 @@
         <f>AVERAGE(B110:K110)</f>
         <v>252.8</v>
       </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M110" s="5">
+        <f>_xlfn.STDEV.P(B110:K110)</f>
+        <v>13.592645070036959</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>256000</v>
       </c>
@@ -4446,8 +4752,12 @@
         <f>AVERAGE(B111:K111)</f>
         <v>245.5</v>
       </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M111" s="5">
+        <f>_xlfn.STDEV.P(B111:K111)</f>
+        <v>18.575521526998912</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>512000</v>
       </c>
@@ -4485,8 +4795,12 @@
         <f>AVERAGE(B112:K112)</f>
         <v>245.1</v>
       </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M112" s="5">
+        <f>_xlfn.STDEV.P(B112:K112)</f>
+        <v>13.707297326606728</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>1024000</v>
       </c>
@@ -4524,8 +4838,12 @@
         <f>AVERAGE(B113:K113)</f>
         <v>262.39999999999998</v>
       </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M113" s="5">
+        <f>_xlfn.STDEV.P(B113:K113)</f>
+        <v>13.749181793837773</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>2048000</v>
       </c>
@@ -4563,8 +4881,12 @@
         <f>AVERAGE(B114:K114)</f>
         <v>276.10000000000002</v>
       </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M114" s="5">
+        <f>_xlfn.STDEV.P(B114:K114)</f>
+        <v>15.757220567092407</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>4096000</v>
       </c>
@@ -4602,8 +4924,12 @@
         <f>AVERAGE(B115:K115)</f>
         <v>318.8</v>
       </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M115" s="5">
+        <f>_xlfn.STDEV.P(B115:K115)</f>
+        <v>7.3184697854127938</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>8192000</v>
       </c>
@@ -4641,8 +4967,12 @@
         <f>AVERAGE(B116:K116)</f>
         <v>415.5</v>
       </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M116" s="5">
+        <f>_xlfn.STDEV.P(B116:K116)</f>
+        <v>17.246738822165771</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>16384000</v>
       </c>
@@ -4680,8 +5010,12 @@
         <f>AVERAGE(B117:K117)</f>
         <v>628.1</v>
       </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M117" s="5">
+        <f>_xlfn.STDEV.P(B117:K117)</f>
+        <v>26.055517649818434</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>32768000</v>
       </c>
@@ -4719,8 +5053,12 @@
         <f>AVERAGE(B118:K118)</f>
         <v>1017.3</v>
       </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M118" s="5">
+        <f>_xlfn.STDEV.P(B118:K118)</f>
+        <v>32.385336187848971</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>65536000</v>
       </c>
@@ -4758,8 +5096,12 @@
         <f>AVERAGE(B119:K119)</f>
         <v>1800</v>
       </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M119" s="5">
+        <f>_xlfn.STDEV.P(B119:K119)</f>
+        <v>51.340042851559836</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B120" t="s">
         <v>0</v>
       </c>
@@ -4791,7 +5133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B121" t="s">
         <v>7</v>
       </c>
@@ -4823,7 +5165,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>1000</v>
       </c>
@@ -4861,8 +5203,12 @@
         <f>AVERAGE(B122:K122)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M122" s="5">
+        <f>_xlfn.STDEV.P(B122:K122)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>2000</v>
       </c>
@@ -4900,8 +5246,12 @@
         <f>AVERAGE(B123:K123)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M123" s="5">
+        <f>_xlfn.STDEV.P(B123:K123)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>4000</v>
       </c>
@@ -4939,8 +5289,12 @@
         <f>AVERAGE(B124:K124)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M124" s="5">
+        <f>_xlfn.STDEV.P(B124:K124)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>8000</v>
       </c>
@@ -4978,8 +5332,12 @@
         <f>AVERAGE(B125:K125)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M125" s="5">
+        <f>_xlfn.STDEV.P(B125:K125)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>16000</v>
       </c>
@@ -5017,8 +5375,12 @@
         <f>AVERAGE(B123:K126)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M126" s="5">
+        <f>_xlfn.STDEV.P(B126:K126)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>32000</v>
       </c>
@@ -5056,8 +5418,12 @@
         <f>AVERAGE(B127:K127)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M127" s="5">
+        <f>_xlfn.STDEV.P(B127:K127)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>64000</v>
       </c>
@@ -5095,8 +5461,12 @@
         <f>AVERAGE(B128:K128)</f>
         <v>1.6</v>
       </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M128" s="5">
+        <f>_xlfn.STDEV.P(B128:K128)</f>
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>128000</v>
       </c>
@@ -5134,8 +5504,12 @@
         <f>AVERAGE(B129:K129)</f>
         <v>3.2</v>
       </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M129" s="5">
+        <f>_xlfn.STDEV.P(B129:K129)</f>
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>256000</v>
       </c>
@@ -5173,8 +5547,12 @@
         <f>AVERAGE(B130:K130)</f>
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M130" s="5">
+        <f>_xlfn.STDEV.P(B130:K130)</f>
+        <v>7.4893257373411126</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>512000</v>
       </c>
@@ -5212,8 +5590,12 @@
         <f>AVERAGE(B131:K131)</f>
         <v>18.8</v>
       </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M131" s="5">
+        <f>_xlfn.STDEV.P(B131:K131)</f>
+        <v>6.1286213784178249</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>1024000</v>
       </c>
@@ -5251,8 +5633,12 @@
         <f>AVERAGE(B132:K132)</f>
         <v>41.8</v>
       </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M132" s="5">
+        <f>_xlfn.STDEV.P(B132:K132)</f>
+        <v>7.3047929470998696</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>2048000</v>
       </c>
@@ -5290,8 +5676,12 @@
         <f>AVERAGE(B133:K133)</f>
         <v>82.8</v>
       </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M133" s="5">
+        <f>_xlfn.STDEV.P(B133:K133)</f>
+        <v>7.138627319029899</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>4096000</v>
       </c>
@@ -5329,8 +5719,12 @@
         <f>AVERAGE(B134:K134)</f>
         <v>165.8</v>
       </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M134" s="5">
+        <f>_xlfn.STDEV.P(B134:K134)</f>
+        <v>10.438390680559911</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>8192000</v>
       </c>
@@ -5368,8 +5762,12 @@
         <f>AVERAGE(B135:K135)</f>
         <v>337.4</v>
       </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M135" s="5">
+        <f>_xlfn.STDEV.P(B135:K135)</f>
+        <v>13.929824119492681</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>16384000</v>
       </c>
@@ -5407,8 +5805,12 @@
         <f>AVERAGE(B136:K136)</f>
         <v>690.9</v>
       </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M136" s="5">
+        <f>_xlfn.STDEV.P(B136:K136)</f>
+        <v>37.24634210227898</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>32768000</v>
       </c>
@@ -5446,8 +5848,12 @@
         <f>AVERAGE(B137:K137)</f>
         <v>1351.2</v>
       </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M137" s="5">
+        <f>_xlfn.STDEV.P(B137:K137)</f>
+        <v>45.159273687693435</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>65536000</v>
       </c>
@@ -5485,8 +5891,12 @@
         <f>AVERAGE(B138:K138)</f>
         <v>2711</v>
       </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M138" s="5">
+        <f>_xlfn.STDEV.P(B138:K138)</f>
+        <v>77.85499341724973</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B140" t="s">
         <v>2</v>
       </c>
@@ -5518,7 +5928,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>1000</v>
       </c>
@@ -5556,8 +5966,12 @@
         <f>AVERAGE(B141:K141)</f>
         <v>34.1</v>
       </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M141" s="5">
+        <f>_xlfn.STDEV.P(B141:K141)</f>
+        <v>5.9573484034425919</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>2000</v>
       </c>
@@ -5595,8 +6009,12 @@
         <f>AVERAGE(B142:K142)</f>
         <v>31.3</v>
       </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M142" s="5">
+        <f>_xlfn.STDEV.P(B142:K142)</f>
+        <v>7.1700767080973407</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>4000</v>
       </c>
@@ -5634,8 +6052,12 @@
         <f>AVERAGE(B143:K143)</f>
         <v>28</v>
       </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M143" s="5">
+        <f>_xlfn.STDEV.P(B143:K143)</f>
+        <v>6.2609903369994111</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>8000</v>
       </c>
@@ -5673,8 +6095,12 @@
         <f>AVERAGE(B144:K144)</f>
         <v>23.4</v>
       </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M144" s="5">
+        <f>_xlfn.STDEV.P(B144:K144)</f>
+        <v>8.0149859638055503</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>16000</v>
       </c>
@@ -5712,8 +6138,12 @@
         <f>AVERAGE(B145:K145)</f>
         <v>34.299999999999997</v>
       </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M145" s="5">
+        <f>_xlfn.STDEV.P(B145:K145)</f>
+        <v>6.3568860301251267</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>32000</v>
       </c>
@@ -5751,8 +6181,12 @@
         <f>AVERAGE(B146:K146)</f>
         <v>27.9</v>
       </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M146" s="5">
+        <f>_xlfn.STDEV.P(B146:K146)</f>
+        <v>6.4567793829431714</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>64000</v>
       </c>
@@ -5790,8 +6224,12 @@
         <f>AVERAGE(B147:K147)</f>
         <v>28.1</v>
       </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M147" s="5">
+        <f>_xlfn.STDEV.P(B147:K147)</f>
+        <v>9.5441081301502457</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>128000</v>
       </c>
@@ -5829,8 +6267,12 @@
         <f>AVERAGE(B148:K148)</f>
         <v>32.6</v>
       </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M148" s="5">
+        <f>_xlfn.STDEV.P(B148:K148)</f>
+        <v>4.4988887516807967</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>256000</v>
       </c>
@@ -5868,8 +6310,12 @@
         <f>AVERAGE(B149:K149)</f>
         <v>38.799999999999997</v>
       </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M149" s="5">
+        <f>_xlfn.STDEV.P(B149:K149)</f>
+        <v>7.8204859184068605</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>512000</v>
       </c>
@@ -5907,8 +6353,12 @@
         <f>AVERAGE(B150:K150)</f>
         <v>51.7</v>
       </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M150" s="5">
+        <f>_xlfn.STDEV.P(B150:K150)</f>
+        <v>10.139526616169022</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>1024000</v>
       </c>
@@ -5946,8 +6396,12 @@
         <f>AVERAGE(B151:K151)</f>
         <v>76.5</v>
       </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M151" s="5">
+        <f>_xlfn.STDEV.P(B151:K151)</f>
+        <v>13.070960178961606</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>2048000</v>
       </c>
@@ -5985,8 +6439,12 @@
         <f>AVERAGE(B152:K152)</f>
         <v>120.3</v>
       </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M152" s="5">
+        <f>_xlfn.STDEV.P(B152:K152)</f>
+        <v>10.13952661616902</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>4096000</v>
       </c>
@@ -6024,8 +6482,12 @@
         <f>AVERAGE(B153:K153)</f>
         <v>217.2</v>
       </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M153" s="5">
+        <f>_xlfn.STDEV.P(B153:K153)</f>
+        <v>14.971973817770321</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>8192000</v>
       </c>
@@ -6063,8 +6525,12 @@
         <f>AVERAGE(B154:K154)</f>
         <v>387.5</v>
       </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M154" s="5">
+        <f>_xlfn.STDEV.P(B154:K154)</f>
+        <v>19.464069461446133</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>16384000</v>
       </c>
@@ -6102,8 +6568,12 @@
         <f>AVERAGE(B155:K155)</f>
         <v>764.2</v>
       </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M155" s="5">
+        <f>_xlfn.STDEV.P(B155:K155)</f>
+        <v>28.244645510255566</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>32768000</v>
       </c>
@@ -6141,8 +6611,12 @@
         <f>AVERAGE(B156:K156)</f>
         <v>1431.3</v>
       </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M156" s="5">
+        <f>_xlfn.STDEV.P(B156:K156)</f>
+        <v>40.020119939850254</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>65536000</v>
       </c>
@@ -6180,8 +6654,12 @@
         <f>AVERAGE(B157:K157)</f>
         <v>2779.7</v>
       </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M157" s="5">
+        <f>_xlfn.STDEV.P(B157:K157)</f>
+        <v>70.887304928315615</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B159" t="s">
         <v>3</v>
       </c>
@@ -6213,7 +6691,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>1000</v>
       </c>
@@ -6251,8 +6729,12 @@
         <f>AVERAGE(B160:K160)</f>
         <v>41.8</v>
       </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M160" s="5">
+        <f>_xlfn.STDEV.P(B160:K160)</f>
+        <v>7.5471849056452829</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>2000</v>
       </c>
@@ -6290,8 +6772,12 @@
         <f>AVERAGE(B161:K161)</f>
         <v>34.4</v>
       </c>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M161" s="5">
+        <f>_xlfn.STDEV.P(B161:K161)</f>
+        <v>6.3118935352237999</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>4000</v>
       </c>
@@ -6329,8 +6815,12 @@
         <f>AVERAGE(B162:K162)</f>
         <v>42.2</v>
       </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M162" s="5">
+        <f>_xlfn.STDEV.P(B162:K162)</f>
+        <v>7.3321211119293439</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>8000</v>
       </c>
@@ -6368,8 +6858,12 @@
         <f>AVERAGE(B163:K163)</f>
         <v>35.799999999999997</v>
       </c>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M163" s="5">
+        <f>_xlfn.STDEV.P(B163:K163)</f>
+        <v>7.3321211119293439</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>16000</v>
       </c>
@@ -6407,8 +6901,12 @@
         <f>AVERAGE(B164:K164)</f>
         <v>40.6</v>
       </c>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M164" s="5">
+        <f>_xlfn.STDEV.P(B164:K164)</f>
+        <v>10.613199329137279</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>32000</v>
       </c>
@@ -6446,8 +6944,12 @@
         <f>AVERAGE(B165:K165)</f>
         <v>32.799999999999997</v>
       </c>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M165" s="5">
+        <f>_xlfn.STDEV.P(B165:K165)</f>
+        <v>5.0754310161798086</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>64000</v>
       </c>
@@ -6485,8 +6987,12 @@
         <f>AVERAGE(B166:K166)</f>
         <v>40.5</v>
       </c>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M166" s="5">
+        <f>_xlfn.STDEV.P(B166:K166)</f>
+        <v>10.566456359631644</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>128000</v>
       </c>
@@ -6524,8 +7030,12 @@
         <f>AVERAGE(B167:K167)</f>
         <v>37</v>
       </c>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M167" s="5">
+        <f>_xlfn.STDEV.P(B167:K167)</f>
+        <v>7.9749608149507543</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>256000</v>
       </c>
@@ -6563,8 +7073,12 @@
         <f>AVERAGE(B168:K168)</f>
         <v>42.4</v>
       </c>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M168" s="5">
+        <f>_xlfn.STDEV.P(B168:K168)</f>
+        <v>7.0313583324987778</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>512000</v>
       </c>
@@ -6602,8 +7116,12 @@
         <f>AVERAGE(B169:K169)</f>
         <v>51.4</v>
       </c>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M169" s="5">
+        <f>_xlfn.STDEV.P(B169:K169)</f>
+        <v>7.1860976892886725</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>1024000</v>
       </c>
@@ -6641,8 +7159,12 @@
         <f>AVERAGE(B170:K170)</f>
         <v>65.8</v>
       </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M170" s="5">
+        <f>_xlfn.STDEV.P(B170:K170)</f>
+        <v>6.6302337817003103</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>2048000</v>
       </c>
@@ -6680,8 +7202,12 @@
         <f>AVERAGE(B171:K171)</f>
         <v>99.7</v>
       </c>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M171" s="5">
+        <f>_xlfn.STDEV.P(B171:K171)</f>
+        <v>10.440785411069418</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>4096000</v>
       </c>
@@ -6719,8 +7245,12 @@
         <f>AVERAGE(B172:K172)</f>
         <v>159.80000000000001</v>
       </c>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M172" s="5">
+        <f>_xlfn.STDEV.P(B172:K172)</f>
+        <v>9.2498648638777414</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>8192000</v>
       </c>
@@ -6758,8 +7288,12 @@
         <f>AVERAGE(B173:K173)</f>
         <v>282.60000000000002</v>
       </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M173" s="5">
+        <f>_xlfn.STDEV.P(B173:K173)</f>
+        <v>14.465130486794786</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>16384000</v>
       </c>
@@ -6797,8 +7331,12 @@
         <f>AVERAGE(B174:K174)</f>
         <v>534.5</v>
       </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M174" s="5">
+        <f>_xlfn.STDEV.P(B174:K174)</f>
+        <v>23.959340558537914</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>32768000</v>
       </c>
@@ -6836,8 +7374,12 @@
         <f>AVERAGE(B175:K175)</f>
         <v>1027.9000000000001</v>
       </c>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M175" s="5">
+        <f>_xlfn.STDEV.P(B175:K175)</f>
+        <v>79.671136555216776</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>65536000</v>
       </c>
@@ -6875,8 +7417,12 @@
         <f>AVERAGE(B176:K176)</f>
         <v>1892.2</v>
       </c>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M176" s="5">
+        <f>_xlfn.STDEV.P(B176:K176)</f>
+        <v>95.770350317830633</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B178" t="s">
         <v>4</v>
       </c>
@@ -6908,7 +7454,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>1000</v>
       </c>
@@ -6946,8 +7492,12 @@
         <f>AVERAGE(B179:K179)</f>
         <v>65.5</v>
       </c>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M179" s="5">
+        <f>_xlfn.STDEV.P(B179:K179)</f>
+        <v>6.2649820430708338</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>2000</v>
       </c>
@@ -6985,8 +7535,12 @@
         <f>AVERAGE(B180:K180)</f>
         <v>62.3</v>
       </c>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M180" s="5">
+        <f>_xlfn.STDEV.P(B180:K180)</f>
+        <v>0.45825756949558394</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>4000</v>
       </c>
@@ -7024,8 +7578,12 @@
         <f>AVERAGE(B181:K181)</f>
         <v>64.2</v>
       </c>
-    </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M181" s="5">
+        <f>_xlfn.STDEV.P(B181:K181)</f>
+        <v>4.9558046773455464</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>8000</v>
       </c>
@@ -7063,8 +7621,12 @@
         <f>AVERAGE(B182:K182)</f>
         <v>60.8</v>
       </c>
-    </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M182" s="5">
+        <f>_xlfn.STDEV.P(B182:K182)</f>
+        <v>4.6432747064975599</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>16000</v>
       </c>
@@ -7102,8 +7664,12 @@
         <f>AVERAGE(B183:K183)</f>
         <v>62.7</v>
       </c>
-    </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M183" s="5">
+        <f>_xlfn.STDEV.P(B183:K183)</f>
+        <v>7.1700767080973407</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>32000</v>
       </c>
@@ -7141,8 +7707,12 @@
         <f>AVERAGE(B184:K184)</f>
         <v>66.900000000000006</v>
       </c>
-    </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M184" s="5">
+        <f>_xlfn.STDEV.P(B184:K184)</f>
+        <v>7.2725511342306834</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>64000</v>
       </c>
@@ -7180,8 +7750,12 @@
         <f>AVERAGE(B185:K185)</f>
         <v>65.8</v>
       </c>
-    </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M185" s="5">
+        <f>_xlfn.STDEV.P(B185:K185)</f>
+        <v>15.458331087151679</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>128000</v>
       </c>
@@ -7219,8 +7793,12 @@
         <f>AVERAGE(B186:K186)</f>
         <v>67.5</v>
       </c>
-    </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M186" s="5">
+        <f>_xlfn.STDEV.P(B186:K186)</f>
+        <v>10.707474025184466</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>256000</v>
       </c>
@@ -7258,8 +7836,12 @@
         <f>AVERAGE(B187:K187)</f>
         <v>70</v>
       </c>
-    </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M187" s="5">
+        <f>_xlfn.STDEV.P(B187:K187)</f>
+        <v>10.742439201596628</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>512000</v>
       </c>
@@ -7297,8 +7879,12 @@
         <f>AVERAGE(B188:K188)</f>
         <v>73.5</v>
       </c>
-    </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M188" s="5">
+        <f>_xlfn.STDEV.P(B188:K188)</f>
+        <v>10.239628899525608</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>1024000</v>
       </c>
@@ -7336,8 +7922,12 @@
         <f>AVERAGE(B189:K189)</f>
         <v>90.6</v>
       </c>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M189" s="5">
+        <f>_xlfn.STDEV.P(B189:K189)</f>
+        <v>6.3277168078225499</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>2048000</v>
       </c>
@@ -7375,8 +7965,12 @@
         <f>AVERAGE(B190:K190)</f>
         <v>109.2</v>
       </c>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M190" s="5">
+        <f>_xlfn.STDEV.P(B190:K190)</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>4096000</v>
       </c>
@@ -7414,8 +8008,12 @@
         <f>AVERAGE(B191:K191)</f>
         <v>159.30000000000001</v>
       </c>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M191" s="5">
+        <f>_xlfn.STDEV.P(B191:K191)</f>
+        <v>6.6189122973491648</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>8192000</v>
       </c>
@@ -7453,8 +8051,12 @@
         <f>AVERAGE(B191:K192)</f>
         <v>207.75</v>
       </c>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M192" s="5">
+        <f>_xlfn.STDEV.P(B192:K192)</f>
+        <v>7.5999999999999988</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>16384000</v>
       </c>
@@ -7492,8 +8094,12 @@
         <f>AVERAGE(B193:K193)</f>
         <v>484.5</v>
       </c>
-    </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M193" s="5">
+        <f>_xlfn.STDEV.P(B193:K193)</f>
+        <v>47.950495305053941</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>32768000</v>
       </c>
@@ -7531,8 +8137,12 @@
         <f>AVERAGE(B194:K194)</f>
         <v>867.3</v>
       </c>
-    </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M194" s="5">
+        <f>_xlfn.STDEV.P(B194:K194)</f>
+        <v>23.439496581624784</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>65536000</v>
       </c>
@@ -7570,8 +8180,12 @@
         <f>AVERAGE(B195:K195)</f>
         <v>1645.3</v>
       </c>
-    </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M195" s="5">
+        <f>_xlfn.STDEV.P(B195:K195)</f>
+        <v>30.594280511232814</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B197" t="s">
         <v>5</v>
       </c>
@@ -7603,7 +8217,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>1000</v>
       </c>
@@ -7641,8 +8255,12 @@
         <f>AVERAGE(B198:K198)</f>
         <v>120.2</v>
       </c>
-    </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M198" s="5">
+        <f>_xlfn.STDEV.P(B198:K198)</f>
+        <v>6.9108610172683989</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>2000</v>
       </c>
@@ -7680,8 +8298,12 @@
         <f>AVERAGE(B199:K199)</f>
         <v>118.7</v>
       </c>
-    </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M199" s="5">
+        <f>_xlfn.STDEV.P(B199:K199)</f>
+        <v>7.7207512587830465</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>4000</v>
       </c>
@@ -7719,8 +8341,12 @@
         <f>AVERAGE(B200:K200)</f>
         <v>122</v>
       </c>
-    </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M200" s="5">
+        <f>_xlfn.STDEV.P(B200:K200)</f>
+        <v>6.2769419305900858</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>8000</v>
       </c>
@@ -7758,8 +8384,12 @@
         <f>AVERAGE(B201:K201)</f>
         <v>124.9</v>
       </c>
-    </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M201" s="5">
+        <f>_xlfn.STDEV.P(B201:K201)</f>
+        <v>7.1756532803640951</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>16000</v>
       </c>
@@ -7797,8 +8427,12 @@
         <f>AVERAGE(B202:K202)</f>
         <v>120.4</v>
       </c>
-    </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M202" s="5">
+        <f>_xlfn.STDEV.P(B202:K202)</f>
+        <v>9.891410415102591</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>32000</v>
       </c>
@@ -7836,8 +8470,12 @@
         <f>AVERAGE(B203:K203)</f>
         <v>123.4</v>
       </c>
-    </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M203" s="5">
+        <f>_xlfn.STDEV.P(B203:K203)</f>
+        <v>8.2607505712253531</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>64000</v>
       </c>
@@ -7875,8 +8513,12 @@
         <f>AVERAGE(B204:K204)</f>
         <v>121.9</v>
       </c>
-    </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M204" s="5">
+        <f>_xlfn.STDEV.P(B204:K204)</f>
+        <v>11.484337159801607</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>128000</v>
       </c>
@@ -7914,8 +8556,12 @@
         <f>AVERAGE(B205:K205)</f>
         <v>128.1</v>
       </c>
-    </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M205" s="5">
+        <f>_xlfn.STDEV.P(B205:K205)</f>
+        <v>18.080099557248019</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>256000</v>
       </c>
@@ -7953,8 +8599,12 @@
         <f>AVERAGE(B206:K206)</f>
         <v>128.1</v>
       </c>
-    </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M206" s="5">
+        <f>_xlfn.STDEV.P(B206:K206)</f>
+        <v>6.4876806333234365</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>512000</v>
       </c>
@@ -7992,8 +8642,12 @@
         <f>AVERAGE(B207:K207)</f>
         <v>132.6</v>
       </c>
-    </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M207" s="5">
+        <f>_xlfn.STDEV.P(B207:K207)</f>
+        <v>10.287856919689348</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>1024000</v>
       </c>
@@ -8031,8 +8685,12 @@
         <f>AVERAGE(B208:K208)</f>
         <v>138.80000000000001</v>
       </c>
-    </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M208" s="5">
+        <f>_xlfn.STDEV.P(B208:K208)</f>
+        <v>8.1461647417665191</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>2048000</v>
       </c>
@@ -8070,8 +8728,12 @@
         <f>AVERAGE(B209:K209)</f>
         <v>164</v>
       </c>
-    </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M209" s="5">
+        <f>_xlfn.STDEV.P(B209:K209)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>4096000</v>
       </c>
@@ -8109,8 +8771,12 @@
         <f>AVERAGE(B210:K210)</f>
         <v>214</v>
       </c>
-    </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M210" s="5">
+        <f>_xlfn.STDEV.P(B210:K210)</f>
+        <v>9.8590060350929907</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>8192000</v>
       </c>
@@ -8148,8 +8814,12 @@
         <f>AVERAGE(B211:K211)</f>
         <v>309.2</v>
       </c>
-    </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M211" s="5">
+        <f>_xlfn.STDEV.P(B211:K211)</f>
+        <v>6.6151341634164913</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>16384000</v>
       </c>
@@ -8187,8 +8857,12 @@
         <f>AVERAGE(B212:K212)</f>
         <v>513.79999999999995</v>
       </c>
-    </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M212" s="5">
+        <f>_xlfn.STDEV.P(B212:K212)</f>
+        <v>18.389127222356148</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>32768000</v>
       </c>
@@ -8226,8 +8900,12 @@
         <f>AVERAGE(B213:K213)</f>
         <v>902.9</v>
       </c>
-    </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M213" s="5">
+        <f>_xlfn.STDEV.P(B213:K213)</f>
+        <v>25.878369345845574</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>65536000</v>
       </c>
@@ -8265,8 +8943,12 @@
         <f>AVERAGE(B214:K214)</f>
         <v>1695.1</v>
       </c>
-    </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M214" s="5">
+        <f>_xlfn.STDEV.P(B214:K214)</f>
+        <v>28.486663546298296</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B216" t="s">
         <v>6</v>
       </c>
@@ -8298,7 +8980,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>1000</v>
       </c>
@@ -8336,8 +9018,12 @@
         <f>AVERAGE(B217:K217)</f>
         <v>241.9</v>
       </c>
-    </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M217" s="5">
+        <f>_xlfn.STDEV.P(B217:K217)</f>
+        <v>10.222035022440492</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>2000</v>
       </c>
@@ -8375,8 +9061,12 @@
         <f>AVERAGE(B218:K218)</f>
         <v>248.7</v>
       </c>
-    </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M218" s="5">
+        <f>_xlfn.STDEV.P(B218:K218)</f>
+        <v>17.855251328390761</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>4000</v>
       </c>
@@ -8414,8 +9104,12 @@
         <f>AVERAGE(B219:K219)</f>
         <v>249.9</v>
       </c>
-    </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M219" s="5">
+        <f>_xlfn.STDEV.P(B219:K219)</f>
+        <v>17.166537216340398</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>8000</v>
       </c>
@@ -8453,8 +9147,12 @@
         <f>AVERAGE(B220:K220)</f>
         <v>253</v>
       </c>
-    </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M220" s="5">
+        <f>_xlfn.STDEV.P(B220:K220)</f>
+        <v>15.316657598836633</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>16000</v>
       </c>
@@ -8492,8 +9190,12 @@
         <f>AVERAGE(B221:K221)</f>
         <v>250.2</v>
       </c>
-    </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M221" s="5">
+        <f>_xlfn.STDEV.P(B221:K221)</f>
+        <v>14.091131963046831</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>32000</v>
       </c>
@@ -8531,8 +9233,12 @@
         <f>AVERAGE(B222:K222)</f>
         <v>251.2</v>
       </c>
-    </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M222" s="5">
+        <f>_xlfn.STDEV.P(B222:K222)</f>
+        <v>16.557777628655362</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>64000</v>
       </c>
@@ -8570,8 +9276,12 @@
         <f>AVERAGE(B223:K223)</f>
         <v>248.5</v>
       </c>
-    </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M223" s="5">
+        <f>_xlfn.STDEV.P(B223:K223)</f>
+        <v>14.150971698084906</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>128000</v>
       </c>
@@ -8609,8 +9319,12 @@
         <f>AVERAGE(B224:K224)</f>
         <v>242.4</v>
       </c>
-    </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M224" s="5">
+        <f>_xlfn.STDEV.P(B224:K224)</f>
+        <v>14.650597257449951</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>256000</v>
       </c>
@@ -8648,8 +9362,12 @@
         <f>AVERAGE(B225:K225)</f>
         <v>245.4</v>
       </c>
-    </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M225" s="5">
+        <f>_xlfn.STDEV.P(B225:K225)</f>
+        <v>14.029967925836466</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>512000</v>
       </c>
@@ -8687,8 +9405,12 @@
         <f>AVERAGE(B226:K226)</f>
         <v>248.1</v>
       </c>
-    </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M226" s="5">
+        <f>_xlfn.STDEV.P(B226:K226)</f>
+        <v>14.535817830449032</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>1024000</v>
       </c>
@@ -8726,8 +9448,12 @@
         <f>AVERAGE(B227:K227)</f>
         <v>259.10000000000002</v>
       </c>
-    </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M227" s="5">
+        <f>_xlfn.STDEV.P(B227:K227)</f>
+        <v>7.854298186343577</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>2048000</v>
       </c>
@@ -8765,8 +9491,12 @@
         <f>AVERAGE(B228:K228)</f>
         <v>276.5</v>
       </c>
-    </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M228" s="5">
+        <f>_xlfn.STDEV.P(B228:K228)</f>
+        <v>12.10991329448729</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>4096000</v>
       </c>
@@ -8804,8 +9534,12 @@
         <f>AVERAGE(B229:K229)</f>
         <v>323.2</v>
       </c>
-    </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M229" s="5">
+        <f>_xlfn.STDEV.P(B229:K229)</f>
+        <v>12.391932859727735</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>8192000</v>
       </c>
@@ -8843,8 +9577,12 @@
         <f>AVERAGE(B230:K230)</f>
         <v>409.1</v>
       </c>
-    </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M230" s="5">
+        <f>_xlfn.STDEV.P(B230:K230)</f>
+        <v>9.4810336989170114</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>16384000</v>
       </c>
@@ -8882,8 +9620,12 @@
         <f>AVERAGE(B231:K231)</f>
         <v>611</v>
       </c>
-    </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M231" s="5">
+        <f>_xlfn.STDEV.P(B231:K231)</f>
+        <v>10.723805294763608</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>32768000</v>
       </c>
@@ -8921,8 +9663,12 @@
         <f>AVERAGE(B232:K232)</f>
         <v>996.9</v>
       </c>
-    </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M232" s="5">
+        <f>_xlfn.STDEV.P(B232:K232)</f>
+        <v>32.206986819632789</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>65536000</v>
       </c>
@@ -8960,8 +9706,12 @@
         <f>AVERAGE(B233:K233)</f>
         <v>1792.4</v>
       </c>
-    </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M233" s="5">
+        <f>_xlfn.STDEV.P(B233:K233)</f>
+        <v>34.25551050561063</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B234" t="s">
         <v>0</v>
       </c>
@@ -8993,7 +9743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B235" t="s">
         <v>8</v>
       </c>
@@ -9025,7 +9775,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>1000</v>
       </c>
@@ -9063,8 +9813,12 @@
         <f>AVERAGE(B236:K236)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M236" s="5">
+        <f>_xlfn.STDEV.P(B236:K236)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>2000</v>
       </c>
@@ -9102,8 +9856,12 @@
         <f>AVERAGE(B237:K237)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M237" s="5">
+        <f>_xlfn.STDEV.P(B237:K237)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>4000</v>
       </c>
@@ -9141,8 +9899,12 @@
         <f>AVERAGE(B238:K238)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M238" s="5">
+        <f>_xlfn.STDEV.P(B238:K238)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>8000</v>
       </c>
@@ -9180,8 +9942,12 @@
         <f>AVERAGE(B239:K239)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M239" s="5">
+        <f>_xlfn.STDEV.P(B239:K239)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>16000</v>
       </c>
@@ -9219,8 +9985,12 @@
         <f>AVERAGE(B240:K240)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M240" s="5">
+        <f>_xlfn.STDEV.P(B240:K240)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>32000</v>
       </c>
@@ -9258,8 +10028,12 @@
         <f>AVERAGE(B241:K241)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M241" s="5">
+        <f>_xlfn.STDEV.P(B241:K241)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>64000</v>
       </c>
@@ -9297,8 +10071,12 @@
         <f>AVERAGE(B242:K242)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M242" s="5">
+        <f>_xlfn.STDEV.P(B242:K242)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>128000</v>
       </c>
@@ -9336,8 +10114,12 @@
         <f>AVERAGE(B243:K243)</f>
         <v>3.2</v>
       </c>
-    </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M243" s="5">
+        <f>_xlfn.STDEV.P(B243:K243)</f>
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>256000</v>
       </c>
@@ -9375,8 +10157,12 @@
         <f>AVERAGE(B244:K244)</f>
         <v>10.9</v>
       </c>
-    </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M244" s="5">
+        <f>_xlfn.STDEV.P(B244:K244)</f>
+        <v>7.1617037079175514</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>512000</v>
       </c>
@@ -9414,8 +10200,12 @@
         <f>AVERAGE(B245:K245)</f>
         <v>20.6</v>
       </c>
-    </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M245" s="5">
+        <f>_xlfn.STDEV.P(B245:K245)</f>
+        <v>7.2553428588868218</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>1024000</v>
       </c>
@@ -9453,8 +10243,12 @@
         <f>AVERAGE(B246:K246)</f>
         <v>40.200000000000003</v>
       </c>
-    </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M246" s="5">
+        <f>_xlfn.STDEV.P(B246:K246)</f>
+        <v>7.7304592360350748</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>2048000</v>
       </c>
@@ -9492,8 +10286,12 @@
         <f>AVERAGE(B247:K247)</f>
         <v>79.7</v>
       </c>
-    </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M247" s="5">
+        <f>_xlfn.STDEV.P(B247:K247)</f>
+        <v>4.7759815745038221</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>4096000</v>
       </c>
@@ -9531,8 +10329,12 @@
         <f>AVERAGE(B248:K248)</f>
         <v>163.80000000000001</v>
       </c>
-    </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M248" s="5">
+        <f>_xlfn.STDEV.P(B248:K248)</f>
+        <v>8.0224684480526314</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>8192000</v>
       </c>
@@ -9570,8 +10372,12 @@
         <f>AVERAGE(B249:K249)</f>
         <v>337.4</v>
       </c>
-    </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M249" s="5">
+        <f>_xlfn.STDEV.P(B249:K249)</f>
+        <v>7.6837490849194188</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>16384000</v>
       </c>
@@ -9609,8 +10415,12 @@
         <f>AVERAGE(B250:K250)</f>
         <v>690.6</v>
       </c>
-    </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M250" s="5">
+        <f>_xlfn.STDEV.P(B250:K250)</f>
+        <v>31.299201267764008</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>32768000</v>
       </c>
@@ -9648,8 +10458,12 @@
         <f>AVERAGE(B251:K251)</f>
         <v>1351.8</v>
       </c>
-    </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M251" s="5">
+        <f>_xlfn.STDEV.P(B251:K251)</f>
+        <v>51.429174599637513</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>65536000</v>
       </c>
@@ -9687,8 +10501,12 @@
         <f>AVERAGE(B252:K252)</f>
         <v>2715.9</v>
       </c>
-    </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M252" s="5">
+        <f>_xlfn.STDEV.P(B252:K252)</f>
+        <v>87.932303506731813</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B254" t="s">
         <v>2</v>
       </c>
@@ -9720,7 +10538,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>1000</v>
       </c>
@@ -9758,8 +10576,12 @@
         <f>AVERAGE(B255:K255)</f>
         <v>34</v>
       </c>
-    </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M255" s="5">
+        <f>_xlfn.STDEV.P(B255:K255)</f>
+        <v>6.2609903369994111</v>
+      </c>
+    </row>
+    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>2000</v>
       </c>
@@ -9797,8 +10619,12 @@
         <f>AVERAGE(B256:K256)</f>
         <v>32.9</v>
       </c>
-    </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M256" s="5">
+        <f>_xlfn.STDEV.P(B256:K256)</f>
+        <v>8.5726308680591163</v>
+      </c>
+    </row>
+    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>4000</v>
       </c>
@@ -9836,8 +10662,12 @@
         <f>AVERAGE(B257:K257)</f>
         <v>28</v>
       </c>
-    </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M257" s="5">
+        <f>_xlfn.STDEV.P(B257:K257)</f>
+        <v>6.2769419305900858</v>
+      </c>
+    </row>
+    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>8000</v>
       </c>
@@ -9875,8 +10705,12 @@
         <f>AVERAGE(B258:K258)</f>
         <v>31.4</v>
       </c>
-    </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M258" s="5">
+        <f>_xlfn.STDEV.P(B258:K258)</f>
+        <v>6.7260686883200949</v>
+      </c>
+    </row>
+    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>16000</v>
       </c>
@@ -9914,8 +10748,12 @@
         <f>AVERAGE(B259:K259)</f>
         <v>31.1</v>
       </c>
-    </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M259" s="5">
+        <f>_xlfn.STDEV.P(B259:K259)</f>
+        <v>7.1617037079175514</v>
+      </c>
+    </row>
+    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>32000</v>
       </c>
@@ -9953,8 +10791,12 @@
         <f>AVERAGE(B260:K260)</f>
         <v>29.7</v>
       </c>
-    </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M260" s="5">
+        <f>_xlfn.STDEV.P(B260:K260)</f>
+        <v>4.920365840057018</v>
+      </c>
+    </row>
+    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>64000</v>
       </c>
@@ -9992,8 +10834,12 @@
         <f>AVERAGE(B261:K261)</f>
         <v>32.700000000000003</v>
       </c>
-    </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M261" s="5">
+        <f>_xlfn.STDEV.P(B261:K261)</f>
+        <v>4.7759815745038212</v>
+      </c>
+    </row>
+    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>128000</v>
       </c>
@@ -10031,8 +10877,12 @@
         <f>AVERAGE(B262:K262)</f>
         <v>36</v>
       </c>
-    </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M262" s="5">
+        <f>_xlfn.STDEV.P(B262:K262)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>256000</v>
       </c>
@@ -10070,8 +10920,12 @@
         <f>AVERAGE(B263:K263)</f>
         <v>40.6</v>
       </c>
-    </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M263" s="5">
+        <f>_xlfn.STDEV.P(B263:K263)</f>
+        <v>7.6446059414465566</v>
+      </c>
+    </row>
+    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>512000</v>
       </c>
@@ -10109,8 +10963,12 @@
         <f>AVERAGE(B264:K264)</f>
         <v>53.3</v>
       </c>
-    </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M264" s="5">
+        <f>_xlfn.STDEV.P(B264:K264)</f>
+        <v>7.7207512587830465</v>
+      </c>
+    </row>
+    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>1024000</v>
       </c>
@@ -10148,8 +11006,12 @@
         <f>AVERAGE(B265:K265)</f>
         <v>71.900000000000006</v>
       </c>
-    </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M265" s="5">
+        <f>_xlfn.STDEV.P(B265:K265)</f>
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>2048000</v>
       </c>
@@ -10187,8 +11049,12 @@
         <f>AVERAGE(B266:K266)</f>
         <v>123.2</v>
       </c>
-    </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M266" s="5">
+        <f>_xlfn.STDEV.P(B266:K266)</f>
+        <v>8.4118963379252367</v>
+      </c>
+    </row>
+    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>4096000</v>
       </c>
@@ -10226,8 +11092,12 @@
         <f>AVERAGE(B267:K267)</f>
         <v>215.6</v>
       </c>
-    </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M267" s="5">
+        <f>_xlfn.STDEV.P(B267:K267)</f>
+        <v>11.791522378386938</v>
+      </c>
+    </row>
+    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>8192000</v>
       </c>
@@ -10265,8 +11135,12 @@
         <f>AVERAGE(B268:K268)</f>
         <v>392.4</v>
       </c>
-    </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M268" s="5">
+        <f>_xlfn.STDEV.P(B268:K268)</f>
+        <v>17.754999295972951</v>
+      </c>
+    </row>
+    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>16384000</v>
       </c>
@@ -10304,8 +11178,12 @@
         <f>AVERAGE(B269:K269)</f>
         <v>756.1</v>
       </c>
-    </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M269" s="5">
+        <f>_xlfn.STDEV.P(B269:K269)</f>
+        <v>28.720898314641904</v>
+      </c>
+    </row>
+    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>32768000</v>
       </c>
@@ -10343,8 +11221,12 @@
         <f>AVERAGE(B270:K270)</f>
         <v>1429.6</v>
       </c>
-    </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M270" s="5">
+        <f>_xlfn.STDEV.P(B270:K270)</f>
+        <v>35.114669299311366</v>
+      </c>
+    </row>
+    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>65536000</v>
       </c>
@@ -10382,8 +11264,12 @@
         <f>AVERAGE(B271:K271)</f>
         <v>2759.3</v>
       </c>
-    </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M271" s="5">
+        <f>_xlfn.STDEV.P(B271:K271)</f>
+        <v>70.359150080142385</v>
+      </c>
+    </row>
+    <row r="273" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B273" t="s">
         <v>3</v>
       </c>
@@ -10415,7 +11301,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>1000</v>
       </c>
@@ -10453,8 +11339,12 @@
         <f>AVERAGE(B274:K274)</f>
         <v>42.2</v>
       </c>
-    </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M274" s="5">
+        <f>_xlfn.STDEV.P(B274:K274)</f>
+        <v>7.3457470688827833</v>
+      </c>
+    </row>
+    <row r="275" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>2000</v>
       </c>
@@ -10492,8 +11382,12 @@
         <f>AVERAGE(B275:K275)</f>
         <v>40.4</v>
       </c>
-    </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M275" s="5">
+        <f>_xlfn.STDEV.P(B275:K275)</f>
+        <v>7.6967525619575428</v>
+      </c>
+    </row>
+    <row r="276" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>4000</v>
       </c>
@@ -10531,8 +11425,12 @@
         <f>AVERAGE(B276:K276)</f>
         <v>39.299999999999997</v>
       </c>
-    </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M276" s="5">
+        <f>_xlfn.STDEV.P(B276:K276)</f>
+        <v>7.7077882690172537</v>
+      </c>
+    </row>
+    <row r="277" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>8000</v>
       </c>
@@ -10570,8 +11468,12 @@
         <f>AVERAGE(B277:K277)</f>
         <v>36</v>
       </c>
-    </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M277" s="5">
+        <f>_xlfn.STDEV.P(B277:K277)</f>
+        <v>7.2111025509279782</v>
+      </c>
+    </row>
+    <row r="278" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>16000</v>
       </c>
@@ -10609,8 +11511,12 @@
         <f>AVERAGE(B278:K278)</f>
         <v>35.9</v>
       </c>
-    </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M278" s="5">
+        <f>_xlfn.STDEV.P(B278:K278)</f>
+        <v>7.0632853545641208</v>
+      </c>
+    </row>
+    <row r="279" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>32000</v>
       </c>
@@ -10648,8 +11554,12 @@
         <f>AVERAGE(B279:K279)</f>
         <v>38.9</v>
       </c>
-    </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M279" s="5">
+        <f>_xlfn.STDEV.P(B279:K279)</f>
+        <v>7.9050616695886697</v>
+      </c>
+    </row>
+    <row r="280" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>64000</v>
       </c>
@@ -10687,8 +11597,12 @@
         <f>AVERAGE(B280:K280)</f>
         <v>34.4</v>
       </c>
-    </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M280" s="5">
+        <f>_xlfn.STDEV.P(B280:K280)</f>
+        <v>6.3118935352237999</v>
+      </c>
+    </row>
+    <row r="281" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>128000</v>
       </c>
@@ -10726,8 +11640,12 @@
         <f>AVERAGE(B281:K281)</f>
         <v>39.1</v>
       </c>
-    </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M281" s="5">
+        <f>_xlfn.STDEV.P(B281:K281)</f>
+        <v>7.712976079309465</v>
+      </c>
+    </row>
+    <row r="282" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>256000</v>
       </c>
@@ -10765,8 +11683,12 @@
         <f>AVERAGE(B282:K282)</f>
         <v>38.6</v>
       </c>
-    </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M282" s="5">
+        <f>_xlfn.STDEV.P(B282:K282)</f>
+        <v>8.0149859638055503</v>
+      </c>
+    </row>
+    <row r="283" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>512000</v>
       </c>
@@ -10804,8 +11726,12 @@
         <f>AVERAGE(B283:K283)</f>
         <v>47</v>
       </c>
-    </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M283" s="5">
+        <f>_xlfn.STDEV.P(B283:K283)</f>
+        <v>0.44721359549995793</v>
+      </c>
+    </row>
+    <row r="284" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>1024000</v>
       </c>
@@ -10843,8 +11769,12 @@
         <f>AVERAGE(B284:K284)</f>
         <v>70.099999999999994</v>
       </c>
-    </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M284" s="5">
+        <f>_xlfn.STDEV.P(B284:K284)</f>
+        <v>7.9177016867270265</v>
+      </c>
+    </row>
+    <row r="285" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>2048000</v>
       </c>
@@ -10882,8 +11812,12 @@
         <f>AVERAGE(B285:K285)</f>
         <v>95.2</v>
       </c>
-    </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M285" s="5">
+        <f>_xlfn.STDEV.P(B285:K285)</f>
+        <v>4.6216880033165371</v>
+      </c>
+    </row>
+    <row r="286" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>4096000</v>
       </c>
@@ -10921,8 +11855,12 @@
         <f>AVERAGE(B286:K286)</f>
         <v>165.4</v>
       </c>
-    </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M286" s="5">
+        <f>_xlfn.STDEV.P(B286:K286)</f>
+        <v>10.499523798725351</v>
+      </c>
+    </row>
+    <row r="287" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>8192000</v>
       </c>
@@ -10960,8 +11898,12 @@
         <f>AVERAGE(B287:K287)</f>
         <v>292.10000000000002</v>
       </c>
-    </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M287" s="5">
+        <f>_xlfn.STDEV.P(B287:K287)</f>
+        <v>21.965655009582573</v>
+      </c>
+    </row>
+    <row r="288" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>16384000</v>
       </c>
@@ -10999,8 +11941,12 @@
         <f>AVERAGE(B288:K288)</f>
         <v>532.70000000000005</v>
       </c>
-    </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M288" s="5">
+        <f>_xlfn.STDEV.P(B288:K288)</f>
+        <v>24.674075463935832</v>
+      </c>
+    </row>
+    <row r="289" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>32768000</v>
       </c>
@@ -11038,8 +11984,12 @@
         <f>AVERAGE(B289:K289)</f>
         <v>1001.7</v>
       </c>
-    </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M289" s="5">
+        <f>_xlfn.STDEV.P(B289:K289)</f>
+        <v>41.978685067543502</v>
+      </c>
+    </row>
+    <row r="290" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>65536000</v>
       </c>
@@ -11077,8 +12027,12 @@
         <f>AVERAGE(B290:K290)</f>
         <v>1859.2</v>
       </c>
-    </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M290" s="5">
+        <f>_xlfn.STDEV.P(B290:K290)</f>
+        <v>93.817695558993577</v>
+      </c>
+    </row>
+    <row r="292" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B292" t="s">
         <v>4</v>
       </c>
@@ -11110,7 +12064,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>1000</v>
       </c>
@@ -11148,8 +12102,12 @@
         <f>AVERAGE(B293:K293)</f>
         <v>63.9</v>
       </c>
-    </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M293" s="5">
+        <f>_xlfn.STDEV.P(B293:K293)</f>
+        <v>4.3920382511995495</v>
+      </c>
+    </row>
+    <row r="294" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>2000</v>
       </c>
@@ -11187,8 +12145,12 @@
         <f>AVERAGE(B294:K294)</f>
         <v>64.2</v>
       </c>
-    </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M294" s="5">
+        <f>_xlfn.STDEV.P(B294:K294)</f>
+        <v>4.6216880033165362</v>
+      </c>
+    </row>
+    <row r="295" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>4000</v>
       </c>
@@ -11226,8 +12188,12 @@
         <f>AVERAGE(B295:K295)</f>
         <v>59.3</v>
       </c>
-    </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M295" s="5">
+        <f>_xlfn.STDEV.P(B295:K295)</f>
+        <v>6.1652250567193407</v>
+      </c>
+    </row>
+    <row r="296" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>8000</v>
       </c>
@@ -11265,8 +12231,12 @@
         <f>AVERAGE(B296:K296)</f>
         <v>64.2</v>
       </c>
-    </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M296" s="5">
+        <f>_xlfn.STDEV.P(B296:K296)</f>
+        <v>8.1461647417665208</v>
+      </c>
+    </row>
+    <row r="297" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>16000</v>
       </c>
@@ -11304,8 +12274,12 @@
         <f>AVERAGE(B297:K297)</f>
         <v>56.2</v>
       </c>
-    </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M297" s="5">
+        <f>_xlfn.STDEV.P(B297:K297)</f>
+        <v>7.5206382707852661</v>
+      </c>
+    </row>
+    <row r="298" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>32000</v>
       </c>
@@ -11343,8 +12317,12 @@
         <f>AVERAGE(B298:K298)</f>
         <v>64.2</v>
       </c>
-    </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M298" s="5">
+        <f>_xlfn.STDEV.P(B298:K298)</f>
+        <v>4.643274706497559</v>
+      </c>
+    </row>
+    <row r="299" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>64000</v>
       </c>
@@ -11382,8 +12360,12 @@
         <f>AVERAGE(B299:K299)</f>
         <v>59.3</v>
       </c>
-    </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M299" s="5">
+        <f>_xlfn.STDEV.P(B299:K299)</f>
+        <v>6.1814237842102369</v>
+      </c>
+    </row>
+    <row r="300" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>128000</v>
       </c>
@@ -11421,8 +12403,12 @@
         <f>AVERAGE(B300:K300)</f>
         <v>61</v>
       </c>
-    </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M300" s="5">
+        <f>_xlfn.STDEV.P(B300:K300)</f>
+        <v>4.6904157598234297</v>
+      </c>
+    </row>
+    <row r="301" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>256000</v>
       </c>
@@ -11460,8 +12446,12 @@
         <f>AVERAGE(B301:K301)</f>
         <v>65.400000000000006</v>
       </c>
-    </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M301" s="5">
+        <f>_xlfn.STDEV.P(B301:K301)</f>
+        <v>6.3118935352237999</v>
+      </c>
+    </row>
+    <row r="302" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>512000</v>
       </c>
@@ -11499,8 +12489,12 @@
         <f>AVERAGE(B302:K302)</f>
         <v>74.599999999999994</v>
       </c>
-    </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M302" s="5">
+        <f>_xlfn.STDEV.P(B302:K302)</f>
+        <v>9.8812954616285005</v>
+      </c>
+    </row>
+    <row r="303" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>1024000</v>
       </c>
@@ -11538,8 +12532,12 @@
         <f>AVERAGE(B303:K303)</f>
         <v>89.1</v>
       </c>
-    </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M303" s="5">
+        <f>_xlfn.STDEV.P(B303:K303)</f>
+        <v>7.5026661927610769</v>
+      </c>
+    </row>
+    <row r="304" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>2048000</v>
       </c>
@@ -11577,8 +12575,12 @@
         <f>AVERAGE(B304:K304)</f>
         <v>109.1</v>
       </c>
-    </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M304" s="5">
+        <f>_xlfn.STDEV.P(B304:K304)</f>
+        <v>9.8127468121826116</v>
+      </c>
+    </row>
+    <row r="305" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>4096000</v>
       </c>
@@ -11616,8 +12618,12 @@
         <f>AVERAGE(B305:K305)</f>
         <v>159.1</v>
       </c>
-    </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M305" s="5">
+        <f>_xlfn.STDEV.P(B305:K305)</f>
+        <v>6.2201286160335947</v>
+      </c>
+    </row>
+    <row r="306" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>8192000</v>
       </c>
@@ -11655,8 +12661,12 @@
         <f>AVERAGE(B306:K306)</f>
         <v>256.5</v>
       </c>
-    </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M306" s="5">
+        <f>_xlfn.STDEV.P(B306:K306)</f>
+        <v>7.7749598069700658</v>
+      </c>
+    </row>
+    <row r="307" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>16384000</v>
       </c>
@@ -11694,8 +12704,12 @@
         <f>AVERAGE(B307:K307)</f>
         <v>470.3</v>
       </c>
-    </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M307" s="5">
+        <f>_xlfn.STDEV.P(B307:K307)</f>
+        <v>10.973149046650192</v>
+      </c>
+    </row>
+    <row r="308" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>32768000</v>
       </c>
@@ -11733,8 +12747,12 @@
         <f>AVERAGE(B308:K308)</f>
         <v>864.3</v>
       </c>
-    </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M308" s="5">
+        <f>_xlfn.STDEV.P(B308:K308)</f>
+        <v>27.640730815229904</v>
+      </c>
+    </row>
+    <row r="309" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>65536000</v>
       </c>
@@ -11772,8 +12790,12 @@
         <f>AVERAGE(B309:K309)</f>
         <v>1640.3</v>
       </c>
-    </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M309" s="5">
+        <f>_xlfn.STDEV.P(B309:K309)</f>
+        <v>39.572844224290982</v>
+      </c>
+    </row>
+    <row r="311" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B311" t="s">
         <v>5</v>
       </c>
@@ -11805,7 +12827,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>1000</v>
       </c>
@@ -11843,8 +12865,12 @@
         <f>AVERAGE(B312:K312)</f>
         <v>119.8</v>
       </c>
-    </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M312" s="5">
+        <f>_xlfn.STDEV.P(B312:K312)</f>
+        <v>7.3047929470998696</v>
+      </c>
+    </row>
+    <row r="313" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>2000</v>
       </c>
@@ -11882,8 +12908,12 @@
         <f>AVERAGE(B313:K313)</f>
         <v>122.2</v>
       </c>
-    </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M313" s="5">
+        <f>_xlfn.STDEV.P(B313:K313)</f>
+        <v>13.702554506368511</v>
+      </c>
+    </row>
+    <row r="314" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>4000</v>
       </c>
@@ -11921,8 +12951,12 @@
         <f>AVERAGE(B314:K314)</f>
         <v>126.5</v>
       </c>
-    </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M314" s="5">
+        <f>_xlfn.STDEV.P(B314:K314)</f>
+        <v>16.43319810627256</v>
+      </c>
+    </row>
+    <row r="315" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>8000</v>
       </c>
@@ -11960,8 +12994,12 @@
         <f>AVERAGE(B315:K315)</f>
         <v>120.4</v>
       </c>
-    </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M315" s="5">
+        <f>_xlfn.STDEV.P(B315:K315)</f>
+        <v>13.92264342716569</v>
+      </c>
+    </row>
+    <row r="316" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>16000</v>
       </c>
@@ -11999,8 +13037,12 @@
         <f>AVERAGE(B316:K316)</f>
         <v>126.4</v>
       </c>
-    </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M316" s="5">
+        <f>_xlfn.STDEV.P(B316:K316)</f>
+        <v>15.127458477880547</v>
+      </c>
+    </row>
+    <row r="317" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>32000</v>
       </c>
@@ -12038,8 +13080,12 @@
         <f>AVERAGE(B317:K317)</f>
         <v>118.7</v>
       </c>
-    </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M317" s="5">
+        <f>_xlfn.STDEV.P(B317:K317)</f>
+        <v>10.392785959500946</v>
+      </c>
+    </row>
+    <row r="318" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>64000</v>
       </c>
@@ -12077,8 +13123,12 @@
         <f>AVERAGE(B318:K318)</f>
         <v>115.7</v>
       </c>
-    </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M318" s="5">
+        <f>_xlfn.STDEV.P(B318:K318)</f>
+        <v>10.450358845513392</v>
+      </c>
+    </row>
+    <row r="319" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>128000</v>
       </c>
@@ -12116,8 +13166,12 @@
         <f>AVERAGE(B319:K319)</f>
         <v>120.3</v>
       </c>
-    </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M319" s="5">
+        <f>_xlfn.STDEV.P(B319:K319)</f>
+        <v>9.8290386101591842</v>
+      </c>
+    </row>
+    <row r="320" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>256000</v>
       </c>
@@ -12155,8 +13209,12 @@
         <f>AVERAGE(B320:K320)</f>
         <v>122</v>
       </c>
-    </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M320" s="5">
+        <f>_xlfn.STDEV.P(B320:K320)</f>
+        <v>6.2609903369994111</v>
+      </c>
+    </row>
+    <row r="321" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>512000</v>
       </c>
@@ -12194,8 +13252,12 @@
         <f>AVERAGE(B321:K321)</f>
         <v>125</v>
       </c>
-    </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M321" s="5">
+        <f>_xlfn.STDEV.P(B321:K321)</f>
+        <v>7.2111025509279782</v>
+      </c>
+    </row>
+    <row r="322" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>1024000</v>
       </c>
@@ -12233,8 +13295,12 @@
         <f>AVERAGE(B322:K322)</f>
         <v>138.69999999999999</v>
       </c>
-    </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M322" s="5">
+        <f>_xlfn.STDEV.P(B322:K322)</f>
+        <v>4.5836666545463354</v>
+      </c>
+    </row>
+    <row r="323" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>2048000</v>
       </c>
@@ -12272,8 +13338,12 @@
         <f>AVERAGE(B323:K323)</f>
         <v>160.9</v>
       </c>
-    </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M323" s="5">
+        <f>_xlfn.STDEV.P(B323:K323)</f>
+        <v>9.9040395798886021</v>
+      </c>
+    </row>
+    <row r="324" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>4096000</v>
       </c>
@@ -12311,8 +13381,12 @@
         <f>AVERAGE(B324:K324)</f>
         <v>209.2</v>
       </c>
-    </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M324" s="5">
+        <f>_xlfn.STDEV.P(B324:K324)</f>
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="325" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>8192000</v>
       </c>
@@ -12350,8 +13424,12 @@
         <f>AVERAGE(B325:K325)</f>
         <v>312.60000000000002</v>
       </c>
-    </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M325" s="5">
+        <f>_xlfn.STDEV.P(B325:K325)</f>
+        <v>7.1721684308164431</v>
+      </c>
+    </row>
+    <row r="326" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>16384000</v>
       </c>
@@ -12389,8 +13467,12 @@
         <f>AVERAGE(B326:K326)</f>
         <v>548.4</v>
       </c>
-    </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M326" s="5">
+        <f>_xlfn.STDEV.P(B326:K326)</f>
+        <v>63.809403695693632</v>
+      </c>
+    </row>
+    <row r="327" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>32768000</v>
       </c>
@@ -12428,8 +13510,12 @@
         <f>AVERAGE(B327:K327)</f>
         <v>904.5</v>
       </c>
-    </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M327" s="5">
+        <f>_xlfn.STDEV.P(B327:K327)</f>
+        <v>35.573164042575691</v>
+      </c>
+    </row>
+    <row r="328" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>65536000</v>
       </c>
@@ -12467,8 +13553,12 @@
         <f>AVERAGE(B328:K328)</f>
         <v>1735.7</v>
       </c>
-    </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M328" s="5">
+        <f>_xlfn.STDEV.P(B328:K328)</f>
+        <v>131.50212926032796</v>
+      </c>
+    </row>
+    <row r="330" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B330" t="s">
         <v>6</v>
       </c>
@@ -12500,7 +13590,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>1000</v>
       </c>
@@ -12538,8 +13628,12 @@
         <f>AVERAGE(B331:K331)</f>
         <v>239.1</v>
       </c>
-    </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M331" s="5">
+        <f>_xlfn.STDEV.P(B331:K331)</f>
+        <v>21.021179795625173</v>
+      </c>
+    </row>
+    <row r="332" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>2000</v>
       </c>
@@ -12577,8 +13671,12 @@
         <f>AVERAGE(B332:K332)</f>
         <v>239</v>
       </c>
-    </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M332" s="5">
+        <f>_xlfn.STDEV.P(B332:K332)</f>
+        <v>23.143033509028154</v>
+      </c>
+    </row>
+    <row r="333" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>4000</v>
       </c>
@@ -12616,8 +13714,12 @@
         <f>AVERAGE(B333:K333)</f>
         <v>248.5</v>
       </c>
-    </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M333" s="5">
+        <f>_xlfn.STDEV.P(B333:K333)</f>
+        <v>22.517770760001977</v>
+      </c>
+    </row>
+    <row r="334" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>8000</v>
       </c>
@@ -12655,8 +13757,12 @@
         <f>AVERAGE(B334:K334)</f>
         <v>268.7</v>
       </c>
-    </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M334" s="5">
+        <f>_xlfn.STDEV.P(B334:K334)</f>
+        <v>37.277473090326282</v>
+      </c>
+    </row>
+    <row r="335" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>16000</v>
       </c>
@@ -12694,8 +13800,12 @@
         <f>AVERAGE(B335:K335)</f>
         <v>248.5</v>
       </c>
-    </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M335" s="5">
+        <f>_xlfn.STDEV.P(B335:K335)</f>
+        <v>13.306013678032953</v>
+      </c>
+    </row>
+    <row r="336" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>32000</v>
       </c>
@@ -12733,8 +13843,12 @@
         <f>AVERAGE(B336:K336)</f>
         <v>251.6</v>
       </c>
-    </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M336" s="5">
+        <f>_xlfn.STDEV.P(B336:K336)</f>
+        <v>18.958902921846505</v>
+      </c>
+    </row>
+    <row r="337" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>64000</v>
       </c>
@@ -12772,8 +13886,12 @@
         <f>AVERAGE(B337:K337)</f>
         <v>251.6</v>
       </c>
-    </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M337" s="5">
+        <f>_xlfn.STDEV.P(B337:K337)</f>
+        <v>19.043108989868223</v>
+      </c>
+    </row>
+    <row r="338" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>128000</v>
       </c>
@@ -12811,8 +13929,12 @@
         <f>AVERAGE(B338:K338)</f>
         <v>265.60000000000002</v>
       </c>
-    </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M338" s="5">
+        <f>_xlfn.STDEV.P(B338:K338)</f>
+        <v>46.002608621685788</v>
+      </c>
+    </row>
+    <row r="339" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>256000</v>
       </c>
@@ -12850,8 +13972,12 @@
         <f>AVERAGE(B339:K339)</f>
         <v>249.9</v>
       </c>
-    </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M339" s="5">
+        <f>_xlfn.STDEV.P(B339:K339)</f>
+        <v>36.280711128642444</v>
+      </c>
+    </row>
+    <row r="340" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>512000</v>
       </c>
@@ -12889,8 +14015,12 @@
         <f>AVERAGE(B340:K340)</f>
         <v>256.3</v>
       </c>
-    </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M340" s="5">
+        <f>_xlfn.STDEV.P(B340:K340)</f>
+        <v>23.575623003433016</v>
+      </c>
+    </row>
+    <row r="341" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>1024000</v>
       </c>
@@ -12928,8 +14058,12 @@
         <f>AVERAGE(B341:K341)</f>
         <v>250</v>
       </c>
-    </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M341" s="5">
+        <f>_xlfn.STDEV.P(B341:K341)</f>
+        <v>13.978555004005242</v>
+      </c>
+    </row>
+    <row r="342" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>2048000</v>
       </c>
@@ -12967,8 +14101,12 @@
         <f>AVERAGE(B342:K342)</f>
         <v>282.8</v>
       </c>
-    </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M342" s="5">
+        <f>_xlfn.STDEV.P(B342:K342)</f>
+        <v>32.65516804427746</v>
+      </c>
+    </row>
+    <row r="343" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>4096000</v>
       </c>
@@ -13006,8 +14144,12 @@
         <f>AVERAGE(B343:K343)</f>
         <v>337.1</v>
       </c>
-    </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M343" s="5">
+        <f>_xlfn.STDEV.P(B343:K343)</f>
+        <v>55.895348643693062</v>
+      </c>
+    </row>
+    <row r="344" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>8192000</v>
       </c>
@@ -13045,8 +14187,12 @@
         <f>AVERAGE(B344:K344)</f>
         <v>414.2</v>
       </c>
-    </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M344" s="5">
+        <f>_xlfn.STDEV.P(B344:K344)</f>
+        <v>10.303397497913005</v>
+      </c>
+    </row>
+    <row r="345" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>16384000</v>
       </c>
@@ -13084,8 +14230,12 @@
         <f>AVERAGE(B345:K345)</f>
         <v>618.79999999999995</v>
       </c>
-    </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M345" s="5">
+        <f>_xlfn.STDEV.P(B345:K345)</f>
+        <v>18.940960904874913</v>
+      </c>
+    </row>
+    <row r="346" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>32768000</v>
       </c>
@@ -13123,8 +14273,12 @@
         <f>AVERAGE(B346:K346)</f>
         <v>1015.5</v>
       </c>
-    </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M346" s="5">
+        <f>_xlfn.STDEV.P(B346:K346)</f>
+        <v>66.363016809063168</v>
+      </c>
+    </row>
+    <row r="347" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>65536000</v>
       </c>
@@ -13162,8 +14316,12 @@
         <f>AVERAGE(B347:K347)</f>
         <v>1798.1</v>
       </c>
-    </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M347" s="5">
+        <f>_xlfn.STDEV.P(B347:K347)</f>
+        <v>51.636130761318668</v>
+      </c>
+    </row>
+    <row r="348" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B348" t="s">
         <v>0</v>
       </c>
@@ -13195,7 +14353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B349" t="s">
         <v>9</v>
       </c>
@@ -13227,7 +14385,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>1000</v>
       </c>
@@ -13265,8 +14423,12 @@
         <f>AVERAGE(B350:K350)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M350" s="5">
+        <f>_xlfn.STDEV.P(B350:K350)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>2000</v>
       </c>
@@ -13304,8 +14466,12 @@
         <f>AVERAGE(B351:K351)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M351" s="5">
+        <f>_xlfn.STDEV.P(B351:K351)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>4000</v>
       </c>
@@ -13343,8 +14509,12 @@
         <f>AVERAGE(B352:K352)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M352" s="5">
+        <f>_xlfn.STDEV.P(B352:K352)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>8000</v>
       </c>
@@ -13382,8 +14552,12 @@
         <f>AVERAGE(B353:K353)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M353" s="5">
+        <f>_xlfn.STDEV.P(B353:K353)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>16000</v>
       </c>
@@ -13421,8 +14595,12 @@
         <f>AVERAGE(B354:K354)</f>
         <v>1.6</v>
       </c>
-    </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M354" s="5">
+        <f>_xlfn.STDEV.P(B354:K354)</f>
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="355" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>32000</v>
       </c>
@@ -13460,8 +14638,12 @@
         <f>AVERAGE(B355:K355)</f>
         <v>3.3</v>
       </c>
-    </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M355" s="5">
+        <f>_xlfn.STDEV.P(B355:K355)</f>
+        <v>6.6037867924396227</v>
+      </c>
+    </row>
+    <row r="356" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>64000</v>
       </c>
@@ -13499,8 +14681,12 @@
         <f>AVERAGE(B356:K356)</f>
         <v>3.2</v>
       </c>
-    </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M356" s="5">
+        <f>_xlfn.STDEV.P(B356:K356)</f>
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="357" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>128000</v>
       </c>
@@ -13538,8 +14724,12 @@
         <f>AVERAGE(B357:K357)</f>
         <v>4.7</v>
       </c>
-    </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M357" s="5">
+        <f>_xlfn.STDEV.P(B357:K357)</f>
+        <v>7.1840100222647241</v>
+      </c>
+    </row>
+    <row r="358" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>256000</v>
       </c>
@@ -13577,8 +14767,12 @@
         <f>AVERAGE(B358:K358)</f>
         <v>7.8</v>
       </c>
-    </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M358" s="5">
+        <f>_xlfn.STDEV.P(B358:K358)</f>
+        <v>7.8076885183772538</v>
+      </c>
+    </row>
+    <row r="359" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>512000</v>
       </c>
@@ -13616,8 +14810,12 @@
         <f>AVERAGE(B359:K359)</f>
         <v>19.100000000000001</v>
       </c>
-    </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M359" s="5">
+        <f>_xlfn.STDEV.P(B359:K359)</f>
+        <v>6.7297845433564962</v>
+      </c>
+    </row>
+    <row r="360" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>1024000</v>
       </c>
@@ -13655,8 +14853,12 @@
         <f>AVERAGE(B360:K360)</f>
         <v>41.1</v>
       </c>
-    </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M360" s="5">
+        <f>_xlfn.STDEV.P(B360:K360)</f>
+        <v>7.854298186343577</v>
+      </c>
+    </row>
+    <row r="361" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>2048000</v>
       </c>
@@ -13694,8 +14896,12 @@
         <f>AVERAGE(B361:K361)</f>
         <v>82.9</v>
       </c>
-    </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M361" s="5">
+        <f>_xlfn.STDEV.P(B361:K361)</f>
+        <v>7.2725511342306834</v>
+      </c>
+    </row>
+    <row r="362" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>4096000</v>
       </c>
@@ -13733,8 +14939,12 @@
         <f>AVERAGE(B362:K362)</f>
         <v>171.9</v>
       </c>
-    </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M362" s="5">
+        <f>_xlfn.STDEV.P(B362:K362)</f>
+        <v>6.9491006612366748</v>
+      </c>
+    </row>
+    <row r="363" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>8192000</v>
       </c>
@@ -13772,8 +14982,12 @@
         <f>AVERAGE(B363:K363)</f>
         <v>332.8</v>
       </c>
-    </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M363" s="5">
+        <f>_xlfn.STDEV.P(B363:K363)</f>
+        <v>9.7857038581800531</v>
+      </c>
+    </row>
+    <row r="364" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>16384000</v>
       </c>
@@ -13811,8 +15025,12 @@
         <f>AVERAGE(B364:K364)</f>
         <v>681</v>
       </c>
-    </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M364" s="5">
+        <f>_xlfn.STDEV.P(B364:K364)</f>
+        <v>22.921605528409216</v>
+      </c>
+    </row>
+    <row r="365" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>32768000</v>
       </c>
@@ -13850,8 +15068,12 @@
         <f>AVERAGE(B365:K365)</f>
         <v>1353</v>
       </c>
-    </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M365" s="5">
+        <f>_xlfn.STDEV.P(B365:K365)</f>
+        <v>51.888341657832932</v>
+      </c>
+    </row>
+    <row r="366" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>65536000</v>
       </c>
@@ -13889,8 +15111,12 @@
         <f>AVERAGE(B366:K366)</f>
         <v>2698.4</v>
       </c>
-    </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M366" s="5">
+        <f>_xlfn.STDEV.P(B366:K366)</f>
+        <v>84.661915877211285</v>
+      </c>
+    </row>
+    <row r="368" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B368" t="s">
         <v>2</v>
       </c>
@@ -13922,7 +15148,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>1000</v>
       </c>
@@ -13960,8 +15186,12 @@
         <f>AVERAGE(B369:K369)</f>
         <v>35.700000000000003</v>
       </c>
-    </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M369" s="5">
+        <f>_xlfn.STDEV.P(B369:K369)</f>
+        <v>7.1840100222647241</v>
+      </c>
+    </row>
+    <row r="370" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>2000</v>
       </c>
@@ -13999,8 +15229,12 @@
         <f>AVERAGE(B370:K370)</f>
         <v>26.5</v>
       </c>
-    </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M370" s="5">
+        <f>_xlfn.STDEV.P(B370:K370)</f>
+        <v>7.1028163428319058</v>
+      </c>
+    </row>
+    <row r="371" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>4000</v>
       </c>
@@ -14038,8 +15272,12 @@
         <f>AVERAGE(B371:K371)</f>
         <v>26.5</v>
       </c>
-    </row>
-    <row r="372" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M371" s="5">
+        <f>_xlfn.STDEV.P(B371:K371)</f>
+        <v>9.7698515853619803</v>
+      </c>
+    </row>
+    <row r="372" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <v>8000</v>
       </c>
@@ -14077,8 +15315,12 @@
         <f>AVERAGE(B372:K372)</f>
         <v>31.4</v>
       </c>
-    </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M372" s="5">
+        <f>_xlfn.STDEV.P(B372:K372)</f>
+        <v>0.4898979485566356</v>
+      </c>
+    </row>
+    <row r="373" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>16000</v>
       </c>
@@ -14116,8 +15358,12 @@
         <f>AVERAGE(B373:K373)</f>
         <v>26.5</v>
       </c>
-    </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M373" s="5">
+        <f>_xlfn.STDEV.P(B373:K373)</f>
+        <v>7.3246160308919945</v>
+      </c>
+    </row>
+    <row r="374" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>32000</v>
       </c>
@@ -14155,8 +15401,12 @@
         <f>AVERAGE(B374:K374)</f>
         <v>31.3</v>
       </c>
-    </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M374" s="5">
+        <f>_xlfn.STDEV.P(B374:K374)</f>
+        <v>0.45825756949558405</v>
+      </c>
+    </row>
+    <row r="375" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>64000</v>
       </c>
@@ -14194,8 +15444,12 @@
         <f>AVERAGE(B375:K375)</f>
         <v>29.8</v>
       </c>
-    </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M375" s="5">
+        <f>_xlfn.STDEV.P(B375:K375)</f>
+        <v>4.9558046773455464</v>
+      </c>
+    </row>
+    <row r="376" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>128000</v>
       </c>
@@ -14233,8 +15487,12 @@
         <f>AVERAGE(B376:K376)</f>
         <v>31.1</v>
       </c>
-    </row>
-    <row r="377" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M376" s="5">
+        <f>_xlfn.STDEV.P(B376:K376)</f>
+        <v>0.53851648071345037</v>
+      </c>
+    </row>
+    <row r="377" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>256000</v>
       </c>
@@ -14272,8 +15530,12 @@
         <f>AVERAGE(B377:K377)</f>
         <v>37.4</v>
       </c>
-    </row>
-    <row r="378" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M377" s="5">
+        <f>_xlfn.STDEV.P(B377:K377)</f>
+        <v>7.657675887630659</v>
+      </c>
+    </row>
+    <row r="378" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <v>512000</v>
       </c>
@@ -14311,8 +15573,12 @@
         <f>AVERAGE(B378:K378)</f>
         <v>54.4</v>
       </c>
-    </row>
-    <row r="379" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M378" s="5">
+        <f>_xlfn.STDEV.P(B378:K378)</f>
+        <v>18.858419870180004</v>
+      </c>
+    </row>
+    <row r="379" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>1024000</v>
       </c>
@@ -14350,8 +15616,12 @@
         <f>AVERAGE(B379:K379)</f>
         <v>78</v>
       </c>
-    </row>
-    <row r="380" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M379" s="5">
+        <f>_xlfn.STDEV.P(B379:K379)</f>
+        <v>9.6540147089177371</v>
+      </c>
+    </row>
+    <row r="380" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>2048000</v>
       </c>
@@ -14389,8 +15659,12 @@
         <f>AVERAGE(B380:K380)</f>
         <v>121.6</v>
       </c>
-    </row>
-    <row r="381" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M380" s="5">
+        <f>_xlfn.STDEV.P(B380:K380)</f>
+        <v>11.799999999999997</v>
+      </c>
+    </row>
+    <row r="381" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <v>4096000</v>
       </c>
@@ -14428,8 +15702,12 @@
         <f>AVERAGE(B381:K381)</f>
         <v>212.4</v>
       </c>
-    </row>
-    <row r="382" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M381" s="5">
+        <f>_xlfn.STDEV.P(B381:K381)</f>
+        <v>12.579348154813111</v>
+      </c>
+    </row>
+    <row r="382" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>8192000</v>
       </c>
@@ -14467,8 +15745,12 @@
         <f>AVERAGE(B382:K382)</f>
         <v>385.8</v>
       </c>
-    </row>
-    <row r="383" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M382" s="5">
+        <f>_xlfn.STDEV.P(B382:K382)</f>
+        <v>17.220917513303409</v>
+      </c>
+    </row>
+    <row r="383" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <v>16384000</v>
       </c>
@@ -14506,8 +15788,12 @@
         <f>AVERAGE(B383:K383)</f>
         <v>751.3</v>
       </c>
-    </row>
-    <row r="384" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M383" s="5">
+        <f>_xlfn.STDEV.P(B383:K383)</f>
+        <v>40.236923341627396</v>
+      </c>
+    </row>
+    <row r="384" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <v>32768000</v>
       </c>
@@ -14545,8 +15831,12 @@
         <f>AVERAGE(B384:K384)</f>
         <v>1436.1</v>
       </c>
-    </row>
-    <row r="385" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M384" s="5">
+        <f>_xlfn.STDEV.P(B384:K384)</f>
+        <v>48.911041698168724</v>
+      </c>
+    </row>
+    <row r="385" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <v>65536000</v>
       </c>
@@ -14584,8 +15874,12 @@
         <f>AVERAGE(B385:K385)</f>
         <v>2760.8</v>
       </c>
-    </row>
-    <row r="387" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M385" s="5">
+        <f>_xlfn.STDEV.P(B385:K385)</f>
+        <v>67.879010010459055</v>
+      </c>
+    </row>
+    <row r="387" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B387" t="s">
         <v>3</v>
       </c>
@@ -14617,7 +15911,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="388" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <v>1000</v>
       </c>
@@ -14655,8 +15949,12 @@
         <f>AVERAGE(B388:K388)</f>
         <v>38.5</v>
       </c>
-    </row>
-    <row r="389" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M388" s="5">
+        <f>_xlfn.STDEV.P(B388:K388)</f>
+        <v>7.7103826104804947</v>
+      </c>
+    </row>
+    <row r="389" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <v>2000</v>
       </c>
@@ -14694,8 +15992,12 @@
         <f>AVERAGE(B389:K389)</f>
         <v>42.2</v>
       </c>
-    </row>
-    <row r="390" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M389" s="5">
+        <f>_xlfn.STDEV.P(B389:K389)</f>
+        <v>7.3321211119293439</v>
+      </c>
+    </row>
+    <row r="390" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <v>4000</v>
       </c>
@@ -14733,8 +16035,12 @@
         <f>AVERAGE(B390:K390)</f>
         <v>37.6</v>
       </c>
-    </row>
-    <row r="391" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M390" s="5">
+        <f>_xlfn.STDEV.P(B390:K390)</f>
+        <v>7.8892331693264079</v>
+      </c>
+    </row>
+    <row r="391" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <v>8000</v>
       </c>
@@ -14772,8 +16078,12 @@
         <f>AVERAGE(B391:K391)</f>
         <v>32.5</v>
       </c>
-    </row>
-    <row r="392" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M391" s="5">
+        <f>_xlfn.STDEV.P(B391:K391)</f>
+        <v>4.5221676218380056</v>
+      </c>
+    </row>
+    <row r="392" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
         <v>16000</v>
       </c>
@@ -14811,8 +16121,12 @@
         <f>AVERAGE(B392:K392)</f>
         <v>40.700000000000003</v>
       </c>
-    </row>
-    <row r="393" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M392" s="5">
+        <f>_xlfn.STDEV.P(B392:K392)</f>
+        <v>7.5239617223906716</v>
+      </c>
+    </row>
+    <row r="393" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>32000</v>
       </c>
@@ -14850,8 +16164,12 @@
         <f>AVERAGE(B393:K393)</f>
         <v>35.799999999999997</v>
       </c>
-    </row>
-    <row r="394" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M393" s="5">
+        <f>_xlfn.STDEV.P(B393:K393)</f>
+        <v>7.1246052522227501</v>
+      </c>
+    </row>
+    <row r="394" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
         <v>64000</v>
       </c>
@@ -14889,8 +16207,12 @@
         <f>AVERAGE(B394:K394)</f>
         <v>39.200000000000003</v>
       </c>
-    </row>
-    <row r="395" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M394" s="5">
+        <f>_xlfn.STDEV.P(B394:K394)</f>
+        <v>8.0349237706402672</v>
+      </c>
+    </row>
+    <row r="395" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
         <v>128000</v>
       </c>
@@ -14928,8 +16250,12 @@
         <f>AVERAGE(B395:K395)</f>
         <v>34.200000000000003</v>
       </c>
-    </row>
-    <row r="396" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M395" s="5">
+        <f>_xlfn.STDEV.P(B395:K395)</f>
+        <v>6.4311740763254104</v>
+      </c>
+    </row>
+    <row r="396" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <v>256000</v>
       </c>
@@ -14967,8 +16293,12 @@
         <f>AVERAGE(B396:K396)</f>
         <v>39.1</v>
       </c>
-    </row>
-    <row r="397" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M396" s="5">
+        <f>_xlfn.STDEV.P(B396:K396)</f>
+        <v>7.9177016867270265</v>
+      </c>
+    </row>
+    <row r="397" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <v>512000</v>
       </c>
@@ -15006,8 +16336,12 @@
         <f>AVERAGE(B397:K397)</f>
         <v>51.3</v>
       </c>
-    </row>
-    <row r="398" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M397" s="5">
+        <f>_xlfn.STDEV.P(B397:K397)</f>
+        <v>7.2394751190953057</v>
+      </c>
+    </row>
+    <row r="398" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
         <v>1024000</v>
       </c>
@@ -15045,8 +16379,12 @@
         <f>AVERAGE(B398:K398)</f>
         <v>67.2</v>
       </c>
-    </row>
-    <row r="399" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M398" s="5">
+        <f>_xlfn.STDEV.P(B398:K398)</f>
+        <v>7.3047929470998696</v>
+      </c>
+    </row>
+    <row r="399" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <v>2048000</v>
       </c>
@@ -15084,8 +16422,12 @@
         <f>AVERAGE(B399:K399)</f>
         <v>93.7</v>
       </c>
-    </row>
-    <row r="400" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M399" s="5">
+        <f>_xlfn.STDEV.P(B399:K399)</f>
+        <v>9.6752260955493963</v>
+      </c>
+    </row>
+    <row r="400" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <v>4096000</v>
       </c>
@@ -15123,8 +16465,12 @@
         <f>AVERAGE(B400:K400)</f>
         <v>162.30000000000001</v>
       </c>
-    </row>
-    <row r="401" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M400" s="5">
+        <f>_xlfn.STDEV.P(B400:K400)</f>
+        <v>7.9504716841203837</v>
+      </c>
+    </row>
+    <row r="401" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>8192000</v>
       </c>
@@ -15162,8 +16508,12 @@
         <f>AVERAGE(B401:K401)</f>
         <v>287.5</v>
       </c>
-    </row>
-    <row r="402" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M401" s="5">
+        <f>_xlfn.STDEV.P(B401:K401)</f>
+        <v>14.200352108310554</v>
+      </c>
+    </row>
+    <row r="402" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
         <v>16384000</v>
       </c>
@@ -15201,8 +16551,12 @@
         <f>AVERAGE(B402:K402)</f>
         <v>546.9</v>
       </c>
-    </row>
-    <row r="403" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M402" s="5">
+        <f>_xlfn.STDEV.P(B402:K402)</f>
+        <v>29.575158494926107</v>
+      </c>
+    </row>
+    <row r="403" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <v>32768000</v>
       </c>
@@ -15240,8 +16594,12 @@
         <f>AVERAGE(B403:K403)</f>
         <v>1004.8</v>
       </c>
-    </row>
-    <row r="404" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M403" s="5">
+        <f>_xlfn.STDEV.P(B403:K403)</f>
+        <v>51.177729531506188</v>
+      </c>
+    </row>
+    <row r="404" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <v>65536000</v>
       </c>
@@ -15279,8 +16637,12 @@
         <f>AVERAGE(B404:K404)</f>
         <v>1851.8</v>
       </c>
-    </row>
-    <row r="406" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M404" s="5">
+        <f>_xlfn.STDEV.P(B404:K404)</f>
+        <v>113.46171160351848</v>
+      </c>
+    </row>
+    <row r="406" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B406" t="s">
         <v>4</v>
       </c>
@@ -15312,7 +16674,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="407" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
         <v>1000</v>
       </c>
@@ -15350,8 +16712,12 @@
         <f>AVERAGE(B407:K407)</f>
         <v>62.5</v>
       </c>
-    </row>
-    <row r="408" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M407" s="5">
+        <f>_xlfn.STDEV.P(B407:K407)</f>
+        <v>0.67082039324993692</v>
+      </c>
+    </row>
+    <row r="408" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
         <v>2000</v>
       </c>
@@ -15389,8 +16755,12 @@
         <f>AVERAGE(B408:K408)</f>
         <v>60.8</v>
       </c>
-    </row>
-    <row r="409" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M408" s="5">
+        <f>_xlfn.STDEV.P(B408:K408)</f>
+        <v>4.2848570571257092</v>
+      </c>
+    </row>
+    <row r="409" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
         <v>4000</v>
       </c>
@@ -15428,8 +16798,12 @@
         <f>AVERAGE(B409:K409)</f>
         <v>54.5</v>
       </c>
-    </row>
-    <row r="410" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M409" s="5">
+        <f>_xlfn.STDEV.P(B409:K409)</f>
+        <v>7.7103826104804947</v>
+      </c>
+    </row>
+    <row r="410" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A410" s="1">
         <v>8000</v>
       </c>
@@ -15467,8 +16841,12 @@
         <f>AVERAGE(B410:K410)</f>
         <v>64.400000000000006</v>
       </c>
-    </row>
-    <row r="411" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M410" s="5">
+        <f>_xlfn.STDEV.P(B410:K410)</f>
+        <v>4.8826222462934812</v>
+      </c>
+    </row>
+    <row r="411" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
         <v>16000</v>
       </c>
@@ -15506,8 +16884,12 @@
         <f>AVERAGE(B411:K411)</f>
         <v>59.5</v>
       </c>
-    </row>
-    <row r="412" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M411" s="5">
+        <f>_xlfn.STDEV.P(B411:K411)</f>
+        <v>6.2649820430708338</v>
+      </c>
+    </row>
+    <row r="412" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
         <v>32000</v>
       </c>
@@ -15545,8 +16927,12 @@
         <f>AVERAGE(B412:K412)</f>
         <v>60.7</v>
       </c>
-    </row>
-    <row r="413" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M412" s="5">
+        <f>_xlfn.STDEV.P(B412:K412)</f>
+        <v>4.920365840057018</v>
+      </c>
+    </row>
+    <row r="413" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
         <v>64000</v>
       </c>
@@ -15584,8 +16970,12 @@
         <f>AVERAGE(B413:K413)</f>
         <v>56.2</v>
       </c>
-    </row>
-    <row r="414" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M413" s="5">
+        <f>_xlfn.STDEV.P(B413:K413)</f>
+        <v>7.7304592360350748</v>
+      </c>
+    </row>
+    <row r="414" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A414" s="1">
         <v>128000</v>
       </c>
@@ -15623,8 +17013,12 @@
         <f>AVERAGE(B414:K414)</f>
         <v>60.9</v>
       </c>
-    </row>
-    <row r="415" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M414" s="5">
+        <f>_xlfn.STDEV.P(B414:K414)</f>
+        <v>4.9889878733065682</v>
+      </c>
+    </row>
+    <row r="415" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A415" s="1">
         <v>256000</v>
       </c>
@@ -15662,8 +17056,12 @@
         <f>AVERAGE(B415:K415)</f>
         <v>68.7</v>
       </c>
-    </row>
-    <row r="416" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M415" s="5">
+        <f>_xlfn.STDEV.P(B415:K415)</f>
+        <v>7.8108898340714035</v>
+      </c>
+    </row>
+    <row r="416" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A416" s="1">
         <v>512000</v>
       </c>
@@ -15701,8 +17099,12 @@
         <f>AVERAGE(B416:K416)</f>
         <v>68.099999999999994</v>
       </c>
-    </row>
-    <row r="417" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M416" s="5">
+        <f>_xlfn.STDEV.P(B416:K416)</f>
+        <v>7.8924014089502572</v>
+      </c>
+    </row>
+    <row r="417" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
         <v>1024000</v>
       </c>
@@ -15740,8 +17142,12 @@
         <f>AVERAGE(B417:K417)</f>
         <v>84.4</v>
       </c>
-    </row>
-    <row r="418" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M417" s="5">
+        <f>_xlfn.STDEV.P(B417:K417)</f>
+        <v>10.480458005259122</v>
+      </c>
+    </row>
+    <row r="418" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A418" s="1">
         <v>2048000</v>
       </c>
@@ -15779,8 +17185,12 @@
         <f>AVERAGE(B418:K418)</f>
         <v>106.3</v>
       </c>
-    </row>
-    <row r="419" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M418" s="5">
+        <f>_xlfn.STDEV.P(B418:K418)</f>
+        <v>6.1652250567193416</v>
+      </c>
+    </row>
+    <row r="419" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A419" s="1">
         <v>4096000</v>
       </c>
@@ -15818,8 +17228,12 @@
         <f>AVERAGE(B419:K419)</f>
         <v>159.4</v>
       </c>
-    </row>
-    <row r="420" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M419" s="5">
+        <f>_xlfn.STDEV.P(B419:K419)</f>
+        <v>11.672189169131897</v>
+      </c>
+    </row>
+    <row r="420" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A420" s="1">
         <v>8192000</v>
       </c>
@@ -15857,8 +17271,12 @@
         <f>AVERAGE(B420:K420)</f>
         <v>257.39999999999998</v>
       </c>
-    </row>
-    <row r="421" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M420" s="5">
+        <f>_xlfn.STDEV.P(B420:K420)</f>
+        <v>10.44222198576529</v>
+      </c>
+    </row>
+    <row r="421" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A421" s="1">
         <v>16384000</v>
       </c>
@@ -15896,8 +17314,12 @@
         <f>AVERAGE(B421:K421)</f>
         <v>470</v>
       </c>
-    </row>
-    <row r="422" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M421" s="5">
+        <f>_xlfn.STDEV.P(B421:K421)</f>
+        <v>16.395121225535359</v>
+      </c>
+    </row>
+    <row r="422" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A422" s="1">
         <v>32768000</v>
       </c>
@@ -15935,8 +17357,12 @@
         <f>AVERAGE(B422:K422)</f>
         <v>850.1</v>
       </c>
-    </row>
-    <row r="423" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M422" s="5">
+        <f>_xlfn.STDEV.P(B422:K422)</f>
+        <v>20.201237585851022</v>
+      </c>
+    </row>
+    <row r="423" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A423" s="1">
         <v>65536000</v>
       </c>
@@ -15974,8 +17400,12 @@
         <f>AVERAGE(B423:K423)</f>
         <v>1638.9</v>
       </c>
-    </row>
-    <row r="425" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M423" s="5">
+        <f>_xlfn.STDEV.P(B423:K423)</f>
+        <v>28.560287113402769</v>
+      </c>
+    </row>
+    <row r="425" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B425" t="s">
         <v>5</v>
       </c>
@@ -16007,7 +17437,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="426" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A426" s="1">
         <v>1000</v>
       </c>
@@ -16045,8 +17475,12 @@
         <f>AVERAGE(B426:K426)</f>
         <v>121.7</v>
       </c>
-    </row>
-    <row r="427" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M426" s="5">
+        <f>_xlfn.STDEV.P(B426:K426)</f>
+        <v>13.476275449841474</v>
+      </c>
+    </row>
+    <row r="427" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A427" s="1">
         <v>2000</v>
       </c>
@@ -16084,8 +17518,12 @@
         <f>AVERAGE(B427:K427)</f>
         <v>123.3</v>
       </c>
-    </row>
-    <row r="428" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M427" s="5">
+        <f>_xlfn.STDEV.P(B427:K427)</f>
+        <v>11.045813686641651</v>
+      </c>
+    </row>
+    <row r="428" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A428" s="1">
         <v>4000</v>
       </c>
@@ -16123,8 +17561,12 @@
         <f>AVERAGE(B428:K428)</f>
         <v>118.6</v>
       </c>
-    </row>
-    <row r="429" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M428" s="5">
+        <f>_xlfn.STDEV.P(B428:K428)</f>
+        <v>14.4512975196001</v>
+      </c>
+    </row>
+    <row r="429" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A429" s="1">
         <v>8000</v>
       </c>
@@ -16162,8 +17604,12 @@
         <f>AVERAGE(B429:K429)</f>
         <v>126.9</v>
       </c>
-    </row>
-    <row r="430" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M429" s="5">
+        <f>_xlfn.STDEV.P(B429:K429)</f>
+        <v>13.14115672229808</v>
+      </c>
+    </row>
+    <row r="430" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A430" s="1">
         <v>16000</v>
       </c>
@@ -16201,8 +17647,12 @@
         <f>AVERAGE(B430:K430)</f>
         <v>117.3</v>
       </c>
-    </row>
-    <row r="431" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M430" s="5">
+        <f>_xlfn.STDEV.P(B430:K430)</f>
+        <v>8.1123362849428293</v>
+      </c>
+    </row>
+    <row r="431" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A431" s="1">
         <v>32000</v>
       </c>
@@ -16240,8 +17690,12 @@
         <f>AVERAGE(B431:K431)</f>
         <v>120.2</v>
       </c>
-    </row>
-    <row r="432" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M431" s="5">
+        <f>_xlfn.STDEV.P(B431:K431)</f>
+        <v>7.3593477971896402</v>
+      </c>
+    </row>
+    <row r="432" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A432" s="1">
         <v>64000</v>
       </c>
@@ -16279,8 +17733,12 @@
         <f>AVERAGE(B432:K432)</f>
         <v>117.3</v>
       </c>
-    </row>
-    <row r="433" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M432" s="5">
+        <f>_xlfn.STDEV.P(B432:K432)</f>
+        <v>7.7207512587830465</v>
+      </c>
+    </row>
+    <row r="433" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A433" s="1">
         <v>128000</v>
       </c>
@@ -16318,8 +17776,12 @@
         <f>AVERAGE(B433:K433)</f>
         <v>123.2</v>
       </c>
-    </row>
-    <row r="434" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M433" s="5">
+        <f>_xlfn.STDEV.P(B433:K433)</f>
+        <v>4.7497368348151667</v>
+      </c>
+    </row>
+    <row r="434" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A434" s="1">
         <v>256000</v>
       </c>
@@ -16357,8 +17819,12 @@
         <f>AVERAGE(B434:K434)</f>
         <v>123.4</v>
       </c>
-    </row>
-    <row r="435" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M434" s="5">
+        <f>_xlfn.STDEV.P(B434:K434)</f>
+        <v>10.919706955774958</v>
+      </c>
+    </row>
+    <row r="435" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A435" s="1">
         <v>512000</v>
       </c>
@@ -16396,8 +17862,12 @@
         <f>AVERAGE(B435:K435)</f>
         <v>131</v>
       </c>
-    </row>
-    <row r="436" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M435" s="5">
+        <f>_xlfn.STDEV.P(B435:K435)</f>
+        <v>14.52583904633395</v>
+      </c>
+    </row>
+    <row r="436" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A436" s="1">
         <v>1024000</v>
       </c>
@@ -16435,8 +17905,12 @@
         <f>AVERAGE(B436:K436)</f>
         <v>144.9</v>
       </c>
-    </row>
-    <row r="437" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M436" s="5">
+        <f>_xlfn.STDEV.P(B436:K436)</f>
+        <v>25.153329799452003</v>
+      </c>
+    </row>
+    <row r="437" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A437" s="1">
         <v>2048000</v>
       </c>
@@ -16474,8 +17948,12 @@
         <f>AVERAGE(B437:K437)</f>
         <v>160.69999999999999</v>
       </c>
-    </row>
-    <row r="438" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M437" s="5">
+        <f>_xlfn.STDEV.P(B437:K437)</f>
+        <v>9.9904954832080293</v>
+      </c>
+    </row>
+    <row r="438" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A438" s="1">
         <v>4096000</v>
       </c>
@@ -16513,8 +17991,12 @@
         <f>AVERAGE(B438:K438)</f>
         <v>206.2</v>
       </c>
-    </row>
-    <row r="439" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M438" s="5">
+        <f>_xlfn.STDEV.P(B438:K438)</f>
+        <v>9.4424573072903009</v>
+      </c>
+    </row>
+    <row r="439" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A439" s="1">
         <v>8192000</v>
       </c>
@@ -16552,8 +18034,12 @@
         <f>AVERAGE(B439:K439)</f>
         <v>306.5</v>
       </c>
-    </row>
-    <row r="440" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M439" s="5">
+        <f>_xlfn.STDEV.P(B439:K439)</f>
+        <v>7.5663729752107782</v>
+      </c>
+    </row>
+    <row r="440" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A440" s="1">
         <v>16384000</v>
       </c>
@@ -16591,8 +18077,12 @@
         <f>AVERAGE(B440:K440)</f>
         <v>515.5</v>
       </c>
-    </row>
-    <row r="441" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M440" s="5">
+        <f>_xlfn.STDEV.P(B440:K440)</f>
+        <v>15.402921800749363</v>
+      </c>
+    </row>
+    <row r="441" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A441" s="1">
         <v>32768000</v>
       </c>
@@ -16630,8 +18120,12 @@
         <f>AVERAGE(B441:K441)</f>
         <v>899.9</v>
       </c>
-    </row>
-    <row r="442" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M441" s="5">
+        <f>_xlfn.STDEV.P(B441:K441)</f>
+        <v>29.207704463035089</v>
+      </c>
+    </row>
+    <row r="442" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A442" s="1">
         <v>65536000</v>
       </c>
@@ -16669,8 +18163,12 @@
         <f>AVERAGE(B442:K442)</f>
         <v>1690.1</v>
       </c>
-    </row>
-    <row r="444" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M442" s="5">
+        <f>_xlfn.STDEV.P(B442:K442)</f>
+        <v>40.05358910260103</v>
+      </c>
+    </row>
+    <row r="444" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B444" t="s">
         <v>6</v>
       </c>
@@ -16702,7 +18200,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="445" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A445" s="1">
         <v>1000</v>
       </c>
@@ -16740,8 +18238,12 @@
         <f>AVERAGE(B445:K445)</f>
         <v>242</v>
       </c>
-    </row>
-    <row r="446" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M445" s="5">
+        <f>_xlfn.STDEV.P(B445:K445)</f>
+        <v>12.798437404620925</v>
+      </c>
+    </row>
+    <row r="446" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A446" s="1">
         <v>2000</v>
       </c>
@@ -16779,8 +18281,12 @@
         <f>AVERAGE(B446:K446)</f>
         <v>249.9</v>
       </c>
-    </row>
-    <row r="447" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M446" s="5">
+        <f>_xlfn.STDEV.P(B446:K446)</f>
+        <v>18.68395033176871</v>
+      </c>
+    </row>
+    <row r="447" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A447" s="1">
         <v>4000</v>
       </c>
@@ -16818,8 +18324,12 @@
         <f>AVERAGE(B447:K447)</f>
         <v>247</v>
       </c>
-    </row>
-    <row r="448" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M447" s="5">
+        <f>_xlfn.STDEV.P(B447:K447)</f>
+        <v>16.810710871346281</v>
+      </c>
+    </row>
+    <row r="448" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A448" s="1">
         <v>8000</v>
       </c>
@@ -16857,8 +18367,12 @@
         <f>AVERAGE(B448:K448)</f>
         <v>256</v>
       </c>
-    </row>
-    <row r="449" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M448" s="5">
+        <f>_xlfn.STDEV.P(B448:K448)</f>
+        <v>17.158088471621774</v>
+      </c>
+    </row>
+    <row r="449" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A449" s="1">
         <v>16000</v>
       </c>
@@ -16896,8 +18410,12 @@
         <f>AVERAGE(B449:K449)</f>
         <v>259.5</v>
       </c>
-    </row>
-    <row r="450" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M449" s="5">
+        <f>_xlfn.STDEV.P(B449:K449)</f>
+        <v>17.425555945220225</v>
+      </c>
+    </row>
+    <row r="450" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A450" s="1">
         <v>32000</v>
       </c>
@@ -16935,8 +18453,12 @@
         <f>AVERAGE(B450:K450)</f>
         <v>254.8</v>
       </c>
-    </row>
-    <row r="451" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M450" s="5">
+        <f>_xlfn.STDEV.P(B450:K450)</f>
+        <v>10.244998779892558</v>
+      </c>
+    </row>
+    <row r="451" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A451" s="1">
         <v>64000</v>
       </c>
@@ -16974,8 +18496,12 @@
         <f>AVERAGE(B451:K451)</f>
         <v>250</v>
       </c>
-    </row>
-    <row r="452" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M451" s="5">
+        <f>_xlfn.STDEV.P(B451:K451)</f>
+        <v>16.988231220465536</v>
+      </c>
+    </row>
+    <row r="452" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A452" s="1">
         <v>128000</v>
       </c>
@@ -17013,8 +18539,12 @@
         <f>AVERAGE(B452:K452)</f>
         <v>238.9</v>
       </c>
-    </row>
-    <row r="453" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M452" s="5">
+        <f>_xlfn.STDEV.P(B452:K452)</f>
+        <v>12.477579893553076</v>
+      </c>
+    </row>
+    <row r="453" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A453" s="1">
         <v>256000</v>
       </c>
@@ -17052,8 +18582,12 @@
         <f>AVERAGE(B453:K453)</f>
         <v>246.9</v>
       </c>
-    </row>
-    <row r="454" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M453" s="5">
+        <f>_xlfn.STDEV.P(B453:K453)</f>
+        <v>29.780698447148616</v>
+      </c>
+    </row>
+    <row r="454" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A454" s="1">
         <v>512000</v>
       </c>
@@ -17091,8 +18625,12 @@
         <f>AVERAGE(B454:K454)</f>
         <v>243.5</v>
       </c>
-    </row>
-    <row r="455" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M454" s="5">
+        <f>_xlfn.STDEV.P(B454:K454)</f>
+        <v>14.513786549346797</v>
+      </c>
+    </row>
+    <row r="455" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A455" s="1">
         <v>1024000</v>
       </c>
@@ -17130,8 +18668,12 @@
         <f>AVERAGE(B455:K455)</f>
         <v>251.5</v>
       </c>
-    </row>
-    <row r="456" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M455" s="5">
+        <f>_xlfn.STDEV.P(B455:K455)</f>
+        <v>8.4528101836016649</v>
+      </c>
+    </row>
+    <row r="456" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A456" s="1">
         <v>2048000</v>
       </c>
@@ -17169,8 +18711,12 @@
         <f>AVERAGE(B456:K456)</f>
         <v>276.60000000000002</v>
       </c>
-    </row>
-    <row r="457" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M456" s="5">
+        <f>_xlfn.STDEV.P(B456:K456)</f>
+        <v>13.879481258317979</v>
+      </c>
+    </row>
+    <row r="457" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A457" s="1">
         <v>4096000</v>
       </c>
@@ -17208,8 +18754,12 @@
         <f>AVERAGE(B457:K457)</f>
         <v>329.8</v>
       </c>
-    </row>
-    <row r="458" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M457" s="5">
+        <f>_xlfn.STDEV.P(B457:K457)</f>
+        <v>37.674394487503044</v>
+      </c>
+    </row>
+    <row r="458" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A458" s="1">
         <v>8192000</v>
       </c>
@@ -17247,8 +18797,12 @@
         <f>AVERAGE(B458:K458)</f>
         <v>418.5</v>
       </c>
-    </row>
-    <row r="459" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M458" s="5">
+        <f>_xlfn.STDEV.P(B458:K458)</f>
+        <v>44.166163519146643</v>
+      </c>
+    </row>
+    <row r="459" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A459" s="1">
         <v>16384000</v>
       </c>
@@ -17286,8 +18840,12 @@
         <f>AVERAGE(B459:K459)</f>
         <v>621.9</v>
       </c>
-    </row>
-    <row r="460" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M459" s="5">
+        <f>_xlfn.STDEV.P(B459:K459)</f>
+        <v>25.637667600622329</v>
+      </c>
+    </row>
+    <row r="460" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A460" s="1">
         <v>32768000</v>
       </c>
@@ -17325,8 +18883,12 @@
         <f>AVERAGE(B460:K460)</f>
         <v>1029.8</v>
       </c>
-    </row>
-    <row r="461" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M460" s="5">
+        <f>_xlfn.STDEV.P(B460:K460)</f>
+        <v>83.517423331901227</v>
+      </c>
+    </row>
+    <row r="461" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A461" s="1">
         <v>65536000</v>
       </c>
@@ -17364,8 +18926,12 @@
         <f>AVERAGE(B461:K461)</f>
         <v>1845.6</v>
       </c>
-    </row>
-    <row r="462" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M461" s="5">
+        <f>_xlfn.STDEV.P(B461:K461)</f>
+        <v>103.38297732218781</v>
+      </c>
+    </row>
+    <row r="462" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B462" t="s">
         <v>0</v>
       </c>
@@ -17397,7 +18963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B463" t="s">
         <v>10</v>
       </c>
@@ -17429,7 +18995,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="464" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A464" s="1">
         <v>1000</v>
       </c>
@@ -17467,8 +19033,12 @@
         <f>AVERAGE(B464:K464)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="465" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M464" s="5">
+        <f>_xlfn.STDEV.P(B464:K464)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A465" s="1">
         <v>2000</v>
       </c>
@@ -17506,8 +19076,12 @@
         <f>AVERAGE(B465:K465)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="466" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M465" s="5">
+        <f>_xlfn.STDEV.P(B465:K465)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A466" s="1">
         <v>4000</v>
       </c>
@@ -17545,8 +19119,12 @@
         <f>AVERAGE(B466:K466)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="467" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M466" s="5">
+        <f>_xlfn.STDEV.P(B466:K466)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A467" s="1">
         <v>8000</v>
       </c>
@@ -17584,8 +19162,12 @@
         <f>AVERAGE(B467:K467)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="468" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M467" s="5">
+        <f>_xlfn.STDEV.P(B467:K467)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A468" s="1">
         <v>16000</v>
       </c>
@@ -17623,8 +19205,12 @@
         <f>AVERAGE(B468:K468)</f>
         <v>1.5</v>
       </c>
-    </row>
-    <row r="469" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M468" s="5">
+        <f>_xlfn.STDEV.P(B468:K468)</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="469" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A469" s="1">
         <v>32000</v>
       </c>
@@ -17662,8 +19248,12 @@
         <f>AVERAGE(B469:K469)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="470" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M469" s="5">
+        <f>_xlfn.STDEV.P(B469:K469)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A470" s="1">
         <v>64000</v>
       </c>
@@ -17701,8 +19291,12 @@
         <f>AVERAGE(B470:K470)</f>
         <v>1.6</v>
       </c>
-    </row>
-    <row r="471" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M470" s="5">
+        <f>_xlfn.STDEV.P(B470:K470)</f>
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="471" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A471" s="1">
         <v>128000</v>
       </c>
@@ -17740,8 +19334,12 @@
         <f>AVERAGE(B471:K471)</f>
         <v>8.1</v>
       </c>
-    </row>
-    <row r="472" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M471" s="5">
+        <f>_xlfn.STDEV.P(B471:K471)</f>
+        <v>8.1049367671808525</v>
+      </c>
+    </row>
+    <row r="472" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A472" s="1">
         <v>256000</v>
       </c>
@@ -17779,8 +19377,12 @@
         <f>AVERAGE(B472:K472)</f>
         <v>9.4</v>
       </c>
-    </row>
-    <row r="473" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M472" s="5">
+        <f>_xlfn.STDEV.P(B472:K472)</f>
+        <v>7.6837490849194188</v>
+      </c>
+    </row>
+    <row r="473" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A473" s="1">
         <v>512000</v>
       </c>
@@ -17818,8 +19420,12 @@
         <f>AVERAGE(B473:K473)</f>
         <v>17.399999999999999</v>
       </c>
-    </row>
-    <row r="474" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M473" s="5">
+        <f>_xlfn.STDEV.P(B473:K473)</f>
+        <v>4.5431266766402185</v>
+      </c>
+    </row>
+    <row r="474" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A474" s="1">
         <v>1024000</v>
       </c>
@@ -17857,8 +19463,12 @@
         <f>AVERAGE(B474:K474)</f>
         <v>36.1</v>
       </c>
-    </row>
-    <row r="475" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M474" s="5">
+        <f>_xlfn.STDEV.P(B474:K474)</f>
+        <v>6.7149087856798175</v>
+      </c>
+    </row>
+    <row r="475" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A475" s="1">
         <v>2048000</v>
       </c>
@@ -17896,8 +19506,12 @@
         <f>AVERAGE(B475:K475)</f>
         <v>79.400000000000006</v>
       </c>
-    </row>
-    <row r="476" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M475" s="5">
+        <f>_xlfn.STDEV.P(B475:K475)</f>
+        <v>4.9030602688525047</v>
+      </c>
+    </row>
+    <row r="476" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A476" s="1">
         <v>4096000</v>
       </c>
@@ -17935,8 +19549,12 @@
         <f>AVERAGE(B476:K476)</f>
         <v>164.3</v>
       </c>
-    </row>
-    <row r="477" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M476" s="5">
+        <f>_xlfn.STDEV.P(B476:K476)</f>
+        <v>7.9126481028793396</v>
+      </c>
+    </row>
+    <row r="477" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A477" s="1">
         <v>8192000</v>
       </c>
@@ -17974,8 +19592,12 @@
         <f>AVERAGE(B477:K477)</f>
         <v>332.7</v>
       </c>
-    </row>
-    <row r="478" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M477" s="5">
+        <f>_xlfn.STDEV.P(B477:K477)</f>
+        <v>10.169070754006976</v>
+      </c>
+    </row>
+    <row r="478" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A478" s="1">
         <v>16384000</v>
       </c>
@@ -18013,8 +19635,12 @@
         <f>AVERAGE(B478:K478)</f>
         <v>684.5</v>
       </c>
-    </row>
-    <row r="479" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M478" s="5">
+        <f>_xlfn.STDEV.P(B478:K478)</f>
+        <v>32.52460606986655</v>
+      </c>
+    </row>
+    <row r="479" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A479" s="1">
         <v>32768000</v>
       </c>
@@ -18052,8 +19678,12 @@
         <f>AVERAGE(B479:K479)</f>
         <v>1362.6</v>
       </c>
-    </row>
-    <row r="480" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M479" s="5">
+        <f>_xlfn.STDEV.P(B479:K479)</f>
+        <v>42.984183137521647</v>
+      </c>
+    </row>
+    <row r="480" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A480" s="1">
         <v>65536000</v>
       </c>
@@ -18091,8 +19721,12 @@
         <f>AVERAGE(B480:K480)</f>
         <v>2717.7</v>
       </c>
-    </row>
-    <row r="482" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M480" s="5">
+        <f>_xlfn.STDEV.P(B480:K480)</f>
+        <v>114.17534760183567</v>
+      </c>
+    </row>
+    <row r="482" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B482" t="s">
         <v>2</v>
       </c>
@@ -18124,7 +19758,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="483" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A483" s="1">
         <v>1000</v>
       </c>
@@ -18162,8 +19796,12 @@
         <f>AVERAGE(B483:K483)</f>
         <v>34.200000000000003</v>
       </c>
-    </row>
-    <row r="484" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M483" s="5">
+        <f>_xlfn.STDEV.P(B483:K483)</f>
+        <v>9.1082380293885592</v>
+      </c>
+    </row>
+    <row r="484" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A484" s="1">
         <v>2000</v>
       </c>
@@ -18201,8 +19839,12 @@
         <f>AVERAGE(B484:K484)</f>
         <v>31.1</v>
       </c>
-    </row>
-    <row r="485" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M484" s="5">
+        <f>_xlfn.STDEV.P(B484:K484)</f>
+        <v>10.123734488813898</v>
+      </c>
+    </row>
+    <row r="485" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A485" s="1">
         <v>4000</v>
       </c>
@@ -18240,8 +19882,12 @@
         <f>AVERAGE(B485:K485)</f>
         <v>31.4</v>
       </c>
-    </row>
-    <row r="486" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M485" s="5">
+        <f>_xlfn.STDEV.P(B485:K485)</f>
+        <v>0.4898979485566356</v>
+      </c>
+    </row>
+    <row r="486" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A486" s="1">
         <v>8000</v>
       </c>
@@ -18279,8 +19925,12 @@
         <f>AVERAGE(B486:K486)</f>
         <v>31.1</v>
       </c>
-    </row>
-    <row r="487" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M486" s="5">
+        <f>_xlfn.STDEV.P(B486:K486)</f>
+        <v>12.012077255828817</v>
+      </c>
+    </row>
+    <row r="487" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A487" s="1">
         <v>16000</v>
       </c>
@@ -18318,8 +19968,12 @@
         <f>AVERAGE(B487:K487)</f>
         <v>33</v>
       </c>
-    </row>
-    <row r="488" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M487" s="5">
+        <f>_xlfn.STDEV.P(B487:K487)</f>
+        <v>8.5556998544829757</v>
+      </c>
+    </row>
+    <row r="488" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A488" s="1">
         <v>32000</v>
       </c>
@@ -18357,8 +20011,12 @@
         <f>AVERAGE(B488:K488)</f>
         <v>31.1</v>
       </c>
-    </row>
-    <row r="489" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M488" s="5">
+        <f>_xlfn.STDEV.P(B488:K488)</f>
+        <v>6.9491006612366757</v>
+      </c>
+    </row>
+    <row r="489" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A489" s="1">
         <v>64000</v>
       </c>
@@ -18396,8 +20054,12 @@
         <f>AVERAGE(B489:K489)</f>
         <v>32.700000000000003</v>
       </c>
-    </row>
-    <row r="490" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M489" s="5">
+        <f>_xlfn.STDEV.P(B489:K489)</f>
+        <v>8.4267431431128834</v>
+      </c>
+    </row>
+    <row r="490" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A490" s="1">
         <v>128000</v>
       </c>
@@ -18435,8 +20097,12 @@
         <f>AVERAGE(B490:K490)</f>
         <v>32.700000000000003</v>
       </c>
-    </row>
-    <row r="491" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M490" s="5">
+        <f>_xlfn.STDEV.P(B490:K490)</f>
+        <v>4.7968739820845832</v>
+      </c>
+    </row>
+    <row r="491" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A491" s="1">
         <v>256000</v>
       </c>
@@ -18474,8 +20140,12 @@
         <f>AVERAGE(B491:K491)</f>
         <v>42.2</v>
       </c>
-    </row>
-    <row r="492" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M491" s="5">
+        <f>_xlfn.STDEV.P(B491:K491)</f>
+        <v>9.7959175170067656</v>
+      </c>
+    </row>
+    <row r="492" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A492" s="1">
         <v>512000</v>
       </c>
@@ -18513,8 +20183,12 @@
         <f>AVERAGE(B492:K492)</f>
         <v>57.5</v>
       </c>
-    </row>
-    <row r="493" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M492" s="5">
+        <f>_xlfn.STDEV.P(B492:K492)</f>
+        <v>10.249390225764653</v>
+      </c>
+    </row>
+    <row r="493" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A493" s="1">
         <v>1024000</v>
       </c>
@@ -18552,8 +20226,12 @@
         <f>AVERAGE(B493:K493)</f>
         <v>88.8</v>
       </c>
-    </row>
-    <row r="494" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M493" s="5">
+        <f>_xlfn.STDEV.P(B493:K493)</f>
+        <v>7.3184697854127947</v>
+      </c>
+    </row>
+    <row r="494" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A494" s="1">
         <v>2048000</v>
       </c>
@@ -18591,8 +20269,12 @@
         <f>AVERAGE(B494:K494)</f>
         <v>128</v>
       </c>
-    </row>
-    <row r="495" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M494" s="5">
+        <f>_xlfn.STDEV.P(B494:K494)</f>
+        <v>11.764352935882194</v>
+      </c>
+    </row>
+    <row r="495" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A495" s="1">
         <v>4096000</v>
       </c>
@@ -18630,8 +20312,12 @@
         <f>AVERAGE(B495:K495)</f>
         <v>221.9</v>
       </c>
-    </row>
-    <row r="496" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M495" s="5">
+        <f>_xlfn.STDEV.P(B495:K495)</f>
+        <v>11.793642355099632</v>
+      </c>
+    </row>
+    <row r="496" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A496" s="1">
         <v>8192000</v>
       </c>
@@ -18669,8 +20355,12 @@
         <f>AVERAGE(B496:K496)</f>
         <v>393.7</v>
       </c>
-    </row>
-    <row r="497" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M496" s="5">
+        <f>_xlfn.STDEV.P(B496:K496)</f>
+        <v>18.232114523554312</v>
+      </c>
+    </row>
+    <row r="497" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A497" s="1">
         <v>16384000</v>
       </c>
@@ -18708,8 +20398,12 @@
         <f>AVERAGE(B497:K497)</f>
         <v>758.2</v>
       </c>
-    </row>
-    <row r="498" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M497" s="5">
+        <f>_xlfn.STDEV.P(B497:K497)</f>
+        <v>34.333074432680803</v>
+      </c>
+    </row>
+    <row r="498" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A498" s="1">
         <v>32768000</v>
       </c>
@@ -18747,8 +20441,12 @@
         <f>AVERAGE(B498:K498)</f>
         <v>1434.5</v>
       </c>
-    </row>
-    <row r="499" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M498" s="5">
+        <f>_xlfn.STDEV.P(B498:K498)</f>
+        <v>34.243977572706122</v>
+      </c>
+    </row>
+    <row r="499" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A499" s="1">
         <v>65536000</v>
       </c>
@@ -18786,8 +20484,12 @@
         <f>AVERAGE(B499:K499)</f>
         <v>2720.2</v>
       </c>
-    </row>
-    <row r="501" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M499" s="5">
+        <f>_xlfn.STDEV.P(B499:K499)</f>
+        <v>73.001095882185226</v>
+      </c>
+    </row>
+    <row r="501" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B501" t="s">
         <v>3</v>
       </c>
@@ -18819,7 +20521,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="502" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A502" s="1">
         <v>1000</v>
       </c>
@@ -18857,8 +20559,12 @@
         <f>AVERAGE(B502:K502)</f>
         <v>40.200000000000003</v>
       </c>
-    </row>
-    <row r="503" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M502" s="5">
+        <f>_xlfn.STDEV.P(B502:K502)</f>
+        <v>7.7304592360350748</v>
+      </c>
+    </row>
+    <row r="503" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A503" s="1">
         <v>2000</v>
       </c>
@@ -18896,8 +20602,12 @@
         <f>AVERAGE(B503:K503)</f>
         <v>36.1</v>
       </c>
-    </row>
-    <row r="504" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M503" s="5">
+        <f>_xlfn.STDEV.P(B503:K503)</f>
+        <v>7.1477269114033728</v>
+      </c>
+    </row>
+    <row r="504" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A504" s="1">
         <v>4000</v>
       </c>
@@ -18935,8 +20645,12 @@
         <f>AVERAGE(B504:K504)</f>
         <v>35.9</v>
       </c>
-    </row>
-    <row r="505" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M504" s="5">
+        <f>_xlfn.STDEV.P(B504:K504)</f>
+        <v>7.2725511342306834</v>
+      </c>
+    </row>
+    <row r="505" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A505" s="1">
         <v>8000</v>
       </c>
@@ -18974,8 +20688,12 @@
         <f>AVERAGE(B505:K505)</f>
         <v>36.1</v>
       </c>
-    </row>
-    <row r="506" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M505" s="5">
+        <f>_xlfn.STDEV.P(B505:K505)</f>
+        <v>6.9346953790343235</v>
+      </c>
+    </row>
+    <row r="506" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A506" s="1">
         <v>16000</v>
       </c>
@@ -19013,8 +20731,12 @@
         <f>AVERAGE(B506:K506)</f>
         <v>33.1</v>
       </c>
-    </row>
-    <row r="507" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M506" s="5">
+        <f>_xlfn.STDEV.P(B506:K506)</f>
+        <v>4.3231932642434572</v>
+      </c>
+    </row>
+    <row r="507" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A507" s="1">
         <v>32000</v>
       </c>
@@ -19052,8 +20774,12 @@
         <f>AVERAGE(B507:K507)</f>
         <v>37.5</v>
       </c>
-    </row>
-    <row r="508" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M507" s="5">
+        <f>_xlfn.STDEV.P(B507:K507)</f>
+        <v>7.9780950107152773</v>
+      </c>
+    </row>
+    <row r="508" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A508" s="1">
         <v>64000</v>
       </c>
@@ -19091,8 +20817,12 @@
         <f>AVERAGE(B508:K508)</f>
         <v>40.4</v>
       </c>
-    </row>
-    <row r="509" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M508" s="5">
+        <f>_xlfn.STDEV.P(B508:K508)</f>
+        <v>7.6967525619575428</v>
+      </c>
+    </row>
+    <row r="509" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A509" s="1">
         <v>128000</v>
       </c>
@@ -19130,8 +20860,12 @@
         <f>AVERAGE(B509:K509)</f>
         <v>40.4</v>
       </c>
-    </row>
-    <row r="510" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M509" s="5">
+        <f>_xlfn.STDEV.P(B509:K509)</f>
+        <v>7.4859869088851605</v>
+      </c>
+    </row>
+    <row r="510" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A510" s="1">
         <v>256000</v>
       </c>
@@ -19169,8 +20903,12 @@
         <f>AVERAGE(B510:K510)</f>
         <v>43.5</v>
       </c>
-    </row>
-    <row r="511" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M510" s="5">
+        <f>_xlfn.STDEV.P(B510:K510)</f>
+        <v>6.0207972893961479</v>
+      </c>
+    </row>
+    <row r="511" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A511" s="1">
         <v>512000</v>
       </c>
@@ -19208,8 +20946,12 @@
         <f>AVERAGE(B511:K511)</f>
         <v>51</v>
       </c>
-    </row>
-    <row r="512" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M511" s="5">
+        <f>_xlfn.STDEV.P(B511:K511)</f>
+        <v>6.7823299831252681</v>
+      </c>
+    </row>
+    <row r="512" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A512" s="1">
         <v>1024000</v>
       </c>
@@ -19247,8 +20989,12 @@
         <f>AVERAGE(B512:K512)</f>
         <v>69.900000000000006</v>
       </c>
-    </row>
-    <row r="513" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M512" s="5">
+        <f>_xlfn.STDEV.P(B512:K512)</f>
+        <v>7.712976079309465</v>
+      </c>
+    </row>
+    <row r="513" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A513" s="1">
         <v>2048000</v>
       </c>
@@ -19286,8 +21032,12 @@
         <f>AVERAGE(B513:K513)</f>
         <v>101.5</v>
       </c>
-    </row>
-    <row r="514" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M513" s="5">
+        <f>_xlfn.STDEV.P(B513:K513)</f>
+        <v>7.9151752981219561</v>
+      </c>
+    </row>
+    <row r="514" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A514" s="1">
         <v>4096000</v>
       </c>
@@ -19325,8 +21075,12 @@
         <f>AVERAGE(B514:K514)</f>
         <v>162.6</v>
       </c>
-    </row>
-    <row r="515" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M514" s="5">
+        <f>_xlfn.STDEV.P(B514:K514)</f>
+        <v>7.4993333037010697</v>
+      </c>
+    </row>
+    <row r="515" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A515" s="1">
         <v>8192000</v>
       </c>
@@ -19364,8 +21118,12 @@
         <f>AVERAGE(B515:K515)</f>
         <v>284.39999999999998</v>
       </c>
-    </row>
-    <row r="516" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M515" s="5">
+        <f>_xlfn.STDEV.P(B515:K515)</f>
+        <v>15.441502517566093</v>
+      </c>
+    </row>
+    <row r="516" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A516" s="1">
         <v>16384000</v>
       </c>
@@ -19403,8 +21161,12 @@
         <f>AVERAGE(B516:K516)</f>
         <v>531.29999999999995</v>
       </c>
-    </row>
-    <row r="517" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M516" s="5">
+        <f>_xlfn.STDEV.P(B516:K516)</f>
+        <v>16.006561154726519</v>
+      </c>
+    </row>
+    <row r="517" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A517" s="1">
         <v>32768000</v>
       </c>
@@ -19442,8 +21204,12 @@
         <f>AVERAGE(B517:K517)</f>
         <v>1009.4</v>
       </c>
-    </row>
-    <row r="518" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M517" s="5">
+        <f>_xlfn.STDEV.P(B517:K517)</f>
+        <v>48.029574222555837</v>
+      </c>
+    </row>
+    <row r="518" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A518" s="1">
         <v>65536000</v>
       </c>
@@ -19481,8 +21247,12 @@
         <f>AVERAGE(B518:K518)</f>
         <v>1829.6</v>
       </c>
-    </row>
-    <row r="520" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M518" s="5">
+        <f>_xlfn.STDEV.P(B518:K518)</f>
+        <v>99.681693404556484</v>
+      </c>
+    </row>
+    <row r="520" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B520" t="s">
         <v>4</v>
       </c>
@@ -19514,7 +21284,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="521" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A521" s="1">
         <v>1000</v>
       </c>
@@ -19552,8 +21322,12 @@
         <f>AVERAGE(B521:K521)</f>
         <v>60.7</v>
       </c>
-    </row>
-    <row r="522" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M521" s="5">
+        <f>_xlfn.STDEV.P(B521:K521)</f>
+        <v>4.5836666545463363</v>
+      </c>
+    </row>
+    <row r="522" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A522" s="1">
         <v>2000</v>
       </c>
@@ -19591,8 +21365,12 @@
         <f>AVERAGE(B522:K522)</f>
         <v>56.2</v>
       </c>
-    </row>
-    <row r="523" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M522" s="5">
+        <f>_xlfn.STDEV.P(B522:K522)</f>
+        <v>7.5206382707852661</v>
+      </c>
+    </row>
+    <row r="523" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A523" s="1">
         <v>4000</v>
       </c>
@@ -19630,8 +21408,12 @@
         <f>AVERAGE(B523:K523)</f>
         <v>58.1</v>
       </c>
-    </row>
-    <row r="524" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M523" s="5">
+        <f>_xlfn.STDEV.P(B523:K523)</f>
+        <v>7.0632853545641208</v>
+      </c>
+    </row>
+    <row r="524" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A524" s="1">
         <v>8000</v>
       </c>
@@ -19669,8 +21451,12 @@
         <f>AVERAGE(B524:K524)</f>
         <v>64.2</v>
       </c>
-    </row>
-    <row r="525" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M524" s="5">
+        <f>_xlfn.STDEV.P(B524:K524)</f>
+        <v>4.6216880033165371</v>
+      </c>
+    </row>
+    <row r="525" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A525" s="1">
         <v>16000</v>
       </c>
@@ -19708,8 +21494,12 @@
         <f>AVERAGE(B525:K525)</f>
         <v>60.7</v>
       </c>
-    </row>
-    <row r="526" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M525" s="5">
+        <f>_xlfn.STDEV.P(B525:K525)</f>
+        <v>4.6054315758677822</v>
+      </c>
+    </row>
+    <row r="526" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A526" s="1">
         <v>32000</v>
       </c>
@@ -19747,8 +21537,12 @@
         <f>AVERAGE(B526:K526)</f>
         <v>56.2</v>
       </c>
-    </row>
-    <row r="527" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M526" s="5">
+        <f>_xlfn.STDEV.P(B526:K526)</f>
+        <v>7.5339232807349452</v>
+      </c>
+    </row>
+    <row r="527" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A527" s="1">
         <v>64000</v>
       </c>
@@ -19786,8 +21580,12 @@
         <f>AVERAGE(B527:K527)</f>
         <v>62.4</v>
       </c>
-    </row>
-    <row r="528" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M527" s="5">
+        <f>_xlfn.STDEV.P(B527:K527)</f>
+        <v>0.4898979485566356</v>
+      </c>
+    </row>
+    <row r="528" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A528" s="1">
         <v>128000</v>
       </c>
@@ -19825,8 +21623,12 @@
         <f>AVERAGE(B528:K528)</f>
         <v>59.1</v>
       </c>
-    </row>
-    <row r="529" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M528" s="5">
+        <f>_xlfn.STDEV.P(B528:K528)</f>
+        <v>9.3856273098818495</v>
+      </c>
+    </row>
+    <row r="529" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A529" s="1">
         <v>256000</v>
       </c>
@@ -19864,8 +21666,12 @@
         <f>AVERAGE(B529:K529)</f>
         <v>67.3</v>
       </c>
-    </row>
-    <row r="530" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M529" s="5">
+        <f>_xlfn.STDEV.P(B529:K529)</f>
+        <v>7.457211275000863</v>
+      </c>
+    </row>
+    <row r="530" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A530" s="1">
         <v>512000</v>
       </c>
@@ -19903,8 +21709,12 @@
         <f>AVERAGE(B530:K530)</f>
         <v>74.599999999999994</v>
       </c>
-    </row>
-    <row r="531" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M530" s="5">
+        <f>_xlfn.STDEV.P(B530:K530)</f>
+        <v>6.3118935352237999</v>
+      </c>
+    </row>
+    <row r="531" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A531" s="1">
         <v>1024000</v>
       </c>
@@ -19942,8 +21752,12 @@
         <f>AVERAGE(B531:K531)</f>
         <v>80.8</v>
       </c>
-    </row>
-    <row r="532" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M531" s="5">
+        <f>_xlfn.STDEV.P(B531:K531)</f>
+        <v>6.1122827159744499</v>
+      </c>
+    </row>
+    <row r="532" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A532" s="1">
         <v>2048000</v>
       </c>
@@ -19981,8 +21795,12 @@
         <f>AVERAGE(B532:K532)</f>
         <v>107.2</v>
       </c>
-    </row>
-    <row r="533" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M532" s="5">
+        <f>_xlfn.STDEV.P(B532:K532)</f>
+        <v>4.7707441767506253</v>
+      </c>
+    </row>
+    <row r="533" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A533" s="1">
         <v>4096000</v>
       </c>
@@ -20020,8 +21838,12 @@
         <f>AVERAGE(B533:K533)</f>
         <v>157.4</v>
       </c>
-    </row>
-    <row r="534" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M533" s="5">
+        <f>_xlfn.STDEV.P(B533:K533)</f>
+        <v>5.2191953402799562</v>
+      </c>
+    </row>
+    <row r="534" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A534" s="1">
         <v>8192000</v>
       </c>
@@ -20059,8 +21881,12 @@
         <f>AVERAGE(B534:K534)</f>
         <v>259.3</v>
       </c>
-    </row>
-    <row r="535" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M534" s="5">
+        <f>_xlfn.STDEV.P(B534:K534)</f>
+        <v>7.8108898340714044</v>
+      </c>
+    </row>
+    <row r="535" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A535" s="1">
         <v>16384000</v>
       </c>
@@ -20098,8 +21924,12 @@
         <f>AVERAGE(B535:K535)</f>
         <v>468.9</v>
       </c>
-    </row>
-    <row r="536" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M535" s="5">
+        <f>_xlfn.STDEV.P(B535:K535)</f>
+        <v>9.8127468121826116</v>
+      </c>
+    </row>
+    <row r="536" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A536" s="1">
         <v>32768000</v>
       </c>
@@ -20137,8 +21967,12 @@
         <f>AVERAGE(B536:K536)</f>
         <v>856</v>
       </c>
-    </row>
-    <row r="537" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M536" s="5">
+        <f>_xlfn.STDEV.P(B536:K536)</f>
+        <v>13.660161053223348</v>
+      </c>
+    </row>
+    <row r="537" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A537" s="1">
         <v>65536000</v>
       </c>
@@ -20176,8 +22010,12 @@
         <f>AVERAGE(B537:K537)</f>
         <v>1589</v>
       </c>
-    </row>
-    <row r="539" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M537" s="5">
+        <f>_xlfn.STDEV.P(B537:K537)</f>
+        <v>33.193372832539929</v>
+      </c>
+    </row>
+    <row r="539" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B539" t="s">
         <v>5</v>
       </c>
@@ -20209,7 +22047,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="540" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A540" s="1">
         <v>1000</v>
       </c>
@@ -20247,8 +22085,12 @@
         <f>AVERAGE(B540:K540)</f>
         <v>118.5</v>
       </c>
-    </row>
-    <row r="541" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M540" s="5">
+        <f>_xlfn.STDEV.P(B540:K540)</f>
+        <v>12.769103335786738</v>
+      </c>
+    </row>
+    <row r="541" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A541" s="1">
         <v>2000</v>
       </c>
@@ -20286,8 +22128,12 @@
         <f>AVERAGE(B541:K541)</f>
         <v>118.5</v>
       </c>
-    </row>
-    <row r="542" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M541" s="5">
+        <f>_xlfn.STDEV.P(B541:K541)</f>
+        <v>10.259142264341596</v>
+      </c>
+    </row>
+    <row r="542" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A542" s="1">
         <v>4000</v>
       </c>
@@ -20325,8 +22171,12 @@
         <f>AVERAGE(B542:K542)</f>
         <v>112.3</v>
       </c>
-    </row>
-    <row r="543" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M542" s="5">
+        <f>_xlfn.STDEV.P(B542:K542)</f>
+        <v>6.1163714733492114</v>
+      </c>
+    </row>
+    <row r="543" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A543" s="1">
         <v>8000</v>
       </c>
@@ -20364,8 +22214,12 @@
         <f>AVERAGE(B543:K543)</f>
         <v>119</v>
       </c>
-    </row>
-    <row r="544" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M543" s="5">
+        <f>_xlfn.STDEV.P(B543:K543)</f>
+        <v>7.5762787699503242</v>
+      </c>
+    </row>
+    <row r="544" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A544" s="1">
         <v>16000</v>
       </c>
@@ -20403,8 +22257,12 @@
         <f>AVERAGE(B544:K544)</f>
         <v>121.8</v>
       </c>
-    </row>
-    <row r="545" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M544" s="5">
+        <f>_xlfn.STDEV.P(B544:K544)</f>
+        <v>9.6104110213871703</v>
+      </c>
+    </row>
+    <row r="545" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A545" s="1">
         <v>32000</v>
       </c>
@@ -20442,8 +22300,12 @@
         <f>AVERAGE(B545:K545)</f>
         <v>117</v>
       </c>
-    </row>
-    <row r="546" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M545" s="5">
+        <f>_xlfn.STDEV.P(B545:K545)</f>
+        <v>7.8358152096638927</v>
+      </c>
+    </row>
+    <row r="546" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A546" s="1">
         <v>64000</v>
       </c>
@@ -20481,8 +22343,12 @@
         <f>AVERAGE(B546:K546)</f>
         <v>118.6</v>
       </c>
-    </row>
-    <row r="547" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M546" s="5">
+        <f>_xlfn.STDEV.P(B546:K546)</f>
+        <v>8.0523288556789581</v>
+      </c>
+    </row>
+    <row r="547" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A547" s="1">
         <v>128000</v>
       </c>
@@ -20520,8 +22386,12 @@
         <f>AVERAGE(B547:K547)</f>
         <v>121.5</v>
       </c>
-    </row>
-    <row r="548" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M547" s="5">
+        <f>_xlfn.STDEV.P(B547:K547)</f>
+        <v>6.2649820430708338</v>
+      </c>
+    </row>
+    <row r="548" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A548" s="1">
         <v>256000</v>
       </c>
@@ -20559,8 +22429,12 @@
         <f>AVERAGE(B548:K548)</f>
         <v>117.4</v>
       </c>
-    </row>
-    <row r="549" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M548" s="5">
+        <f>_xlfn.STDEV.P(B548:K548)</f>
+        <v>8.2121860670591253</v>
+      </c>
+    </row>
+    <row r="549" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A549" s="1">
         <v>512000</v>
       </c>
@@ -20598,8 +22472,12 @@
         <f>AVERAGE(B549:K549)</f>
         <v>124.9</v>
       </c>
-    </row>
-    <row r="550" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M549" s="5">
+        <f>_xlfn.STDEV.P(B549:K549)</f>
+        <v>7.1617037079175496</v>
+      </c>
+    </row>
+    <row r="550" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A550" s="1">
         <v>1024000</v>
       </c>
@@ -20637,8 +22515,12 @@
         <f>AVERAGE(B550:K550)</f>
         <v>145.19999999999999</v>
       </c>
-    </row>
-    <row r="551" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M550" s="5">
+        <f>_xlfn.STDEV.P(B550:K550)</f>
+        <v>7.3184697854127956</v>
+      </c>
+    </row>
+    <row r="551" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A551" s="1">
         <v>2048000</v>
       </c>
@@ -20676,8 +22558,12 @@
         <f>AVERAGE(B551:K551)</f>
         <v>164</v>
       </c>
-    </row>
-    <row r="552" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M551" s="5">
+        <f>_xlfn.STDEV.P(B551:K551)</f>
+        <v>7.8230428862431785</v>
+      </c>
+    </row>
+    <row r="552" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A552" s="1">
         <v>4096000</v>
       </c>
@@ -20715,8 +22601,12 @@
         <f>AVERAGE(B552:K552)</f>
         <v>204.4</v>
       </c>
-    </row>
-    <row r="553" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M552" s="5">
+        <f>_xlfn.STDEV.P(B552:K552)</f>
+        <v>10.669582934679312</v>
+      </c>
+    </row>
+    <row r="553" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A553" s="1">
         <v>8192000</v>
       </c>
@@ -20754,8 +22644,12 @@
         <f>AVERAGE(B553:K553)</f>
         <v>304.39999999999998</v>
       </c>
-    </row>
-    <row r="554" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M553" s="5">
+        <f>_xlfn.STDEV.P(B553:K553)</f>
+        <v>8.2121860670591236</v>
+      </c>
+    </row>
+    <row r="554" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A554" s="1">
         <v>16384000</v>
       </c>
@@ -20793,8 +22687,12 @@
         <f>AVERAGE(B554:K554)</f>
         <v>508</v>
       </c>
-    </row>
-    <row r="555" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M554" s="5">
+        <f>_xlfn.STDEV.P(B554:K554)</f>
+        <v>17.088007490635061</v>
+      </c>
+    </row>
+    <row r="555" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A555" s="1">
         <v>32768000</v>
       </c>
@@ -20832,8 +22730,12 @@
         <f>AVERAGE(B555:K555)</f>
         <v>901.1</v>
       </c>
-    </row>
-    <row r="556" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M555" s="5">
+        <f>_xlfn.STDEV.P(B555:K555)</f>
+        <v>18.387223825254317</v>
+      </c>
+    </row>
+    <row r="556" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A556" s="1">
         <v>65536000</v>
       </c>
@@ -20871,8 +22773,12 @@
         <f>AVERAGE(B556:K556)</f>
         <v>1670.5</v>
       </c>
-    </row>
-    <row r="558" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M556" s="5">
+        <f>_xlfn.STDEV.P(B556:K556)</f>
+        <v>52.854990303660074</v>
+      </c>
+    </row>
+    <row r="558" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B558" t="s">
         <v>6</v>
       </c>
@@ -20904,7 +22810,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="559" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A559" s="1">
         <v>1000</v>
       </c>
@@ -20942,8 +22848,12 @@
         <f>AVERAGE(B559:K559)</f>
         <v>240.6</v>
       </c>
-    </row>
-    <row r="560" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M559" s="5">
+        <f>_xlfn.STDEV.P(B559:K559)</f>
+        <v>27.459788782873037</v>
+      </c>
+    </row>
+    <row r="560" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A560" s="1">
         <v>2000</v>
       </c>
@@ -20981,8 +22891,12 @@
         <f>AVERAGE(B560:K560)</f>
         <v>235.9</v>
       </c>
-    </row>
-    <row r="561" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M560" s="5">
+        <f>_xlfn.STDEV.P(B560:K560)</f>
+        <v>16.201543136380558</v>
+      </c>
+    </row>
+    <row r="561" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A561" s="1">
         <v>4000</v>
       </c>
@@ -21020,8 +22934,12 @@
         <f>AVERAGE(B561:K561)</f>
         <v>243.6</v>
       </c>
-    </row>
-    <row r="562" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M561" s="5">
+        <f>_xlfn.STDEV.P(B561:K561)</f>
+        <v>15.831613941730639</v>
+      </c>
+    </row>
+    <row r="562" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A562" s="1">
         <v>8000</v>
       </c>
@@ -21059,8 +22977,12 @@
         <f>AVERAGE(B562:K562)</f>
         <v>242.2</v>
       </c>
-    </row>
-    <row r="563" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M562" s="5">
+        <f>_xlfn.STDEV.P(B562:K562)</f>
+        <v>21.103554203024665</v>
+      </c>
+    </row>
+    <row r="563" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A563" s="1">
         <v>16000</v>
       </c>
@@ -21098,8 +23020,12 @@
         <f>AVERAGE(B563:K563)</f>
         <v>245.1</v>
       </c>
-    </row>
-    <row r="564" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M563" s="5">
+        <f>_xlfn.STDEV.P(B563:K563)</f>
+        <v>17.397988389466182</v>
+      </c>
+    </row>
+    <row r="564" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A564" s="1">
         <v>32000</v>
       </c>
@@ -21137,8 +23063,12 @@
         <f>AVERAGE(B564:K564)</f>
         <v>239</v>
       </c>
-    </row>
-    <row r="565" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M564" s="5">
+        <f>_xlfn.STDEV.P(B564:K564)</f>
+        <v>19.707866449720019</v>
+      </c>
+    </row>
+    <row r="565" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A565" s="1">
         <v>64000</v>
       </c>
@@ -21176,8 +23106,12 @@
         <f>AVERAGE(B565:K565)</f>
         <v>237.6</v>
       </c>
-    </row>
-    <row r="566" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M565" s="5">
+        <f>_xlfn.STDEV.P(B565:K565)</f>
+        <v>15.402597183592123</v>
+      </c>
+    </row>
+    <row r="566" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A566" s="1">
         <v>128000</v>
       </c>
@@ -21215,8 +23149,12 @@
         <f>AVERAGE(B566:K566)</f>
         <v>241.9</v>
       </c>
-    </row>
-    <row r="567" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M566" s="5">
+        <f>_xlfn.STDEV.P(B566:K566)</f>
+        <v>16.361234672236691</v>
+      </c>
+    </row>
+    <row r="567" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A567" s="1">
         <v>256000</v>
       </c>
@@ -21254,8 +23192,12 @@
         <f>AVERAGE(B567:K567)</f>
         <v>245.2</v>
       </c>
-    </row>
-    <row r="568" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M567" s="5">
+        <f>_xlfn.STDEV.P(B567:K567)</f>
+        <v>15.791136754521506</v>
+      </c>
+    </row>
+    <row r="568" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A568" s="1">
         <v>512000</v>
       </c>
@@ -21293,8 +23235,12 @@
         <f>AVERAGE(B568:K568)</f>
         <v>247</v>
       </c>
-    </row>
-    <row r="569" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M568" s="5">
+        <f>_xlfn.STDEV.P(B568:K568)</f>
+        <v>13.198484761517134</v>
+      </c>
+    </row>
+    <row r="569" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A569" s="1">
         <v>1024000</v>
       </c>
@@ -21332,8 +23278,12 @@
         <f>AVERAGE(B569:K569)</f>
         <v>254.2</v>
       </c>
-    </row>
-    <row r="570" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M569" s="5">
+        <f>_xlfn.STDEV.P(B569:K569)</f>
+        <v>15.765785740013088</v>
+      </c>
+    </row>
+    <row r="570" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A570" s="1">
         <v>2048000</v>
       </c>
@@ -21371,8 +23321,12 @@
         <f>AVERAGE(B570:K570)</f>
         <v>270</v>
       </c>
-    </row>
-    <row r="571" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M570" s="5">
+        <f>_xlfn.STDEV.P(B570:K570)</f>
+        <v>10.009995004993758</v>
+      </c>
+    </row>
+    <row r="571" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A571" s="1">
         <v>4096000</v>
       </c>
@@ -21410,8 +23364,12 @@
         <f>AVERAGE(B571:K571)</f>
         <v>318.5</v>
       </c>
-    </row>
-    <row r="572" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M571" s="5">
+        <f>_xlfn.STDEV.P(B571:K571)</f>
+        <v>12.265806129235861</v>
+      </c>
+    </row>
+    <row r="572" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A572" s="1">
         <v>8192000</v>
       </c>
@@ -21449,8 +23407,12 @@
         <f>AVERAGE(B572:K572)</f>
         <v>421.4</v>
       </c>
-    </row>
-    <row r="573" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M572" s="5">
+        <f>_xlfn.STDEV.P(B572:K572)</f>
+        <v>17.263835031649254</v>
+      </c>
+    </row>
+    <row r="573" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A573" s="1">
         <v>16384000</v>
       </c>
@@ -21488,8 +23450,12 @@
         <f>AVERAGE(B573:K573)</f>
         <v>640.5</v>
       </c>
-    </row>
-    <row r="574" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M573" s="5">
+        <f>_xlfn.STDEV.P(B573:K573)</f>
+        <v>54.312521576520453</v>
+      </c>
+    </row>
+    <row r="574" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A574" s="1">
         <v>32768000</v>
       </c>
@@ -21527,8 +23493,12 @@
         <f>AVERAGE(B574:K574)</f>
         <v>1040.8</v>
       </c>
-    </row>
-    <row r="575" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M574" s="5">
+        <f>_xlfn.STDEV.P(B574:K574)</f>
+        <v>74.707161637958123</v>
+      </c>
+    </row>
+    <row r="575" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A575" s="1">
         <v>65536000</v>
       </c>
@@ -21566,8 +23536,12 @@
         <f>AVERAGE(B575:K575)</f>
         <v>1740.4</v>
       </c>
-    </row>
-    <row r="576" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M575" s="5">
+        <f>_xlfn.STDEV.P(B575:K575)</f>
+        <v>45.915574699659373</v>
+      </c>
+    </row>
+    <row r="576" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B576" t="s">
         <v>0</v>
       </c>
@@ -21599,7 +23573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B577" t="s">
         <v>11</v>
       </c>
@@ -21631,7 +23605,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="578" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A578" s="1">
         <v>1000</v>
       </c>
@@ -21669,8 +23643,12 @@
         <f>AVERAGE(B578:K578)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="579" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M578" s="5">
+        <f>_xlfn.STDEV.P(B578:K578)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="579" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A579" s="1">
         <v>2000</v>
       </c>
@@ -21708,8 +23686,12 @@
         <f>AVERAGE(B579:K579)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="580" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M579" s="5">
+        <f>_xlfn.STDEV.P(B579:K579)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="580" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A580" s="1">
         <v>4000</v>
       </c>
@@ -21747,8 +23729,12 @@
         <f>AVERAGE(B580:K580)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="581" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M580" s="5">
+        <f>_xlfn.STDEV.P(B580:K580)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="581" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A581" s="1">
         <v>8000</v>
       </c>
@@ -21786,8 +23772,12 @@
         <f>AVERAGE(B581:K581)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="582" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M581" s="5">
+        <f>_xlfn.STDEV.P(B581:K581)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="582" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A582" s="1">
         <v>16000</v>
       </c>
@@ -21825,8 +23815,12 @@
         <f>AVERAGE(B582:K582)</f>
         <v>3.3</v>
       </c>
-    </row>
-    <row r="583" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M582" s="5">
+        <f>_xlfn.STDEV.P(B582:K582)</f>
+        <v>6.6037867924396227</v>
+      </c>
+    </row>
+    <row r="583" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A583" s="1">
         <v>32000</v>
       </c>
@@ -21864,8 +23858,12 @@
         <f>AVERAGE(B583:K583)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="584" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M583" s="5">
+        <f>_xlfn.STDEV.P(B583:K583)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="584" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A584" s="1">
         <v>64000</v>
       </c>
@@ -21903,8 +23901,12 @@
         <f>AVERAGE(B584:K584)</f>
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="585" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M584" s="5">
+        <f>_xlfn.STDEV.P(B584:K584)</f>
+        <v>7.0313583324987778</v>
+      </c>
+    </row>
+    <row r="585" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A585" s="1">
         <v>128000</v>
       </c>
@@ -21942,8 +23944,12 @@
         <f>AVERAGE(B585:K585)</f>
         <v>1.5</v>
       </c>
-    </row>
-    <row r="586" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M585" s="5">
+        <f>_xlfn.STDEV.P(B585:K585)</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="586" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A586" s="1">
         <v>256000</v>
       </c>
@@ -21981,8 +23987,12 @@
         <f>AVERAGE(B586:K586)</f>
         <v>10.9</v>
       </c>
-    </row>
-    <row r="587" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M586" s="5">
+        <f>_xlfn.STDEV.P(B586:K586)</f>
+        <v>7.1477269114033728</v>
+      </c>
+    </row>
+    <row r="587" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A587" s="1">
         <v>512000</v>
       </c>
@@ -22020,8 +24030,12 @@
         <f>AVERAGE(B587:K587)</f>
         <v>19</v>
       </c>
-    </row>
-    <row r="588" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M587" s="5">
+        <f>_xlfn.STDEV.P(B587:K587)</f>
+        <v>6.2609903369994111</v>
+      </c>
+    </row>
+    <row r="588" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A588" s="1">
         <v>1024000</v>
       </c>
@@ -22059,8 +24073,12 @@
         <f>AVERAGE(B588:K588)</f>
         <v>34.200000000000003</v>
       </c>
-    </row>
-    <row r="589" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M588" s="5">
+        <f>_xlfn.STDEV.P(B588:K588)</f>
+        <v>6.4156059729381756</v>
+      </c>
+    </row>
+    <row r="589" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A589" s="1">
         <v>2048000</v>
       </c>
@@ -22098,8 +24116,12 @@
         <f>AVERAGE(B589:K589)</f>
         <v>76.599999999999994</v>
       </c>
-    </row>
-    <row r="590" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M589" s="5">
+        <f>_xlfn.STDEV.P(B589:K589)</f>
+        <v>4.56508488420533</v>
+      </c>
+    </row>
+    <row r="590" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A590" s="1">
         <v>4096000</v>
       </c>
@@ -22137,8 +24159,12 @@
         <f>AVERAGE(B590:K590)</f>
         <v>162.5</v>
       </c>
-    </row>
-    <row r="591" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M590" s="5">
+        <f>_xlfn.STDEV.P(B590:K590)</f>
+        <v>7.5663729752107782</v>
+      </c>
+    </row>
+    <row r="591" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A591" s="1">
         <v>8192000</v>
       </c>
@@ -22176,8 +24202,12 @@
         <f>AVERAGE(B591:K591)</f>
         <v>329.6</v>
       </c>
-    </row>
-    <row r="592" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M591" s="5">
+        <f>_xlfn.STDEV.P(B591:K591)</f>
+        <v>8.616263691415206</v>
+      </c>
+    </row>
+    <row r="592" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A592" s="1">
         <v>16384000</v>
       </c>
@@ -22215,8 +24245,12 @@
         <f>AVERAGE(B592:K592)</f>
         <v>698.4</v>
       </c>
-    </row>
-    <row r="593" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M592" s="5">
+        <f>_xlfn.STDEV.P(B592:K592)</f>
+        <v>35.584266186054762</v>
+      </c>
+    </row>
+    <row r="593" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A593" s="1">
         <v>32768000</v>
       </c>
@@ -22254,8 +24288,12 @@
         <f>AVERAGE(B593:K593)</f>
         <v>1359.7</v>
       </c>
-    </row>
-    <row r="594" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M593" s="5">
+        <f>_xlfn.STDEV.P(B593:K593)</f>
+        <v>39.283711637267679</v>
+      </c>
+    </row>
+    <row r="594" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A594" s="1">
         <v>65536000</v>
       </c>
@@ -22293,8 +24331,12 @@
         <f>AVERAGE(B594:K594)</f>
         <v>2734.5</v>
       </c>
-    </row>
-    <row r="596" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M594" s="5">
+        <f>_xlfn.STDEV.P(B594:K594)</f>
+        <v>86.894476234108225</v>
+      </c>
+    </row>
+    <row r="596" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B596" t="s">
         <v>2</v>
       </c>
@@ -22326,7 +24368,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="597" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A597" s="1">
         <v>1000</v>
       </c>
@@ -22364,8 +24406,12 @@
         <f>AVERAGE(B597:K597)</f>
         <v>32.200000000000003</v>
       </c>
-    </row>
-    <row r="598" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M597" s="5">
+        <f>_xlfn.STDEV.P(B597:K597)</f>
+        <v>4.6216880033165371</v>
+      </c>
+    </row>
+    <row r="598" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A598" s="1">
         <v>2000</v>
       </c>
@@ -22403,8 +24449,12 @@
         <f>AVERAGE(B598:K598)</f>
         <v>29.7</v>
       </c>
-    </row>
-    <row r="599" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M598" s="5">
+        <f>_xlfn.STDEV.P(B598:K598)</f>
+        <v>4.920365840057018</v>
+      </c>
+    </row>
+    <row r="599" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A599" s="1">
         <v>4000</v>
       </c>
@@ -22442,8 +24492,12 @@
         <f>AVERAGE(B599:K599)</f>
         <v>28.2</v>
       </c>
-    </row>
-    <row r="600" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M599" s="5">
+        <f>_xlfn.STDEV.P(B599:K599)</f>
+        <v>6.1122827159744499</v>
+      </c>
+    </row>
+    <row r="600" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A600" s="1">
         <v>8000</v>
       </c>
@@ -22481,8 +24535,12 @@
         <f>AVERAGE(B600:K600)</f>
         <v>26.4</v>
       </c>
-    </row>
-    <row r="601" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M600" s="5">
+        <f>_xlfn.STDEV.P(B600:K600)</f>
+        <v>7.2553428588868218</v>
+      </c>
+    </row>
+    <row r="601" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A601" s="1">
         <v>16000</v>
       </c>
@@ -22520,8 +24578,12 @@
         <f>AVERAGE(B601:K601)</f>
         <v>28.1</v>
       </c>
-    </row>
-    <row r="602" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M601" s="5">
+        <f>_xlfn.STDEV.P(B601:K601)</f>
+        <v>6.3158530698552511</v>
+      </c>
+    </row>
+    <row r="602" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A602" s="1">
         <v>32000</v>
       </c>
@@ -22559,8 +24621,12 @@
         <f>AVERAGE(B602:K602)</f>
         <v>26.8</v>
       </c>
-    </row>
-    <row r="603" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M602" s="5">
+        <f>_xlfn.STDEV.P(B602:K602)</f>
+        <v>7.0823724838503095</v>
+      </c>
+    </row>
+    <row r="603" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A603" s="1">
         <v>64000</v>
       </c>
@@ -22598,8 +24664,12 @@
         <f>AVERAGE(B603:K603)</f>
         <v>28</v>
       </c>
-    </row>
-    <row r="604" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M603" s="5">
+        <f>_xlfn.STDEV.P(B603:K603)</f>
+        <v>6.0166435825965294</v>
+      </c>
+    </row>
+    <row r="604" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A604" s="1">
         <v>128000</v>
       </c>
@@ -22637,8 +24707,12 @@
         <f>AVERAGE(B604:K604)</f>
         <v>37.5</v>
       </c>
-    </row>
-    <row r="605" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M604" s="5">
+        <f>_xlfn.STDEV.P(B604:K604)</f>
+        <v>7.7620873481300121</v>
+      </c>
+    </row>
+    <row r="605" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A605" s="1">
         <v>256000</v>
       </c>
@@ -22676,8 +24750,12 @@
         <f>AVERAGE(B605:K605)</f>
         <v>36</v>
       </c>
-    </row>
-    <row r="606" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M605" s="5">
+        <f>_xlfn.STDEV.P(B605:K605)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="606" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A606" s="1">
         <v>512000</v>
       </c>
@@ -22715,8 +24793,12 @@
         <f>AVERAGE(B606:K606)</f>
         <v>51.6</v>
       </c>
-    </row>
-    <row r="607" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M606" s="5">
+        <f>_xlfn.STDEV.P(B606:K606)</f>
+        <v>6.8293484315855491</v>
+      </c>
+    </row>
+    <row r="607" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A607" s="1">
         <v>1024000</v>
       </c>
@@ -22754,8 +24836,12 @@
         <f>AVERAGE(B607:K607)</f>
         <v>72.2</v>
       </c>
-    </row>
-    <row r="608" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M607" s="5">
+        <f>_xlfn.STDEV.P(B607:K607)</f>
+        <v>7.5339232807349452</v>
+      </c>
+    </row>
+    <row r="608" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A608" s="1">
         <v>2048000</v>
       </c>
@@ -22793,8 +24879,12 @@
         <f>AVERAGE(B608:K608)</f>
         <v>116.9</v>
       </c>
-    </row>
-    <row r="609" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M608" s="5">
+        <f>_xlfn.STDEV.P(B608:K608)</f>
+        <v>8.1049367671808525</v>
+      </c>
+    </row>
+    <row r="609" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A609" s="1">
         <v>4096000</v>
       </c>
@@ -22832,8 +24922,12 @@
         <f>AVERAGE(B609:K609)</f>
         <v>204.9</v>
       </c>
-    </row>
-    <row r="610" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M609" s="5">
+        <f>_xlfn.STDEV.P(B609:K609)</f>
+        <v>11.175419455215094</v>
+      </c>
+    </row>
+    <row r="610" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A610" s="1">
         <v>8192000</v>
       </c>
@@ -22871,8 +24965,12 @@
         <f>AVERAGE(B610:K610)</f>
         <v>392.2</v>
       </c>
-    </row>
-    <row r="611" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M610" s="5">
+        <f>_xlfn.STDEV.P(B610:K610)</f>
+        <v>21.816507511515219</v>
+      </c>
+    </row>
+    <row r="611" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A611" s="1">
         <v>16384000</v>
       </c>
@@ -22910,8 +25008,12 @@
         <f>AVERAGE(B611:K611)</f>
         <v>768.6</v>
       </c>
-    </row>
-    <row r="612" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M611" s="5">
+        <f>_xlfn.STDEV.P(B611:K611)</f>
+        <v>45.9351717097041</v>
+      </c>
+    </row>
+    <row r="612" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A612" s="1">
         <v>32768000</v>
       </c>
@@ -22949,8 +25051,12 @@
         <f>AVERAGE(B612:K612)</f>
         <v>1448.4</v>
       </c>
-    </row>
-    <row r="613" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M612" s="5">
+        <f>_xlfn.STDEV.P(B612:K612)</f>
+        <v>47.259284802036518</v>
+      </c>
+    </row>
+    <row r="613" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A613" s="1">
         <v>65536000</v>
       </c>
@@ -22988,8 +25094,12 @@
         <f>AVERAGE(B613:K613)</f>
         <v>2787.3</v>
       </c>
-    </row>
-    <row r="615" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M613" s="5">
+        <f>_xlfn.STDEV.P(B613:K613)</f>
+        <v>99.334837796213264</v>
+      </c>
+    </row>
+    <row r="615" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B615" t="s">
         <v>3</v>
       </c>
@@ -23021,7 +25131,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="616" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A616" s="1">
         <v>1000</v>
       </c>
@@ -23059,8 +25169,12 @@
         <f>AVERAGE(B616:K616)</f>
         <v>39</v>
       </c>
-    </row>
-    <row r="617" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M616" s="5">
+        <f>_xlfn.STDEV.P(B616:K616)</f>
+        <v>7.810249675906654</v>
+      </c>
+    </row>
+    <row r="617" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A617" s="1">
         <v>2000</v>
       </c>
@@ -23098,8 +25212,12 @@
         <f>AVERAGE(B617:K617)</f>
         <v>42.1</v>
       </c>
-    </row>
-    <row r="618" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M617" s="5">
+        <f>_xlfn.STDEV.P(B617:K617)</f>
+        <v>7.2725511342306834</v>
+      </c>
+    </row>
+    <row r="618" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A618" s="1">
         <v>4000</v>
       </c>
@@ -23137,8 +25255,12 @@
         <f>AVERAGE(B618:K618)</f>
         <v>37.4</v>
       </c>
-    </row>
-    <row r="619" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M618" s="5">
+        <f>_xlfn.STDEV.P(B618:K618)</f>
+        <v>7.8511145705562084</v>
+      </c>
+    </row>
+    <row r="619" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A619" s="1">
         <v>8000</v>
       </c>
@@ -23176,8 +25298,12 @@
         <f>AVERAGE(B619:K619)</f>
         <v>34.4</v>
       </c>
-    </row>
-    <row r="620" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M619" s="5">
+        <f>_xlfn.STDEV.P(B619:K619)</f>
+        <v>6.3118935352237999</v>
+      </c>
+    </row>
+    <row r="620" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A620" s="1">
         <v>16000</v>
       </c>
@@ -23215,8 +25341,12 @@
         <f>AVERAGE(B620:K620)</f>
         <v>36.200000000000003</v>
       </c>
-    </row>
-    <row r="621" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M620" s="5">
+        <f>_xlfn.STDEV.P(B620:K620)</f>
+        <v>7.096477999684069</v>
+      </c>
+    </row>
+    <row r="621" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A621" s="1">
         <v>32000</v>
       </c>
@@ -23254,8 +25384,12 @@
         <f>AVERAGE(B621:K621)</f>
         <v>39.200000000000003</v>
       </c>
-    </row>
-    <row r="622" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M621" s="5">
+        <f>_xlfn.STDEV.P(B621:K621)</f>
+        <v>7.6262703859750474</v>
+      </c>
+    </row>
+    <row r="622" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A622" s="1">
         <v>64000</v>
       </c>
@@ -23293,8 +25427,12 @@
         <f>AVERAGE(B622:K622)</f>
         <v>35.9</v>
       </c>
-    </row>
-    <row r="623" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M622" s="5">
+        <f>_xlfn.STDEV.P(B622:K622)</f>
+        <v>7.077428911688199</v>
+      </c>
+    </row>
+    <row r="623" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A623" s="1">
         <v>128000</v>
       </c>
@@ -23332,8 +25470,12 @@
         <f>AVERAGE(B623:K623)</f>
         <v>40.700000000000003</v>
       </c>
-    </row>
-    <row r="624" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M623" s="5">
+        <f>_xlfn.STDEV.P(B623:K623)</f>
+        <v>7.9378838489864538</v>
+      </c>
+    </row>
+    <row r="624" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A624" s="1">
         <v>256000</v>
       </c>
@@ -23371,8 +25513,12 @@
         <f>AVERAGE(B624:K624)</f>
         <v>40.5</v>
       </c>
-    </row>
-    <row r="625" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M624" s="5">
+        <f>_xlfn.STDEV.P(B624:K624)</f>
+        <v>10.707474025184466</v>
+      </c>
+    </row>
+    <row r="625" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A625" s="1">
         <v>512000</v>
       </c>
@@ -23410,8 +25556,12 @@
         <f>AVERAGE(B625:K625)</f>
         <v>51.7</v>
       </c>
-    </row>
-    <row r="626" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M625" s="5">
+        <f>_xlfn.STDEV.P(B625:K625)</f>
+        <v>7.4033776075518398</v>
+      </c>
+    </row>
+    <row r="626" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A626" s="1">
         <v>1024000</v>
       </c>
@@ -23449,8 +25599,12 @@
         <f>AVERAGE(B626:K626)</f>
         <v>66.900000000000006</v>
       </c>
-    </row>
-    <row r="627" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M626" s="5">
+        <f>_xlfn.STDEV.P(B626:K626)</f>
+        <v>7.5026661927610769</v>
+      </c>
+    </row>
+    <row r="627" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A627" s="1">
         <v>2048000</v>
       </c>
@@ -23488,8 +25642,12 @@
         <f>AVERAGE(B627:K627)</f>
         <v>96.8</v>
       </c>
-    </row>
-    <row r="628" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M627" s="5">
+        <f>_xlfn.STDEV.P(B627:K627)</f>
+        <v>6.1122827159744491</v>
+      </c>
+    </row>
+    <row r="628" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A628" s="1">
         <v>4096000</v>
       </c>
@@ -23527,8 +25685,12 @@
         <f>AVERAGE(B628:K628)</f>
         <v>153.30000000000001</v>
       </c>
-    </row>
-    <row r="629" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M628" s="5">
+        <f>_xlfn.STDEV.P(B628:K628)</f>
+        <v>6.4350602172784681</v>
+      </c>
+    </row>
+    <row r="629" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A629" s="1">
         <v>8192000</v>
       </c>
@@ -23566,8 +25728,12 @@
         <f>AVERAGE(B629:K629)</f>
         <v>281.5</v>
       </c>
-    </row>
-    <row r="630" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M629" s="5">
+        <f>_xlfn.STDEV.P(B629:K629)</f>
+        <v>13.647344063956181</v>
+      </c>
+    </row>
+    <row r="630" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A630" s="1">
         <v>16384000</v>
       </c>
@@ -23605,8 +25771,12 @@
         <f>AVERAGE(B630:K630)</f>
         <v>535.9</v>
       </c>
-    </row>
-    <row r="631" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M630" s="5">
+        <f>_xlfn.STDEV.P(B630:K630)</f>
+        <v>28.83210016630769</v>
+      </c>
+    </row>
+    <row r="631" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A631" s="1">
         <v>32768000</v>
       </c>
@@ -23644,8 +25814,12 @@
         <f>AVERAGE(B631:K631)</f>
         <v>999.8</v>
       </c>
-    </row>
-    <row r="632" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M631" s="5">
+        <f>_xlfn.STDEV.P(B631:K631)</f>
+        <v>36.325748443769193</v>
+      </c>
+    </row>
+    <row r="632" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A632" s="1">
         <v>65536000</v>
       </c>
@@ -23683,8 +25857,12 @@
         <f>AVERAGE(B632:K632)</f>
         <v>1934.7</v>
       </c>
-    </row>
-    <row r="634" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M632" s="5">
+        <f>_xlfn.STDEV.P(B632:K632)</f>
+        <v>122.24896727580155</v>
+      </c>
+    </row>
+    <row r="634" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B634" t="s">
         <v>4</v>
       </c>
@@ -23716,7 +25894,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="635" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A635" s="1">
         <v>1000</v>
       </c>
@@ -23754,8 +25932,12 @@
         <f>AVERAGE(B635:K635)</f>
         <v>64.2</v>
       </c>
-    </row>
-    <row r="636" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M635" s="5">
+        <f>_xlfn.STDEV.P(B635:K635)</f>
+        <v>8.3282651254628046</v>
+      </c>
+    </row>
+    <row r="636" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A636" s="1">
         <v>2000</v>
       </c>
@@ -23793,8 +25975,12 @@
         <f>AVERAGE(B636:K636)</f>
         <v>62.5</v>
       </c>
-    </row>
-    <row r="637" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M636" s="5">
+        <f>_xlfn.STDEV.P(B636:K636)</f>
+        <v>6.946221994724902</v>
+      </c>
+    </row>
+    <row r="637" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A637" s="1">
         <v>4000</v>
       </c>
@@ -23832,8 +26018,12 @@
         <f>AVERAGE(B637:K637)</f>
         <v>59.3</v>
       </c>
-    </row>
-    <row r="638" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M637" s="5">
+        <f>_xlfn.STDEV.P(B637:K637)</f>
+        <v>6.1652250567193407</v>
+      </c>
+    </row>
+    <row r="638" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A638" s="1">
         <v>8000</v>
       </c>
@@ -23871,8 +26061,12 @@
         <f>AVERAGE(B638:K638)</f>
         <v>60.8</v>
       </c>
-    </row>
-    <row r="639" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M638" s="5">
+        <f>_xlfn.STDEV.P(B638:K638)</f>
+        <v>4.6216880033165362</v>
+      </c>
+    </row>
+    <row r="639" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A639" s="1">
         <v>16000</v>
       </c>
@@ -23910,8 +26104,12 @@
         <f>AVERAGE(B639:K639)</f>
         <v>61.1</v>
       </c>
-    </row>
-    <row r="640" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M639" s="5">
+        <f>_xlfn.STDEV.P(B639:K639)</f>
+        <v>8.383913167489272</v>
+      </c>
+    </row>
+    <row r="640" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A640" s="1">
         <v>32000</v>
       </c>
@@ -23949,8 +26147,12 @@
         <f>AVERAGE(B640:K640)</f>
         <v>64.3</v>
       </c>
-    </row>
-    <row r="641" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M640" s="5">
+        <f>_xlfn.STDEV.P(B640:K640)</f>
+        <v>10.817116066678771</v>
+      </c>
+    </row>
+    <row r="641" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A641" s="1">
         <v>64000</v>
       </c>
@@ -23988,8 +26190,12 @@
         <f>AVERAGE(B641:K641)</f>
         <v>60.8</v>
       </c>
-    </row>
-    <row r="642" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M641" s="5">
+        <f>_xlfn.STDEV.P(B641:K641)</f>
+        <v>8.3402637847972176</v>
+      </c>
+    </row>
+    <row r="642" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A642" s="1">
         <v>128000</v>
       </c>
@@ -24027,8 +26233,12 @@
         <f>AVERAGE(B642:K642)</f>
         <v>65.7</v>
       </c>
-    </row>
-    <row r="643" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M642" s="5">
+        <f>_xlfn.STDEV.P(B642:K642)</f>
+        <v>11.314150432091663</v>
+      </c>
+    </row>
+    <row r="643" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A643" s="1">
         <v>256000</v>
       </c>
@@ -24066,8 +26276,12 @@
         <f>AVERAGE(B643:K643)</f>
         <v>65.400000000000006</v>
       </c>
-    </row>
-    <row r="644" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M643" s="5">
+        <f>_xlfn.STDEV.P(B643:K643)</f>
+        <v>5.8172158288995943</v>
+      </c>
+    </row>
+    <row r="644" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A644" s="1">
         <v>512000</v>
       </c>
@@ -24105,8 +26319,12 @@
         <f>AVERAGE(B644:K644)</f>
         <v>72.099999999999994</v>
       </c>
-    </row>
-    <row r="645" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M644" s="5">
+        <f>_xlfn.STDEV.P(B644:K644)</f>
+        <v>7.854298186343577</v>
+      </c>
+    </row>
+    <row r="645" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A645" s="1">
         <v>1024000</v>
       </c>
@@ -24144,8 +26362,12 @@
         <f>AVERAGE(B645:K645)</f>
         <v>84.2</v>
       </c>
-    </row>
-    <row r="646" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M645" s="5">
+        <f>_xlfn.STDEV.P(B645:K645)</f>
+        <v>7.8204859184068614</v>
+      </c>
+    </row>
+    <row r="646" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A646" s="1">
         <v>2048000</v>
       </c>
@@ -24183,8 +26405,12 @@
         <f>AVERAGE(B646:K646)</f>
         <v>109.5</v>
       </c>
-    </row>
-    <row r="647" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M646" s="5">
+        <f>_xlfn.STDEV.P(B646:K646)</f>
+        <v>6.946221994724902</v>
+      </c>
+    </row>
+    <row r="647" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A647" s="1">
         <v>4096000</v>
       </c>
@@ -24222,8 +26448,12 @@
         <f>AVERAGE(B647:K647)</f>
         <v>164</v>
       </c>
-    </row>
-    <row r="648" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M647" s="5">
+        <f>_xlfn.STDEV.P(B647:K647)</f>
+        <v>10.592450141492289</v>
+      </c>
+    </row>
+    <row r="648" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A648" s="1">
         <v>8192000</v>
       </c>
@@ -24261,8 +26491,12 @@
         <f>AVERAGE(B648:K648)</f>
         <v>262.39999999999998</v>
       </c>
-    </row>
-    <row r="649" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M648" s="5">
+        <f>_xlfn.STDEV.P(B648:K648)</f>
+        <v>15.193419628246959</v>
+      </c>
+    </row>
+    <row r="649" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A649" s="1">
         <v>16384000</v>
       </c>
@@ -24300,8 +26534,12 @@
         <f>AVERAGE(B649:K649)</f>
         <v>482.8</v>
       </c>
-    </row>
-    <row r="650" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M649" s="5">
+        <f>_xlfn.STDEV.P(B649:K649)</f>
+        <v>28.329489935401241</v>
+      </c>
+    </row>
+    <row r="650" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A650" s="1">
         <v>32768000</v>
       </c>
@@ -24339,8 +26577,12 @@
         <f>AVERAGE(B650:K650)</f>
         <v>882.4</v>
       </c>
-    </row>
-    <row r="651" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M650" s="5">
+        <f>_xlfn.STDEV.P(B650:K650)</f>
+        <v>33.437105137855461</v>
+      </c>
+    </row>
+    <row r="651" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A651" s="1">
         <v>65536000</v>
       </c>
@@ -24378,8 +26620,12 @@
         <f>AVERAGE(B651:K651)</f>
         <v>1664.1</v>
       </c>
-    </row>
-    <row r="653" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M651" s="5">
+        <f>_xlfn.STDEV.P(B651:K651)</f>
+        <v>68.71600977938111</v>
+      </c>
+    </row>
+    <row r="653" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B653" t="s">
         <v>5</v>
       </c>
@@ -24411,7 +26657,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="654" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A654" s="1">
         <v>1000</v>
       </c>
@@ -24449,8 +26695,12 @@
         <f>AVERAGE(B654:K654)</f>
         <v>123.2</v>
       </c>
-    </row>
-    <row r="655" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M654" s="5">
+        <f>_xlfn.STDEV.P(B654:K654)</f>
+        <v>4.7497368348151667</v>
+      </c>
+    </row>
+    <row r="655" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A655" s="1">
         <v>2000</v>
       </c>
@@ -24488,8 +26738,12 @@
         <f>AVERAGE(B655:K655)</f>
         <v>118.8</v>
       </c>
-    </row>
-    <row r="656" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M655" s="5">
+        <f>_xlfn.STDEV.P(B655:K655)</f>
+        <v>7.6000000000000005</v>
+      </c>
+    </row>
+    <row r="656" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A656" s="1">
         <v>4000</v>
       </c>
@@ -24527,8 +26781,12 @@
         <f>AVERAGE(B656:K656)</f>
         <v>120.2</v>
       </c>
-    </row>
-    <row r="657" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M656" s="5">
+        <f>_xlfn.STDEV.P(B656:K656)</f>
+        <v>10.097524449091472</v>
+      </c>
+    </row>
+    <row r="657" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A657" s="1">
         <v>8000</v>
       </c>
@@ -24566,8 +26824,12 @@
         <f>AVERAGE(B657:K657)</f>
         <v>123.5</v>
       </c>
-    </row>
-    <row r="658" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M657" s="5">
+        <f>_xlfn.STDEV.P(B657:K657)</f>
+        <v>8.2734515167492226</v>
+      </c>
+    </row>
+    <row r="658" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A658" s="1">
         <v>16000</v>
       </c>
@@ -24605,8 +26867,12 @@
         <f>AVERAGE(B658:K658)</f>
         <v>118.7</v>
       </c>
-    </row>
-    <row r="659" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M658" s="5">
+        <f>_xlfn.STDEV.P(B658:K658)</f>
+        <v>10.080178569846865</v>
+      </c>
+    </row>
+    <row r="659" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A659" s="1">
         <v>32000</v>
       </c>
@@ -24644,8 +26910,12 @@
         <f>AVERAGE(B659:K659)</f>
         <v>125.2</v>
       </c>
-    </row>
-    <row r="660" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M659" s="5">
+        <f>_xlfn.STDEV.P(B659:K659)</f>
+        <v>9.8163129534464204</v>
+      </c>
+    </row>
+    <row r="660" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A660" s="1">
         <v>64000</v>
       </c>
@@ -24683,8 +26953,12 @@
         <f>AVERAGE(B660:K660)</f>
         <v>120.5</v>
       </c>
-    </row>
-    <row r="661" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M660" s="5">
+        <f>_xlfn.STDEV.P(B660:K660)</f>
+        <v>12.491997438360288</v>
+      </c>
+    </row>
+    <row r="661" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A661" s="1">
         <v>128000</v>
       </c>
@@ -24722,8 +26996,12 @@
         <f>AVERAGE(B661:K661)</f>
         <v>126.1</v>
       </c>
-    </row>
-    <row r="662" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M661" s="5">
+        <f>_xlfn.STDEV.P(B661:K661)</f>
+        <v>10.848502200764861</v>
+      </c>
+    </row>
+    <row r="662" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A662" s="1">
         <v>256000</v>
       </c>
@@ -24761,8 +27039,12 @@
         <f>AVERAGE(B662:K662)</f>
         <v>126.8</v>
       </c>
-    </row>
-    <row r="663" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M662" s="5">
+        <f>_xlfn.STDEV.P(B662:K662)</f>
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="663" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A663" s="1">
         <v>512000</v>
       </c>
@@ -24800,8 +27082,12 @@
         <f>AVERAGE(B663:K663)</f>
         <v>126.5</v>
       </c>
-    </row>
-    <row r="664" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M663" s="5">
+        <f>_xlfn.STDEV.P(B663:K663)</f>
+        <v>4.5221676218380056</v>
+      </c>
+    </row>
+    <row r="664" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A664" s="1">
         <v>1024000</v>
       </c>
@@ -24839,8 +27125,12 @@
         <f>AVERAGE(B664:K664)</f>
         <v>139.1</v>
       </c>
-    </row>
-    <row r="665" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M664" s="5">
+        <f>_xlfn.STDEV.P(B664:K664)</f>
+        <v>10.885311203635844</v>
+      </c>
+    </row>
+    <row r="665" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A665" s="1">
         <v>2048000</v>
       </c>
@@ -24878,8 +27168,12 @@
         <f>AVERAGE(B665:K665)</f>
         <v>170.2</v>
       </c>
-    </row>
-    <row r="666" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M665" s="5">
+        <f>_xlfn.STDEV.P(B665:K665)</f>
+        <v>14.441606558828557</v>
+      </c>
+    </row>
+    <row r="666" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A666" s="1">
         <v>4096000</v>
       </c>
@@ -24917,8 +27211,12 @@
         <f>AVERAGE(B666:K666)</f>
         <v>202.9</v>
       </c>
-    </row>
-    <row r="667" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M666" s="5">
+        <f>_xlfn.STDEV.P(B666:K666)</f>
+        <v>13.866866985732575</v>
+      </c>
+    </row>
+    <row r="667" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A667" s="1">
         <v>8192000</v>
       </c>
@@ -24956,8 +27254,12 @@
         <f>AVERAGE(B667:K667)</f>
         <v>307.7</v>
       </c>
-    </row>
-    <row r="668" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M667" s="5">
+        <f>_xlfn.STDEV.P(B667:K667)</f>
+        <v>14.241137595009747</v>
+      </c>
+    </row>
+    <row r="668" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A668" s="1">
         <v>16384000</v>
       </c>
@@ -24995,8 +27297,12 @@
         <f>AVERAGE(B668:K668)</f>
         <v>521.6</v>
       </c>
-    </row>
-    <row r="669" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M668" s="5">
+        <f>_xlfn.STDEV.P(B668:K668)</f>
+        <v>18.890209104189399</v>
+      </c>
+    </row>
+    <row r="669" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A669" s="1">
         <v>32768000</v>
       </c>
@@ -25034,8 +27340,12 @@
         <f>AVERAGE(B669:K669)</f>
         <v>926.5</v>
       </c>
-    </row>
-    <row r="670" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M669" s="5">
+        <f>_xlfn.STDEV.P(B669:K669)</f>
+        <v>33.121745123106059</v>
+      </c>
+    </row>
+    <row r="670" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A670" s="1">
         <v>65536000</v>
       </c>
@@ -25073,8 +27383,12 @@
         <f>AVERAGE(B670:K670)</f>
         <v>1717.2</v>
       </c>
-    </row>
-    <row r="672" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M670" s="5">
+        <f>_xlfn.STDEV.P(B670:K670)</f>
+        <v>73.88477515699698</v>
+      </c>
+    </row>
+    <row r="672" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B672" t="s">
         <v>6</v>
       </c>
@@ -25106,7 +27420,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="673" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A673" s="1">
         <v>1000</v>
       </c>
@@ -25144,8 +27458,12 @@
         <f>AVERAGE(B673:K673)</f>
         <v>239</v>
       </c>
-    </row>
-    <row r="674" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M673" s="5">
+        <f>_xlfn.STDEV.P(B673:K673)</f>
+        <v>12.173742234826561</v>
+      </c>
+    </row>
+    <row r="674" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A674" s="1">
         <v>2000</v>
       </c>
@@ -25183,8 +27501,12 @@
         <f>AVERAGE(B674:K674)</f>
         <v>246.9</v>
       </c>
-    </row>
-    <row r="675" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M674" s="5">
+        <f>_xlfn.STDEV.P(B674:K674)</f>
+        <v>17.073078222745888</v>
+      </c>
+    </row>
+    <row r="675" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A675" s="1">
         <v>4000</v>
       </c>
@@ -25222,8 +27544,12 @@
         <f>AVERAGE(B675:K675)</f>
         <v>254.8</v>
       </c>
-    </row>
-    <row r="676" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M675" s="5">
+        <f>_xlfn.STDEV.P(B675:K675)</f>
+        <v>29.171218692402963</v>
+      </c>
+    </row>
+    <row r="676" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A676" s="1">
         <v>8000</v>
       </c>
@@ -25261,8 +27587,12 @@
         <f>AVERAGE(B676:K676)</f>
         <v>251.4</v>
       </c>
-    </row>
-    <row r="677" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M676" s="5">
+        <f>_xlfn.STDEV.P(B676:K676)</f>
+        <v>16.353592877407703</v>
+      </c>
+    </row>
+    <row r="677" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A677" s="1">
         <v>16000</v>
       </c>
@@ -25300,8 +27630,12 @@
         <f>AVERAGE(B677:K677)</f>
         <v>253.4</v>
       </c>
-    </row>
-    <row r="678" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M677" s="5">
+        <f>_xlfn.STDEV.P(B677:K677)</f>
+        <v>20.597087172704786</v>
+      </c>
+    </row>
+    <row r="678" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A678" s="1">
         <v>32000</v>
       </c>
@@ -25339,8 +27673,12 @@
         <f>AVERAGE(B678:K678)</f>
         <v>252.9</v>
       </c>
-    </row>
-    <row r="679" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M678" s="5">
+        <f>_xlfn.STDEV.P(B678:K678)</f>
+        <v>9.5441081301502457</v>
+      </c>
+    </row>
+    <row r="679" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A679" s="1">
         <v>64000</v>
       </c>
@@ -25378,8 +27716,12 @@
         <f>AVERAGE(B679:K679)</f>
         <v>247</v>
       </c>
-    </row>
-    <row r="680" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M679" s="5">
+        <f>_xlfn.STDEV.P(B679:K679)</f>
+        <v>13.542525613784159</v>
+      </c>
+    </row>
+    <row r="680" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A680" s="1">
         <v>128000</v>
       </c>
@@ -25417,8 +27759,12 @@
         <f>AVERAGE(B680:K680)</f>
         <v>248.4</v>
       </c>
-    </row>
-    <row r="681" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M680" s="5">
+        <f>_xlfn.STDEV.P(B680:K680)</f>
+        <v>23.686282950264694</v>
+      </c>
+    </row>
+    <row r="681" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A681" s="1">
         <v>256000</v>
       </c>
@@ -25456,8 +27802,12 @@
         <f>AVERAGE(B681:K681)</f>
         <v>257.7</v>
       </c>
-    </row>
-    <row r="682" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M681" s="5">
+        <f>_xlfn.STDEV.P(B681:K681)</f>
+        <v>12.474373731775074</v>
+      </c>
+    </row>
+    <row r="682" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A682" s="1">
         <v>512000</v>
       </c>
@@ -25495,8 +27845,12 @@
         <f>AVERAGE(B682:K682)</f>
         <v>259.5</v>
       </c>
-    </row>
-    <row r="683" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M682" s="5">
+        <f>_xlfn.STDEV.P(B682:K682)</f>
+        <v>16.187958487715491</v>
+      </c>
+    </row>
+    <row r="683" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A683" s="1">
         <v>1024000</v>
       </c>
@@ -25534,8 +27888,12 @@
         <f>AVERAGE(B683:K683)</f>
         <v>273.39999999999998</v>
       </c>
-    </row>
-    <row r="684" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M683" s="5">
+        <f>_xlfn.STDEV.P(B683:K683)</f>
+        <v>22.424094184604201</v>
+      </c>
+    </row>
+    <row r="684" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A684" s="1">
         <v>2048000</v>
       </c>
@@ -25573,8 +27931,12 @@
         <f>AVERAGE(B684:K684)</f>
         <v>287.3</v>
       </c>
-    </row>
-    <row r="685" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M684" s="5">
+        <f>_xlfn.STDEV.P(B684:K684)</f>
+        <v>20.214103987068039</v>
+      </c>
+    </row>
+    <row r="685" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A685" s="1">
         <v>4096000</v>
       </c>
@@ -25612,8 +27974,12 @@
         <f>AVERAGE(B685:K685)</f>
         <v>332.6</v>
       </c>
-    </row>
-    <row r="686" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M685" s="5">
+        <f>_xlfn.STDEV.P(B685:K685)</f>
+        <v>18.227451824103117</v>
+      </c>
+    </row>
+    <row r="686" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A686" s="1">
         <v>8192000</v>
       </c>
@@ -25651,8 +28017,12 @@
         <f>AVERAGE(B686:K686)</f>
         <v>407.8</v>
       </c>
-    </row>
-    <row r="687" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M686" s="5">
+        <f>_xlfn.STDEV.P(B686:K686)</f>
+        <v>8.5883642214335545</v>
+      </c>
+    </row>
+    <row r="687" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A687" s="1">
         <v>16384000</v>
       </c>
@@ -25690,8 +28060,12 @@
         <f>AVERAGE(B687:K687)</f>
         <v>616.79999999999995</v>
       </c>
-    </row>
-    <row r="688" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M687" s="5">
+        <f>_xlfn.STDEV.P(B687:K687)</f>
+        <v>25.435408390666741</v>
+      </c>
+    </row>
+    <row r="688" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A688" s="1">
         <v>32768000</v>
       </c>
@@ -25729,8 +28103,12 @@
         <f>AVERAGE(B688:K688)</f>
         <v>1012.2</v>
       </c>
-    </row>
-    <row r="689" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M688" s="5">
+        <f>_xlfn.STDEV.P(B688:K688)</f>
+        <v>35.999444440157689</v>
+      </c>
+    </row>
+    <row r="689" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A689" s="1">
         <v>65536000</v>
       </c>
@@ -25767,6 +28145,10 @@
       <c r="L689" s="2">
         <f>AVERAGE(B689:K689)</f>
         <v>1820.5</v>
+      </c>
+      <c r="M689" s="5">
+        <f>_xlfn.STDEV.P(B689:K689)</f>
+        <v>46.193614277300277</v>
       </c>
     </row>
   </sheetData>
